--- a/Summary.xlsx
+++ b/Summary.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Leetcode debuging\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{892C72B7-59B3-4060-AC08-DFE04AAB3D5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77903405-EA30-41E8-80B5-F0FC1C6A073B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="23">
   <si>
     <t>Question</t>
   </si>
@@ -43,6 +43,57 @@
   </si>
   <si>
     <t>Use hashmap to store &lt;value, freq&gt; for each element then use a arr of list(yes list)of size n+1, add ele with freq 'f' at indx 'f' in the list, traverse this list from end to start</t>
+  </si>
+  <si>
+    <t>2770. Maximum Number of Jumps to Reach the Last Index</t>
+  </si>
+  <si>
+    <t>Use 2 loops &amp; arr, in each iteration update updade arr[j] = Max(arr[j] , 1+arr[i]), i= outer loop, j =inner loop. Also initialize arr with min_val and in outer loop if (arr[i]=min) skip ineer loop, caz how can we jump form "i" if we havent reached I in previous iteration</t>
+  </si>
+  <si>
+    <t>217. Contains Duplicate</t>
+  </si>
+  <si>
+    <t>use Set, use loop, insert ele from arr into Set in loop in every iteration check if(set.size==arr.size)</t>
+  </si>
+  <si>
+    <t>542. 01 Matrix</t>
+  </si>
+  <si>
+    <t>2D array</t>
+  </si>
+  <si>
+    <t>use BFS with queue (q contains indx i j of ele), change all 1s to Max_val, start bfs from 0, go explore up down left right (exploredCell) of each ele popped (currCell), check --  if explored cell is within bounds &amp;  exploredCellValue &gt; currCellValue + 1), if ture update the explored cell with  currCellValue + 1 (ie smaller value) and add it to queue</t>
+  </si>
+  <si>
+    <t>242. Valid Anagram</t>
+  </si>
+  <si>
+    <t>Use hashmap to count freq of each char in both strings then compare the hashmaps with hmObj.equals(hm2);</t>
+  </si>
+  <si>
+    <t>String</t>
+  </si>
+  <si>
+    <t>7. Reverse Integer</t>
+  </si>
+  <si>
+    <t>Convert num to string, reverse the string (we can only store 32 bit int)  in case ans_string.len = Max_value_string.len check if each digit of ans_string &lt; MAX_VALUE_str or MIN_VALUE_str (after removing -ve sign),,, also if lets say 100's digit ans_string &lt; max_val's 100's gight obviously all digits after it wont matter even if they are bigger than max_vals since the ans is ultimately &lt; max_value</t>
+  </si>
+  <si>
+    <t>122. Best Time to Buy and Sell Stock II</t>
+  </si>
+  <si>
+    <t>Use Recursion &amp; DP, use for loop, calculate profit between start (u get this as param) &amp; i, if profit is strictly -ve skip, else do recursive call with next start from i+1 (basically u start from subarray i+1)</t>
+  </si>
+  <si>
+    <t>238. Product of Array Except Self</t>
+  </si>
+  <si>
+    <t>Make 2 arrs, use loop from 0 - n for forwadProduct[] in this ith ele is = nums[i](currEle)*forwadProduct[i-1](product till i-1)  &amp; backwardProduct[] in use loop from n - 0 and in this ith element = currEle*backwardProduct[i+1],,, ans[i] = forwadProduct[i-1]*backwardProduct[i+1]</t>
+  </si>
+  <si>
+    <t>All the solusions can be found on neetcode youtube channel or its website (or in my own leetcode solutions, just search the problem in "problems" section)</t>
   </si>
 </sst>
 </file>
@@ -66,7 +117,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -75,7 +126,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -92,10 +149,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -376,20 +443,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.77734375" customWidth="1"/>
-    <col min="2" max="2" width="31.21875" customWidth="1"/>
-    <col min="3" max="3" width="110.109375" customWidth="1"/>
+    <col min="1" max="1" width="21.77734375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="31.21875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="110.109375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="8.88671875" style="2"/>
+    <col min="5" max="5" width="78.33203125" style="2" customWidth="1"/>
+    <col min="6" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -400,15 +470,95 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+    <row r="2" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="2" t="s">
         <v>5</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/Summary.xlsx
+++ b/Summary.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Leetcode\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Folders to backup!!!\Leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77903405-EA30-41E8-80B5-F0FC1C6A073B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E17C8811-8FE2-44EE-8407-BDDE279006A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="25">
   <si>
     <t>Question</t>
   </si>
@@ -94,6 +94,35 @@
   </si>
   <si>
     <t>All the solusions can be found on neetcode youtube channel or its website (or in my own leetcode solutions, just search the problem in "problems" section)</t>
+  </si>
+  <si>
+    <t>36. Valid Sudoku</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Just check the conditions as given in the problem </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>using set &amp; arrayList</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, add the chars to both of them and check if their sizes are equal, if they are not equal return false, for checking the 3x3 grid of 9x9 board use 4 loop to check, outer 2 loops increment by 3 in each iter and add the vars of outer 2 loops to rows and cols respectively (inner 2 loops i&amp;j go from 0 to 2)</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -443,10 +472,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -561,6 +590,17 @@
         <v>21</v>
       </c>
     </row>
+    <row r="10" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/Summary.xlsx
+++ b/Summary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Folders to backup!!!\Leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E17C8811-8FE2-44EE-8407-BDDE279006A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05552E15-61AF-4DB5-886A-4F5A55617F50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="27">
   <si>
     <t>Question</t>
   </si>
@@ -122,6 +122,56 @@
         <scheme val="minor"/>
       </rPr>
       <t>, add the chars to both of them and check if their sizes are equal, if they are not equal return false, for checking the 3x3 grid of 9x9 board use 4 loop to check, outer 2 loops increment by 3 in each iter and add the vars of outer 2 loops to rows and cols respectively (inner 2 loops i&amp;j go from 0 to 2)</t>
+    </r>
+  </si>
+  <si>
+    <t>128. Longest Consecutive Sequence</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">We have to do this in O(n) so use </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Hashset, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">first store all nums in set called "set", then in another loop iter over all the ele in "set" &amp; if (ele-1) exits in "set" skip &amp; if it doesn’t, add that ele in aother set called "startVals" this set stores the start of every seq in nums, the finally iter over startVals in 3rd loop using for-each and inside put a while loop which will run if set.contains(val+1) and inside while loop update val = val+1 since "set" constains it and so counter++,, after the end of while loop </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>check if "counter" &gt; "longetCount" if true the update "longestCount"</t>
     </r>
   </si>
 </sst>
@@ -472,10 +522,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -601,6 +651,17 @@
         <v>24</v>
       </c>
     </row>
+    <row r="11" spans="1:5" ht="72" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/Summary.xlsx
+++ b/Summary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Folders to backup!!!\Leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05552E15-61AF-4DB5-886A-4F5A55617F50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E87958B-D996-41AE-B68F-BAAE64DC1BE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,9 +36,6 @@
     <t>Solution Summary</t>
   </si>
   <si>
-    <t>Arrays &amp; hashmap</t>
-  </si>
-  <si>
     <t>347. Top K Frequent Elements</t>
   </si>
   <si>
@@ -173,6 +170,9 @@
       </rPr>
       <t>check if "counter" &gt; "longetCount" if true the update "longestCount"</t>
     </r>
+  </si>
+  <si>
+    <t>Arrays &amp; hashing</t>
   </si>
 </sst>
 </file>
@@ -525,7 +525,7 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -551,115 +551,115 @@
     </row>
     <row r="2" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>5</v>
-      </c>
       <c r="E2" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>3</v>
+        <v>26</v>
       </c>
       <c r="B3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>6</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>3</v>
+        <v>26</v>
       </c>
       <c r="B4" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>8</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>11</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>3</v>
+        <v>26</v>
       </c>
       <c r="B6" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>13</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="C7" s="2" t="s">
         <v>16</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>3</v>
+        <v>26</v>
       </c>
       <c r="B8" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>18</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>3</v>
+        <v>26</v>
       </c>
       <c r="B9" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>20</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>3</v>
+        <v>26</v>
       </c>
       <c r="B10" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="2" t="s">
         <v>23</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="72" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>3</v>
+        <v>26</v>
       </c>
       <c r="B11" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" s="2" t="s">
         <v>25</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/Summary.xlsx
+++ b/Summary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Folders to backup!!!\Leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E87958B-D996-41AE-B68F-BAAE64DC1BE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AD7092B-B874-4EB6-923F-279817D687E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="30">
   <si>
     <t>Question</t>
   </si>
@@ -174,6 +174,16 @@
   <si>
     <t>Arrays &amp; hashing</t>
   </si>
+  <si>
+    <t>2 Pointers</t>
+  </si>
+  <si>
+    <t>167. Two Sum II - Input Array Is Sorted</t>
+  </si>
+  <si>
+    <t>use 2 pointers, "firstPtr" start from 0 &amp; "lastPtr" from arr.len-1, calculate the "sum" of numbers present at these ptrs, if(sum==target) return the curr Indexs, if(sum&gt;target) decrement "lastPtr" by 1 and if (sum&lt;target) increment "firstPtr" by 1
+This only works since arr are sorted, lets say sum&lt;target so u obviously have to move the "firstPtr" to a bigger number which is to the right since arr is sorted</t>
+  </si>
 </sst>
 </file>
 
@@ -216,12 +226,27 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -230,16 +255,16 @@
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -522,144 +547,155 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.77734375" style="2" customWidth="1"/>
-    <col min="2" max="2" width="31.21875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="110.109375" style="2" customWidth="1"/>
-    <col min="4" max="4" width="8.88671875" style="2"/>
-    <col min="5" max="5" width="78.33203125" style="2" customWidth="1"/>
-    <col min="6" max="16384" width="8.88671875" style="2"/>
+    <col min="1" max="1" width="21.77734375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="31.21875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="110.109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="8.88671875" style="1"/>
+    <col min="5" max="5" width="78.33203125" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="4" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="1" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="1" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="1" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="1" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" s="1" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="72" x14ac:dyDescent="0.3">
-      <c r="A11" s="2" t="s">
+      <c r="A11" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C11" s="1" t="s">
         <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/Summary.xlsx
+++ b/Summary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Folders to backup!!!\Leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AD7092B-B874-4EB6-923F-279817D687E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6246EA3-C7B4-4B87-9336-664AF05FC689}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="32">
   <si>
     <t>Question</t>
   </si>
@@ -183,6 +183,12 @@
   <si>
     <t>use 2 pointers, "firstPtr" start from 0 &amp; "lastPtr" from arr.len-1, calculate the "sum" of numbers present at these ptrs, if(sum==target) return the curr Indexs, if(sum&gt;target) decrement "lastPtr" by 1 and if (sum&lt;target) increment "firstPtr" by 1
 This only works since arr are sorted, lets say sum&lt;target so u obviously have to move the "firstPtr" to a bigger number which is to the right since arr is sorted</t>
+  </si>
+  <si>
+    <t>15. 3Sum</t>
+  </si>
+  <si>
+    <t>First sort the array to use 2 pointers then use 2 loops, since x+y+z=0 in outer for loop fix the value of "x" now in the inner loop u have 2sum-II problem traverse the array after x using "up" &amp; "down" and add the x+up+down==0 elements to "ans" list, also here check if the curr ans is == previous ans in "ans" List. In the outer for loop check condition if(curr x==prev x) then skip iter caz if curr x = prev x then we will get the same answers as prev x (IMP! Be sure to check  if(curr x==prev x) in outer for loop other whise the condition insize the while loop to check if curr ans = prev ans in "ans" list) wont work</t>
   </si>
 </sst>
 </file>
@@ -547,10 +553,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C15" sqref="C14:C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -698,6 +704,17 @@
         <v>29</v>
       </c>
     </row>
+    <row r="13" spans="1:5" ht="72" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/Summary.xlsx
+++ b/Summary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Folders to backup!!!\Leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6246EA3-C7B4-4B87-9336-664AF05FC689}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12F2CCF9-C851-4693-A6C7-1150F7EF26F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="34">
   <si>
     <t>Question</t>
   </si>
@@ -189,6 +189,12 @@
   </si>
   <si>
     <t>First sort the array to use 2 pointers then use 2 loops, since x+y+z=0 in outer for loop fix the value of "x" now in the inner loop u have 2sum-II problem traverse the array after x using "up" &amp; "down" and add the x+up+down==0 elements to "ans" list, also here check if the curr ans is == previous ans in "ans" List. In the outer for loop check condition if(curr x==prev x) then skip iter caz if curr x = prev x then we will get the same answers as prev x (IMP! Be sure to check  if(curr x==prev x) in outer for loop other whise the condition insize the while loop to check if curr ans = prev ans in "ans" list) wont work</t>
+  </si>
+  <si>
+    <t>11. Container With Most Water</t>
+  </si>
+  <si>
+    <t>This solution has 2 pointer &amp; has sort of greedy approach. Start with "up" at last position &amp; "down" pointer at indx 0. Calculate the volume by (up-down)*min(height[up], height[down]) and update the ans if its smaller. Now if "up" is at lets say height = 7 , while down is at height = 1 why would u update the ptr "up" to go to a unknown height, insead update the ptr that points to a smaller height in this example "down" ptr. If(height of down &lt; height of up) update down,, else update up,,, edge case if both heights are = it doesnt matter which u update</t>
   </si>
 </sst>
 </file>
@@ -553,10 +559,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C15" sqref="C14:C15"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -715,6 +721,17 @@
         <v>31</v>
       </c>
     </row>
+    <row r="14" spans="1:5" ht="72" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/Summary.xlsx
+++ b/Summary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Folders to backup!!!\Leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12F2CCF9-C851-4693-A6C7-1150F7EF26F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E544A88-AB6C-4572-861D-C649BAB8FD63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="36">
   <si>
     <t>Question</t>
   </si>
@@ -196,6 +196,13 @@
   <si>
     <t>This solution has 2 pointer &amp; has sort of greedy approach. Start with "up" at last position &amp; "down" pointer at indx 0. Calculate the volume by (up-down)*min(height[up], height[down]) and update the ans if its smaller. Now if "up" is at lets say height = 7 , while down is at height = 1 why would u update the ptr "up" to go to a unknown height, insead update the ptr that points to a smaller height in this example "down" ptr. If(height of down &lt; height of up) update down,, else update up,,, edge case if both heights are = it doesnt matter which u update</t>
   </si>
+  <si>
+    <t>42. Trapping Rain Water</t>
+  </si>
+  <si>
+    <t>The idea is to use 2 ptrs, "leftWall" &amp; "rightWall", use a while loop, inside call a func findRightWall(), this function finds the right wall give and arr &amp; leftWall, the right wall is such that It is &gt;= left wall, but incase there is no such wall in subarr leftWall to end, then return the biggest wall from subarr leftwall to end of arr.... next is a func getWaterBetween Walls() given an height arr, leftWall &amp; rightWall, it returns the am of water that can be collected between them, use a while loop &amp; initalize tmpPtr = leftWall+1, in while(tmpPtr&lt;rightWall) loop do totalWater += height[tmpPtr] - minWallHeight where minWallHeight = min(height[leftWall],height[rightWall]), then tmpPter++
+Finally after calling both these funcs change the right wall to left wall ie leftWall = rightWall,,,, now in next iter we will find right wall again</t>
+  </si>
 </sst>
 </file>
 
@@ -218,7 +225,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -234,6 +241,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -265,7 +278,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -277,6 +290,9 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -559,10 +575,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -732,6 +748,17 @@
         <v>33</v>
       </c>
     </row>
+    <row r="15" spans="1:5" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/Summary.xlsx
+++ b/Summary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Folders to backup!!!\Leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E544A88-AB6C-4572-861D-C649BAB8FD63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30039380-B1B1-444F-B249-880A6401EE6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="39">
   <si>
     <t>Question</t>
   </si>
@@ -202,6 +202,38 @@
   <si>
     <t>The idea is to use 2 ptrs, "leftWall" &amp; "rightWall", use a while loop, inside call a func findRightWall(), this function finds the right wall give and arr &amp; leftWall, the right wall is such that It is &gt;= left wall, but incase there is no such wall in subarr leftWall to end, then return the biggest wall from subarr leftwall to end of arr.... next is a func getWaterBetween Walls() given an height arr, leftWall &amp; rightWall, it returns the am of water that can be collected between them, use a while loop &amp; initalize tmpPtr = leftWall+1, in while(tmpPtr&lt;rightWall) loop do totalWater += height[tmpPtr] - minWallHeight where minWallHeight = min(height[leftWall],height[rightWall]), then tmpPter++
 Finally after calling both these funcs change the right wall to left wall ie leftWall = rightWall,,,, now in next iter we will find right wall again</t>
+  </si>
+  <si>
+    <t>Sliding Window</t>
+  </si>
+  <si>
+    <t>3. Longest Substring Without Repeating Characters</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">The idea is to use a hashset &amp; keep track of the start of the window using "winStart", iter over the chars in array, if currChar isnt present in hs then add it, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>before this</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> put a while(hs.contains(currChar)) loop do hs.remove( charArr[winstart] ) then winStart++, since we are sliding the window to the right if we detect a char same as currChar in hashset</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -575,10 +607,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -759,6 +791,17 @@
         <v>35</v>
       </c>
     </row>
+    <row r="16" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/Summary.xlsx
+++ b/Summary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Folders to backup!!!\Leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30039380-B1B1-444F-B249-880A6401EE6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F90394C6-DFC6-4203-9B02-43063A8D8EAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="42">
   <si>
     <t>Question</t>
   </si>
@@ -234,6 +234,15 @@
       </rPr>
       <t xml:space="preserve"> put a while(hs.contains(currChar)) loop do hs.remove( charArr[winstart] ) then winStart++, since we are sliding the window to the right if we detect a char same as currChar in hashset</t>
     </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Stack </t>
+  </si>
+  <si>
+    <t>155. Min Stack</t>
+  </si>
+  <si>
+    <t>We have to design a stack with operations push(), pop(), top() &amp; getMin(), all having time O(1),,, the first 3 are straightforward, but for getMin() brute force is O(n),, for getMin we will make a stack&lt;Node&gt; where node has int num (curr num) &amp; int min (this is the minimum num from curr num to end/bottom of the stack) , while pushing you set Node.num = inputNum &amp; Node.min = min(inputNum, getMin()),, ie u set min = min(input, previous minimum in stack)</t>
   </si>
 </sst>
 </file>
@@ -607,10 +616,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="E19" sqref="E17:E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -802,6 +811,17 @@
         <v>38</v>
       </c>
     </row>
+    <row r="17" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/Summary.xlsx
+++ b/Summary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Folders to backup!!!\Leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F90394C6-DFC6-4203-9B02-43063A8D8EAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A18238AD-EA96-4588-817B-8240D94ACB41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="47">
   <si>
     <t>Question</t>
   </si>
@@ -243,6 +243,21 @@
   </si>
   <si>
     <t>We have to design a stack with operations push(), pop(), top() &amp; getMin(), all having time O(1),,, the first 3 are straightforward, but for getMin() brute force is O(n),, for getMin we will make a stack&lt;Node&gt; where node has int num (curr num) &amp; int min (this is the minimum num from curr num to end/bottom of the stack) , while pushing you set Node.num = inputNum &amp; Node.min = min(inputNum, getMin()),, ie u set min = min(input, previous minimum in stack)</t>
+  </si>
+  <si>
+    <t>150. Evaluate Reverse Polish Notation</t>
+  </si>
+  <si>
+    <t>Use stack ,iter over tokens, put all the number inside the stack, when u encounter a operator (*,-,+,/) pop 2 nums as num1, num2 and do the specified operations on it and push the result back into the stack,, continue iterating over tokens</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Backtracking </t>
+  </si>
+  <si>
+    <t>22. Generate Parentheses</t>
+  </si>
+  <si>
+    <t>Do a recursive backtracking. U can add "(" if num of openParenthes&lt;n,, U can add ")" to str if num of closing parantheses &lt; num of open Parentheses,, Base case is when open Parentheses = closing Parenthses = n (num of partheses which we can use to genrate valid permutation, this is given)</t>
   </si>
 </sst>
 </file>
@@ -616,10 +631,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E17"/>
+  <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="E19" sqref="E17:E19"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -822,6 +837,28 @@
         <v>41</v>
       </c>
     </row>
+    <row r="18" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/Summary.xlsx
+++ b/Summary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Folders to backup!!!\Leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A18238AD-EA96-4588-817B-8240D94ACB41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B07FD52-E18B-42CD-8676-DBCD585679AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="50">
   <si>
     <t>Question</t>
   </si>
@@ -258,6 +258,35 @@
   </si>
   <si>
     <t>Do a recursive backtracking. U can add "(" if num of openParenthes&lt;n,, U can add ")" to str if num of closing parantheses &lt; num of open Parentheses,, Base case is when open Parentheses = closing Parenthses = n (num of partheses which we can use to genrate valid permutation, this is given)</t>
+  </si>
+  <si>
+    <t>Stack</t>
+  </si>
+  <si>
+    <t>739. Daily Temperatures</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">This qs requires the understanding of monotonic stack! </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Make a stack&lt;Node&gt;, Node is a class that stores tempreature value &amp; its indx, Use a for loop to iter over the array of temps. Inside put a while(stack not empty &amp; stack.top &lt; curr temp) do -&gt; stack.pop(), ans[i] = curr temp indx - popped value indx; when this is over do stack.push(new Node(currTemp, itsIndx));</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -631,10 +660,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:E20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -859,6 +888,17 @@
         <v>46</v>
       </c>
     </row>
+    <row r="20" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/Summary.xlsx
+++ b/Summary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Folders to backup!!!\Leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B07FD52-E18B-42CD-8676-DBCD585679AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69476D4F-6345-451C-A42B-5E6B662A8B1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="51">
   <si>
     <t>Question</t>
   </si>
@@ -287,6 +287,10 @@
       </rPr>
       <t>Make a stack&lt;Node&gt;, Node is a class that stores tempreature value &amp; its indx, Use a for loop to iter over the array of temps. Inside put a while(stack not empty &amp; stack.top &lt; curr temp) do -&gt; stack.pop(), ans[i] = curr temp indx - popped value indx; when this is over do stack.push(new Node(currTemp, itsIndx));</t>
     </r>
+  </si>
+  <si>
+    <t>Monotonic Stack link: 
+https://youtu.be/J7Ll0I-GSwA?si=DxuogRf_PFGVbM3E</t>
   </si>
 </sst>
 </file>
@@ -663,7 +667,7 @@
   <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="E5" sqref="E3:E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -671,7 +675,7 @@
     <col min="1" max="1" width="21.77734375" style="1" customWidth="1"/>
     <col min="2" max="2" width="31.21875" style="1" customWidth="1"/>
     <col min="3" max="3" width="110.109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="8.88671875" style="1"/>
+    <col min="4" max="4" width="29.88671875" style="1" customWidth="1"/>
     <col min="5" max="5" width="78.33203125" style="1" customWidth="1"/>
     <col min="6" max="16384" width="8.88671875" style="1"/>
   </cols>
@@ -687,7 +691,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" ht="72" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>26</v>
       </c>
@@ -697,9 +701,10 @@
       <c r="C2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="D2" s="4" t="s">
         <v>21</v>
       </c>
+      <c r="E2" s="4"/>
     </row>
     <row r="3" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
@@ -855,7 +860,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>39</v>
       </c>
@@ -866,7 +871,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>39</v>
       </c>
@@ -877,7 +882,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>44</v>
       </c>
@@ -888,7 +893,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" ht="144" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>47</v>
       </c>
@@ -897,6 +902,9 @@
       </c>
       <c r="C20" s="1" t="s">
         <v>49</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>

--- a/Summary.xlsx
+++ b/Summary.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Folders to backup!!!\Leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69476D4F-6345-451C-A42B-5E6B662A8B1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF426E08-A2E8-4A38-930B-7A09E83EE1A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="55">
   <si>
     <t>Question</t>
   </si>
@@ -291,13 +291,108 @@
   <si>
     <t>Monotonic Stack link: 
 https://youtu.be/J7Ll0I-GSwA?si=DxuogRf_PFGVbM3E</t>
+  </si>
+  <si>
+    <t>Stack &amp; Math</t>
+  </si>
+  <si>
+    <t>853. Car Fleet</t>
+  </si>
+  <si>
+    <t>https://youtu.be/Pr6T-3yB9RM?si=wIJ8hfr__GLOv1ps</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">You need to know monotonic stack!!! </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">First sort both the arrs BUT only accourding to position. After sorting use stack&lt;Car&gt; &amp; iterate the position arr in </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>reverse</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> order, define "ttt" (time to arriave on target) = (target - currCarsPosition)/currCarSpeed,,, if the curr car's ttt &lt; st.top().ttt ie curr car will arrive at target before the car on its right which is impossible in a single lane no overtaking road (given) (and since we are iter sorted position in reverse order) so curr car will slow down to the st.top() car's speed, so </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>discard</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>curr car</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>. If we encounter a car with ttt &gt; st.top(), push it onto the stack... After the iter the answer = st.size()</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -309,6 +404,14 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -364,10 +467,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -384,8 +488,12 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -664,10 +772,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E20"/>
+  <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="E5" sqref="E3:E5"/>
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -893,7 +1001,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="144" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" ht="69" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>47</v>
       </c>
@@ -907,8 +1015,25 @@
         <v>50</v>
       </c>
     </row>
+    <row r="21" spans="1:4" ht="72" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>53</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D21" r:id="rId1" xr:uid="{35299F42-C228-43E2-B954-EFB9EDC93588}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId2"/>
 </worksheet>
 </file>
--- a/Summary.xlsx
+++ b/Summary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Folders to backup!!!\Leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF426E08-A2E8-4A38-930B-7A09E83EE1A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D032A87D-9F56-4003-B6B3-F5744678F679}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="57">
   <si>
     <t>Question</t>
   </si>
@@ -385,6 +385,46 @@
         <scheme val="minor"/>
       </rPr>
       <t>. If we encounter a car with ttt &gt; st.top(), push it onto the stack... After the iter the answer = st.size()</t>
+    </r>
+  </si>
+  <si>
+    <t>84. Largest Rectangle in Histogram</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">U need to understand monotonic stack first!!!,,,, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>This solution is too hard for me to explain watch this video for visual explaination:</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>https://youtu.be/zx5Sw9130L0?si=79lWeV1xHcdTWbPt</t>
     </r>
   </si>
 </sst>
@@ -772,10 +812,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E21"/>
+  <dimension ref="A1:E22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1029,6 +1069,17 @@
         <v>53</v>
       </c>
     </row>
+    <row r="22" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="D21" r:id="rId1" xr:uid="{35299F42-C228-43E2-B954-EFB9EDC93588}"/>

--- a/Summary.xlsx
+++ b/Summary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Folders to backup!!!\Leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D032A87D-9F56-4003-B6B3-F5744678F679}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D570BC2D-1381-440C-9106-F3CF687E7A3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="60">
   <si>
     <t>Question</t>
   </si>
@@ -426,6 +426,19 @@
       </rPr>
       <t>https://youtu.be/zx5Sw9130L0?si=79lWeV1xHcdTWbPt</t>
     </r>
+  </si>
+  <si>
+    <t>This Apprach use the usual binary seach. 
+First check if the target &lt; mat[0][0] or target &gt; mat[end][end] if true return false
+First you search the rows to see in which row the target lies, do this using binary search! 
+Then after finding the row use normal binary search on the potential row in which the target lies, if found return true
+after all this if the func is still going that means target does not exist in the mat, return false</t>
+  </si>
+  <si>
+    <t>74. Search a 2D Matrix</t>
+  </si>
+  <si>
+    <t>Binary Search</t>
   </si>
 </sst>
 </file>
@@ -812,10 +825,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E22"/>
+  <dimension ref="A1:E23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1080,6 +1093,17 @@
         <v>56</v>
       </c>
     </row>
+    <row r="23" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="D21" r:id="rId1" xr:uid="{35299F42-C228-43E2-B954-EFB9EDC93588}"/>

--- a/Summary.xlsx
+++ b/Summary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Folders to backup!!!\Leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D570BC2D-1381-440C-9106-F3CF687E7A3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE6A9D1D-8E3C-43F7-AC8C-37D12DC1F4E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="62">
   <si>
     <t>Question</t>
   </si>
@@ -439,6 +439,23 @@
   </si>
   <si>
     <t>Binary Search</t>
+  </si>
+  <si>
+    <t>875. Koko Eating Bananas</t>
+  </si>
+  <si>
+    <t>Do binary search ON "k" dont sort any piles or anything
+kstart =1, kend = max(piles)
+use while loop (kstart&lt;=kend){
+kmid = middle of kstart and kend
+calculate timeTaken with kmid
+if(timeTake&lt;=h) { //we are taking less than expected time, so we can further decrease speed of eating
+	k = min(k, kmid)
+	kend = kmid -1
+}
+else { //we are taking more than expected time, so increase speed of eating
+k start = kmid+1
+}</t>
   </si>
 </sst>
 </file>
@@ -825,10 +842,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E23"/>
+  <dimension ref="A1:E24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1104,6 +1121,17 @@
         <v>57</v>
       </c>
     </row>
+    <row r="24" spans="1:4" ht="201.6" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="D21" r:id="rId1" xr:uid="{35299F42-C228-43E2-B954-EFB9EDC93588}"/>

--- a/Summary.xlsx
+++ b/Summary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Folders to backup!!!\Leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE6A9D1D-8E3C-43F7-AC8C-37D12DC1F4E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB62CCB1-767A-4014-BD0A-47A2D2A4CF67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="66">
   <si>
     <t>Question</t>
   </si>
@@ -456,6 +456,21 @@
 else { //we are taking more than expected time, so increase speed of eating
 k start = kmid+1
 }</t>
+  </si>
+  <si>
+    <t>Stack &amp; Recursion</t>
+  </si>
+  <si>
+    <t>224. Basic Calculator</t>
+  </si>
+  <si>
+    <t>first convert to postfix, in postfix put "," before everytime u encounter a operator to indicate end of a number
+then in soultution everytime u encounter a single "," parse the final number u made from chars to Integer and store in stack
+if u encounter 2 ",," simultaneously that means there was a a expression like 1 -(-2) which means u should push a 0 to the stack when u encounter a ",,"
+if u encounter ,2,3+ in postfix this means the expression was "-2+3", in postfix we add "," evertime we encounter a operator to indicate end of num, since there was no num before "-" this means that the "-" is unary operator, so push a 0 here too!</t>
+  </si>
+  <si>
+    <t>My approach is very inefficent, checkout a efficient approach on YT or Leetcode</t>
   </si>
 </sst>
 </file>
@@ -541,7 +556,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -559,6 +574,9 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -842,10 +860,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E24"/>
+  <dimension ref="A1:E25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1132,6 +1150,20 @@
         <v>61</v>
       </c>
     </row>
+    <row r="25" spans="1:4" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>65</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="D21" r:id="rId1" xr:uid="{35299F42-C228-43E2-B954-EFB9EDC93588}"/>

--- a/Summary.xlsx
+++ b/Summary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Folders to backup!!!\Leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB62CCB1-767A-4014-BD0A-47A2D2A4CF67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B499EE2-54D8-40FA-96EC-0F2975107B38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="69">
   <si>
     <t>Question</t>
   </si>
@@ -471,6 +471,24 @@
   </si>
   <si>
     <t>My approach is very inefficent, checkout a efficient approach on YT or Leetcode</t>
+  </si>
+  <si>
+    <t>153. Find Minimum in Rotated Sorted Array</t>
+  </si>
+  <si>
+    <t xml:space="preserve">couldnt solve on my own, solution by inomag,
+The main idea is, the element is said to be minimum in the rotated sorted array if the previous element to it is greater than it or there is no previous element(i.e. no rotation). We can do this using Binary search
+Find the mid element i.e. mid = (low+high)/2
+If the (mid+1)th element is less than mid element then return (mid+1)th element
+If the mid element is less than (mid-1)th element then return the mid element
+If the last element is greater than mid element then search in left half
+If the last element is less than mid element then search in right half
+Basically we are checking if we are currently in the left sorted portion (the rotated portion) or the right sorted portion. We always want to search "right" sorted portion caz all vals in right sorted portion are garanteed to be &lt; vals in left sorted portion in the subarr caz of the rotation
+</t>
+  </si>
+  <si>
+    <t>https://youtu.be/nIVW4P8b1VA?si=5Y_vMEutgdF12nqb
+https://youtu.be/nhEMDKMB44g?si=whOJgZL9QywEWoZn</t>
   </si>
 </sst>
 </file>
@@ -556,7 +574,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -574,9 +592,6 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -860,10 +875,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E25"/>
+  <dimension ref="A1:E26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1154,7 +1169,7 @@
       <c r="A25" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="B25" s="7" t="s">
+      <c r="B25" s="5" t="s">
         <v>63</v>
       </c>
       <c r="C25" s="1" t="s">
@@ -1162,13 +1177,28 @@
       </c>
       <c r="D25" s="4" t="s">
         <v>65</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="201.6" x14ac:dyDescent="0.3">
+      <c r="A26" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>68</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="D21" r:id="rId1" xr:uid="{35299F42-C228-43E2-B954-EFB9EDC93588}"/>
+    <hyperlink ref="D26" r:id="rId2" display="https://youtu.be/nIVW4P8b1VA?si=5Y_vMEutgdF12nqb" xr:uid="{FA4BDA58-B1DD-48D8-9C29-B4B1FADE61A0}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId3"/>
 </worksheet>
 </file>
--- a/Summary.xlsx
+++ b/Summary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Folders to backup!!!\Leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B499EE2-54D8-40FA-96EC-0F2975107B38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7538DB01-9318-4289-AD58-AC18650502B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="71">
   <si>
     <t>Question</t>
   </si>
@@ -489,6 +489,13 @@
   <si>
     <t>https://youtu.be/nIVW4P8b1VA?si=5Y_vMEutgdF12nqb
 https://youtu.be/nhEMDKMB44g?si=whOJgZL9QywEWoZn</t>
+  </si>
+  <si>
+    <t>33. Search in Rotated Sorted Array</t>
+  </si>
+  <si>
+    <t>for this question u need to know problem - Minimum in Rotated Sorted Array - Binary Search - Leetcode 153
+the minimum in rotated array is nothing but the border/pivot element in rotated arr, so once u get its indx u can do simple binary search on the 2 subarray arrays divided by pivot</t>
   </si>
 </sst>
 </file>
@@ -875,10 +882,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E26"/>
+  <dimension ref="A1:E27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1193,6 +1200,17 @@
         <v>68</v>
       </c>
     </row>
+    <row r="27" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A27" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="D21" r:id="rId1" xr:uid="{35299F42-C228-43E2-B954-EFB9EDC93588}"/>

--- a/Summary.xlsx
+++ b/Summary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Folders to backup!!!\Leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7538DB01-9318-4289-AD58-AC18650502B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C494BB2-D66C-4589-804C-1F0D6B92F9F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="74">
   <si>
     <t>Question</t>
   </si>
@@ -496,6 +496,19 @@
   <si>
     <t>for this question u need to know problem - Minimum in Rotated Sorted Array - Binary Search - Leetcode 153
 the minimum in rotated array is nothing but the border/pivot element in rotated arr, so once u get its indx u can do simple binary search on the 2 subarray arrays divided by pivot</t>
+  </si>
+  <si>
+    <t xml:space="preserve">in this question u will use 2 DS - HashMap&lt;Integer, HashMap&lt;String, String&gt;&gt; timeKeyMap
+ArrayList&lt;Integer&gt; timestampsList = null;
+the timestampsList will always be sorted since the time always increasing(duh). When a set() is called append the time stamp to timestampsList. Also u will check if timeKeyMap already contains the key "timestamp", if yes then get the HM at key "timestamp" and put the given key-value in it,  
+If not then make a new HM called "hm" and get the last timestamp from timestampsList, ie timestampsList.get(size-1) and call it "preTimestamp"get the "preHm" from timeKeyMap(preTimestamp) and put all the contents form "preHm" into "hm" using putAll(), after this put the (key, value) into "hm", also before getting the "preTimestamp" form timestampsList you need to check if list is not empty. 
+</t>
+  </si>
+  <si>
+    <t>981. Time Based Key-Value Store</t>
+  </si>
+  <si>
+    <t>Binary Search &amp; Hashing</t>
   </si>
 </sst>
 </file>
@@ -882,10 +895,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E27"/>
+  <dimension ref="A1:E28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1211,6 +1224,17 @@
         <v>70</v>
       </c>
     </row>
+    <row r="28" spans="1:4" ht="172.8" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="D21" r:id="rId1" xr:uid="{35299F42-C228-43E2-B954-EFB9EDC93588}"/>

--- a/Summary.xlsx
+++ b/Summary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Folders to backup!!!\Leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C494BB2-D66C-4589-804C-1F0D6B92F9F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{854B04B9-4154-4C78-8194-55914F745AD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="77">
   <si>
     <t>Question</t>
   </si>
@@ -509,6 +509,15 @@
   </si>
   <si>
     <t>Binary Search &amp; Hashing</t>
+  </si>
+  <si>
+    <t>This question is EXTREMELY HARD refer to neetcodes video for explaination</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://youtu.be/q6IEA26hvXc?si=RB1SByCLUSeiK4li </t>
+  </si>
+  <si>
+    <t>4. Median of Two Sorted Arrays</t>
   </si>
 </sst>
 </file>
@@ -895,10 +904,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E28"/>
+  <dimension ref="A1:E29"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1235,12 +1244,27 @@
         <v>71</v>
       </c>
     </row>
+    <row r="29" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A29" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>75</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="D21" r:id="rId1" xr:uid="{35299F42-C228-43E2-B954-EFB9EDC93588}"/>
     <hyperlink ref="D26" r:id="rId2" display="https://youtu.be/nIVW4P8b1VA?si=5Y_vMEutgdF12nqb" xr:uid="{FA4BDA58-B1DD-48D8-9C29-B4B1FADE61A0}"/>
+    <hyperlink ref="D29" r:id="rId3" xr:uid="{3D062E1E-43EA-4195-A895-604550782F7A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId4"/>
 </worksheet>
 </file>
--- a/Summary.xlsx
+++ b/Summary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Folders to backup!!!\Leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{854B04B9-4154-4C78-8194-55914F745AD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6230853-3299-400A-A7B6-BC3AE6029364}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="79">
   <si>
     <t>Question</t>
   </si>
@@ -518,6 +518,12 @@
   </si>
   <si>
     <t>4. Median of Two Sorted Arrays</t>
+  </si>
+  <si>
+    <t>Linked List</t>
+  </si>
+  <si>
+    <t>143. Reorder List</t>
   </si>
 </sst>
 </file>
@@ -904,10 +910,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E29"/>
+  <dimension ref="A1:E30"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+      <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1258,6 +1264,14 @@
         <v>75</v>
       </c>
     </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>78</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="D21" r:id="rId1" xr:uid="{35299F42-C228-43E2-B954-EFB9EDC93588}"/>

--- a/Summary.xlsx
+++ b/Summary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Folders to backup!!!\Leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6230853-3299-400A-A7B6-BC3AE6029364}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1726C02E-4455-4B66-A42E-F14E43FE6B13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="80">
   <si>
     <t>Question</t>
   </si>
@@ -524,6 +524,15 @@
   </si>
   <si>
     <t>143. Reorder List</t>
+  </si>
+  <si>
+    <t>See neetcode's vid for more clear explaination
+The solution uses 2 ptrs, s &amp; f (slow &amp; fast) the s ptr starts at head in the while() and changes s = s.next while the f ptr initializes f = head.next &amp; in loop f changes as: f = f.next.next
+when f reaches null the s will be at mid pt, after this use another while loop to reverse the links of nodes after "s", use 3 ptrs for this, curr, currNext, currNextNext. 
+after the links the are reversed, make s.next = null since now s.next points to a node which in turn poits to "s"
+end = curr since if(currNext=null) we end the loop, so curr points the last node before currNext
+use p = head &amp; now use a while(p!=s) traverse the LL and keep popping nodes off from the end attach them in given order
+after the loop is done p will be = s so terminate the LL by p.next = null</t>
   </si>
 </sst>
 </file>
@@ -912,8 +921,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="C35" sqref="C35"/>
+    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1264,12 +1273,15 @@
         <v>75</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" ht="201.6" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>77</v>
       </c>
       <c r="B30" s="3" t="s">
         <v>78</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>79</v>
       </c>
     </row>
   </sheetData>

--- a/Summary.xlsx
+++ b/Summary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Folders to backup!!!\Leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1726C02E-4455-4B66-A42E-F14E43FE6B13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEDC35FE-05BF-40DA-A7B1-DE27ED2533BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="82">
   <si>
     <t>Question</t>
   </si>
@@ -533,6 +533,14 @@
 end = curr since if(currNext=null) we end the loop, so curr points the last node before currNext
 use p = head &amp; now use a while(p!=s) traverse the LL and keep popping nodes off from the end attach them in given order
 after the loop is done p will be = s so terminate the LL by p.next = null</t>
+  </si>
+  <si>
+    <t>19. Remove Nth Node From End of List</t>
+  </si>
+  <si>
+    <t>Use 2 ptrs L &amp; R, initialize both = head, use while loop to move R by "n-1" places to the right of L
+Initalize a prev = null
+Now move both using while(R.next!=null) since both will maintain a fixed distance, after the end of the loop L will point to the node to be deleted. The "prev" pointer points to the node before L. Using prev delete L</t>
   </si>
 </sst>
 </file>
@@ -919,10 +927,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E30"/>
+  <dimension ref="A1:E31"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+      <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1284,6 +1292,17 @@
         <v>79</v>
       </c>
     </row>
+    <row r="31" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A31" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="D21" r:id="rId1" xr:uid="{35299F42-C228-43E2-B954-EFB9EDC93588}"/>

--- a/Summary.xlsx
+++ b/Summary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Folders to backup!!!\Leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEDC35FE-05BF-40DA-A7B1-DE27ED2533BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64106304-A08C-4840-975C-EF99E79D27AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="84">
   <si>
     <t>Question</t>
   </si>
@@ -541,6 +541,16 @@
     <t>Use 2 ptrs L &amp; R, initialize both = head, use while loop to move R by "n-1" places to the right of L
 Initalize a prev = null
 Now move both using while(R.next!=null) since both will maintain a fixed distance, after the end of the loop L will point to the node to be deleted. The "prev" pointer points to the node before L. Using prev delete L</t>
+  </si>
+  <si>
+    <t>138. Copy List with Random Pointer</t>
+  </si>
+  <si>
+    <t>This is VERY TRICKY Problem, watch this video: https://youtu.be/5Y2EiZST97Y?si=Hxezj_ZugvAcGz3O
+The trick is to use a HashMap&lt;Node,Node&gt; we store mapping of oldNode, newNode in it. 
+first oldNode = head then use while(oldNode!=null) to iter over original LL, make new copy of each node with same val, leave the .random ptr as null. While creating new copies in the loop do hashmap.put(oldNode, newNode).... be sure to store new head of copy LL too
+Now we need to do a 2nd pass over original LL oldNode = head, using while(oldNode!=null) do newNode = hashmap.get(oldNode); newNode.random = hm.get(oldNode.random) || null; 
+USING HASHMAP FOR MAPPING OLDNODE: NEWNODE IS EXTREMLY IMPORTANT!!!!!!!</t>
   </si>
 </sst>
 </file>
@@ -927,10 +937,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E31"/>
+  <dimension ref="A1:E32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="C35" sqref="C35"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1303,6 +1313,17 @@
         <v>81</v>
       </c>
     </row>
+    <row r="32" spans="1:4" ht="158.4" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="D21" r:id="rId1" xr:uid="{35299F42-C228-43E2-B954-EFB9EDC93588}"/>

--- a/Summary.xlsx
+++ b/Summary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Folders to backup!!!\Leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64106304-A08C-4840-975C-EF99E79D27AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F586026E-E586-4C0D-964B-5B1AA8F472A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="90">
   <si>
     <t>Question</t>
   </si>
@@ -551,6 +551,26 @@
 first oldNode = head then use while(oldNode!=null) to iter over original LL, make new copy of each node with same val, leave the .random ptr as null. While creating new copies in the loop do hashmap.put(oldNode, newNode).... be sure to store new head of copy LL too
 Now we need to do a 2nd pass over original LL oldNode = head, using while(oldNode!=null) do newNode = hashmap.get(oldNode); newNode.random = hm.get(oldNode.random) || null; 
 USING HASHMAP FOR MAPPING OLDNODE: NEWNODE IS EXTREMLY IMPORTANT!!!!!!!</t>
+  </si>
+  <si>
+    <t>2. Add Two Numbers</t>
+  </si>
+  <si>
+    <t>Just add the digits normally and keep in mind the carry genrated. for eg:
+l1 = 8-&gt;null, l2 = 7-&gt; null, so addition is 15, so after the while loop has ended you have to check if there is still a carry remaining. if yes make ans.next = new node(val = carry). Also take care of cases like 
+l1 = 1-&gt;3-&gt;5-&gt;null,  l2 = 9-&gt;null, where len(l1) != len(l2)</t>
+  </si>
+  <si>
+    <t>141. Linked List Cycle</t>
+  </si>
+  <si>
+    <t>Use floyds hare &amp; tortise algo. Use S &amp; F as slow &amp; fast ptrs, every iter check if(F==S) then return true, F = F.next.next, S = s.next… Also initalize S = head &amp; F=head.next since if u initalize them as head the func will always return true since if(F==S) is at start of the while loop</t>
+  </si>
+  <si>
+    <t>287. Find the Duplicate Number</t>
+  </si>
+  <si>
+    <t>This problem is extrmly unintuitive &amp; hard, see this video for explaintion: https://youtu.be/wjYnzkAhcNk?si=OfPcP5x3KHpPWLBD</t>
   </si>
 </sst>
 </file>
@@ -582,7 +602,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -604,6 +624,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -636,7 +662,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -654,6 +680,9 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -937,10 +966,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E32"/>
+  <dimension ref="A1:E35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1324,6 +1353,39 @@
         <v>83</v>
       </c>
     </row>
+    <row r="33" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A33" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A34" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B35" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="D21" r:id="rId1" xr:uid="{35299F42-C228-43E2-B954-EFB9EDC93588}"/>

--- a/Summary.xlsx
+++ b/Summary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Folders to backup!!!\Leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F586026E-E586-4C0D-964B-5B1AA8F472A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A589B194-D36F-4467-8EE9-5912593DF923}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="95">
   <si>
     <t>Question</t>
   </si>
@@ -571,6 +571,24 @@
   </si>
   <si>
     <t>This problem is extrmly unintuitive &amp; hard, see this video for explaintion: https://youtu.be/wjYnzkAhcNk?si=OfPcP5x3KHpPWLBD</t>
+  </si>
+  <si>
+    <t>146. LRU Cache</t>
+  </si>
+  <si>
+    <t>Again this question is pretty hard watch the vid. 
+The gist is basically use a Doubly linked list (DLL) you make a map of Key - ListNode, ListNote itself again conatains the key(int)-value(int). When u perform a get opertion use map.get(key) and the shift the returned note to the tail of DLL before returning the value. 
+When u perform put opertion if(map.size&gt;=capacity) delete the head of DLL also delete that  key in HM. else if(size&lt; capacity) then make a new node with key - value given to u &amp; add this new node at the end of DLL. Also add in HM key(int) - new ListNode... ALSO MAKE Instance VARIABLES CALLED "DLLHead" &amp; "DLLTail" so that u dont have to traverse the DLL every time
+Be sure to update DLLHead &amp; DLLTail properly accounting for all the edge cases</t>
+  </si>
+  <si>
+    <t>https://youtu.be/7ABFKPK2hD4?si=hijxCDq_H5hRp8pN</t>
+  </si>
+  <si>
+    <t>1282. Group the People Given the Group Size They Belong To</t>
+  </si>
+  <si>
+    <t>Make a HM with &lt;grpSize, List of Indexs&gt;&gt;, when the List.size() becomes = grpSize pop/remove it from HM and add it to a global/instance variable "ans" List, now make a new list and do hm.put(grpSize, newList)</t>
   </si>
 </sst>
 </file>
@@ -662,7 +680,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -684,6 +702,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -966,10 +987,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E35"/>
+  <dimension ref="A1:E37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
-      <selection activeCell="C38" sqref="C38"/>
+    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
+      <selection activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1353,7 +1374,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>77</v>
       </c>
@@ -1364,7 +1385,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>77</v>
       </c>
@@ -1375,7 +1396,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
         <v>77</v>
       </c>
@@ -1384,6 +1405,31 @@
       </c>
       <c r="C35" s="1" t="s">
         <v>89</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A36" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C36" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="D36" s="6" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A37" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>94</v>
       </c>
     </row>
   </sheetData>
@@ -1391,8 +1437,9 @@
     <hyperlink ref="D21" r:id="rId1" xr:uid="{35299F42-C228-43E2-B954-EFB9EDC93588}"/>
     <hyperlink ref="D26" r:id="rId2" display="https://youtu.be/nIVW4P8b1VA?si=5Y_vMEutgdF12nqb" xr:uid="{FA4BDA58-B1DD-48D8-9C29-B4B1FADE61A0}"/>
     <hyperlink ref="D29" r:id="rId3" xr:uid="{3D062E1E-43EA-4195-A895-604550782F7A}"/>
+    <hyperlink ref="D36" r:id="rId4" xr:uid="{CBE02A1B-6D59-44C6-85CC-560519A6BC2A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId4"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId5"/>
 </worksheet>
 </file>
--- a/Summary.xlsx
+++ b/Summary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Folders to backup!!!\Leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A589B194-D36F-4467-8EE9-5912593DF923}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55F1014D-2206-4AB3-8865-B8DF273008E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="99">
   <si>
     <t>Question</t>
   </si>
@@ -589,6 +589,41 @@
   </si>
   <si>
     <t>Make a HM with &lt;grpSize, List of Indexs&gt;&gt;, when the List.size() becomes = grpSize pop/remove it from HM and add it to a global/instance variable "ans" List, now make a new list and do hm.put(grpSize, newList)</t>
+  </si>
+  <si>
+    <t>Use 4 ptrs to get left &amp; right node address also previuos Left &amp; next Right node. Reverse using 3 ptrs prev, curr, next. reverse the links while(curr!=nextRightNode) (we dont wanna reverse nextRight). after the loop has ended do previosLeft.next = right &amp; left.next = nextRight (since we have reveresed the sub List)</t>
+  </si>
+  <si>
+    <t>92. Reverse Linked List II</t>
+  </si>
+  <si>
+    <t>23. Merge k Sorted Lists</t>
+  </si>
+  <si>
+    <r>
+      <t>**</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>use Priority queue with custom comparator</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>** as shown in the code. (Now that I think about it u can just put the value of the List node in PQ and pop from it and make new LL for ans LL till the PQ is not empty )</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -703,7 +738,7 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -987,10 +1022,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E37"/>
+  <dimension ref="A1:E39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
-      <selection activeCell="C40" sqref="C40"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1411,7 +1446,7 @@
       <c r="A36" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="B36" s="1" t="s">
+      <c r="B36" s="7" t="s">
         <v>90</v>
       </c>
       <c r="C36" s="8" t="s">
@@ -1425,11 +1460,33 @@
       <c r="A37" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B37" s="1" t="s">
+      <c r="B37" s="3" t="s">
         <v>93</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>94</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A38" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A39" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>98</v>
       </c>
     </row>
   </sheetData>

--- a/Summary.xlsx
+++ b/Summary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Folders to backup!!!\Leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55F1014D-2206-4AB3-8865-B8DF273008E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B48C44E0-B1F4-4DF2-A80C-3499CF418DE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="101">
   <si>
     <t>Question</t>
   </si>
@@ -624,6 +624,18 @@
       </rPr>
       <t>** as shown in the code. (Now that I think about it u can just put the value of the List node in PQ and pop from it and make new LL for ans LL till the PQ is not empty )</t>
     </r>
+  </si>
+  <si>
+    <t>25. Reverse Nodes in k-Group</t>
+  </si>
+  <si>
+    <t>(Similar to Reverse Linked list 2 question on Leetcode) Used 2 ptr approached. Made a func that returns right, left, preLeft, nextRight ptrs. &amp; it also take the previos nodes[ ] (ie previos left, right, preLeft as an Array) if right!=null &amp; next right = null it returns a null array at which we stop reversing links, it also returns null if we encounter tmp.next = null before count==k. 
+now that we have the left right we start reversing from **left.next** since if we start reversing from left the while LL will be reversed, we only wanna reverse a grp/sublist. (Use 3 ptrs for link reversal like in Reverse Linked list 2 question) once that is done the new reversed sublists right node (i.e previos left returned from aur func) sould point to nextRight. ie  
+left.next = nextRight;
+if(preLeft!=null){
+       preLeft.next = right;
+}
+left.next = nextRight for curr sublist &amp; we do preLeft.next = right; for connecting the rightmost node of previous subList to left ("right" before reversing) node of curr sublist</t>
   </si>
 </sst>
 </file>
@@ -1022,10 +1034,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E39"/>
+  <dimension ref="A1:E40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="C39" sqref="C39"/>
+    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
+      <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1489,6 +1501,17 @@
         <v>98</v>
       </c>
     </row>
+    <row r="40" spans="1:4" ht="216" x14ac:dyDescent="0.3">
+      <c r="A40" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="D21" r:id="rId1" xr:uid="{35299F42-C228-43E2-B954-EFB9EDC93588}"/>

--- a/Summary.xlsx
+++ b/Summary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Folders to backup!!!\Leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B48C44E0-B1F4-4DF2-A80C-3499CF418DE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E600EFF7-D35C-488F-ADE9-14A48B572427}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="104">
   <si>
     <t>Question</t>
   </si>
@@ -636,6 +636,16 @@
        preLeft.next = right;
 }
 left.next = nextRight for curr sublist &amp; we do preLeft.next = right; for connecting the rightmost node of previous subList to left ("right" before reversing) node of curr sublist</t>
+  </si>
+  <si>
+    <t>Tree</t>
+  </si>
+  <si>
+    <t>226. Invert Binary Tree</t>
+  </si>
+  <si>
+    <t>Use recursive preorder traversal. First exchange the roots.left &amp; root.right. The call the inversion function itself recursively like mySolution(root.left); mySolution(root.right); 
+When done just return the original root of the tree (OG root is not affected during inversion.)</t>
   </si>
 </sst>
 </file>
@@ -667,7 +677,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -695,6 +705,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -727,7 +743,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -752,6 +768,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1034,10 +1053,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E40"/>
+  <dimension ref="A1:E41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
-      <selection activeCell="B40" sqref="B40"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="C43" sqref="C43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1512,6 +1531,17 @@
         <v>100</v>
       </c>
     </row>
+    <row r="41" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A41" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B41" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="D21" r:id="rId1" xr:uid="{35299F42-C228-43E2-B954-EFB9EDC93588}"/>

--- a/Summary.xlsx
+++ b/Summary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Folders to backup!!!\Leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E600EFF7-D35C-488F-ADE9-14A48B572427}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA009D84-976B-449B-B599-A357E2F3C9F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="106">
   <si>
     <t>Question</t>
   </si>
@@ -646,6 +646,16 @@
   <si>
     <t>Use recursive preorder traversal. First exchange the roots.left &amp; root.right. The call the inversion function itself recursively like mySolution(root.left); mySolution(root.right); 
 When done just return the original root of the tree (OG root is not affected during inversion.)</t>
+  </si>
+  <si>
+    <t>do recursive left right traversal using reursiveFunc(root, depth).  
+if root = null return depth
+int depthLeft = mySolution(root.left, depth+1);
+int depthRight = mySolution(root.right, depth+1);
+return Math.max(depthLeft, depthRight);</t>
+  </si>
+  <si>
+    <t>104. Maximum Depth of Binary Tree</t>
   </si>
 </sst>
 </file>
@@ -1053,10 +1063,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E41"/>
+  <dimension ref="A1:E42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="C43" sqref="C43"/>
+    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
+      <selection activeCell="C42" sqref="C42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1542,6 +1552,17 @@
         <v>103</v>
       </c>
     </row>
+    <row r="42" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A42" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B42" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="D21" r:id="rId1" xr:uid="{35299F42-C228-43E2-B954-EFB9EDC93588}"/>

--- a/Summary.xlsx
+++ b/Summary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Folders to backup!!!\Leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA009D84-976B-449B-B599-A357E2F3C9F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B233681-FB95-4D93-A260-B4A9E09F7ECB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="112">
   <si>
     <t>Question</t>
   </si>
@@ -656,6 +656,36 @@
   </si>
   <si>
     <t>104. Maximum Depth of Binary Tree</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Use DFS. Go till node==null then return null. for a node find 2 heights - height of left subtree &amp; height of right sub tree.
+diameter = leftSubtreeHeight + rightSubtreeHeight
+if(diameter&gt;maxDiameter) then set maxDia = dia
+Return the 1 + Math.max(leftSubtreeHeight, rightSubtreeHeight) (+1 for height of current node) </t>
+  </si>
+  <si>
+    <t>543. Diameter of Binary Tree</t>
+  </si>
+  <si>
+    <t>Similar to diameter of the tree question. Base case if node = null return 0;
+Recursively call:
+int leftSubtreeHeight = mySolution(node.left);
+int rightSubtreeHeight = mySolution(node.right);
+then check if (abs(left-right)&gt;1)  if yes set the isBalanced global/instance variable = false
+finally return 1 + Math.max(leftSubtreeHeight, rightSubtreeHeight); (+ 1 to  add height of current node)</t>
+  </si>
+  <si>
+    <t>110. Balanced Binary Tree</t>
+  </si>
+  <si>
+    <t xml:space="preserve">First check the if either of the nodes is null while the other isnt, if this is the case then set isSame = false, also set isSame = false if(node1.val != node2.val),,, if both are null then return. 
+the recursivly call 
+mySolution(node1.left, node2.left);
+mySolution(node1.right, node2.right);
+like preorder/DFS. </t>
+  </si>
+  <si>
+    <t>100. Same Tree</t>
   </si>
 </sst>
 </file>
@@ -1063,10 +1093,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E42"/>
+  <dimension ref="A1:E45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
-      <selection activeCell="C42" sqref="C42"/>
+    <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
+      <selection activeCell="C45" sqref="C45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1563,6 +1593,39 @@
         <v>104</v>
       </c>
     </row>
+    <row r="43" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A43" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B43" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A44" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B44" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A45" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B45" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="D21" r:id="rId1" xr:uid="{35299F42-C228-43E2-B954-EFB9EDC93588}"/>

--- a/Summary.xlsx
+++ b/Summary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Folders to backup!!!\Leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B233681-FB95-4D93-A260-B4A9E09F7ECB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70168BF1-068B-4944-A6E7-D8558C43DBA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="114">
   <si>
     <t>Question</t>
   </si>
@@ -686,6 +686,22 @@
   </si>
   <si>
     <t>100. Same Tree</t>
+  </si>
+  <si>
+    <t>572. Subtree of Another Tree</t>
+  </si>
+  <si>
+    <t xml:space="preserve">First traverse the main tree (root) using preorder/recursion/DFS. When u encouter a node where node.val == subTreeNode.val the call another func "checkIfSame" which checks if the subtrees are equal. if checkIsSame returns true then return true
+Also put base condition (node==null) &amp; return false at that since if we've hit the end of tree and still not seen a node.val = to subTreeNode.val then the give subtree does not exist in this subtree of OG root. 
+After checking both of the above conditions do:
+boolean isSubTreeOfLeft = traverseTree(node.left, subRoot);
+if (isSubTreeOfLeft)  return true;
+boolean isSubTreeOfRight = traverseTree(node.right, subRoot);
+if (isSubTreeOfRight) return true;
+//if all the above conditions return false then there is no subtree. 
+ return false; 
+if any of the subtree (left or right) of node is same then return false. If both "if" do not execute then the given subtree does not exist in subtree of "node" so return false
+</t>
   </si>
 </sst>
 </file>
@@ -1093,10 +1109,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E45"/>
+  <dimension ref="A1:E46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
-      <selection activeCell="C45" sqref="C45"/>
+    <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0">
+      <selection activeCell="C69" sqref="C69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1626,6 +1642,17 @@
         <v>110</v>
       </c>
     </row>
+    <row r="46" spans="1:4" ht="273.60000000000002" x14ac:dyDescent="0.3">
+      <c r="A46" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B46" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="D21" r:id="rId1" xr:uid="{35299F42-C228-43E2-B954-EFB9EDC93588}"/>

--- a/Summary.xlsx
+++ b/Summary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Folders to backup!!!\Leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70168BF1-068B-4944-A6E7-D8558C43DBA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B30922F-B519-45C6-8EE2-48B02E9D2648}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="118">
   <si>
     <t>Question</t>
   </si>
@@ -702,6 +702,19 @@
  return false; 
 if any of the subtree (left or right) of node is same then return false. If both "if" do not execute then the given subtree does not exist in subtree of "node" so return false
 </t>
+  </si>
+  <si>
+    <t>DP</t>
+  </si>
+  <si>
+    <t>10. Regular Expression Matching</t>
+  </si>
+  <si>
+    <t>https://youtu.be/HAA8mgxlov8?si=Zu3uuQ2Ax4ajpxRk</t>
+  </si>
+  <si>
+    <t>This question is of DP &amp; extremly hard
+[https://youtu.be/HAA8mgxlov8?si=Zu3uuQ2Ax4ajpxRk]</t>
   </si>
 </sst>
 </file>
@@ -799,7 +812,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -827,6 +840,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1109,10 +1128,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E46"/>
+  <dimension ref="A1:E47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0">
-      <selection activeCell="C69" sqref="C69"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="C52" sqref="C51:C52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1653,14 +1672,29 @@
         <v>113</v>
       </c>
     </row>
+    <row r="47" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A47" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B47" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="C47" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="D47" s="6" t="s">
+        <v>116</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="D21" r:id="rId1" xr:uid="{35299F42-C228-43E2-B954-EFB9EDC93588}"/>
     <hyperlink ref="D26" r:id="rId2" display="https://youtu.be/nIVW4P8b1VA?si=5Y_vMEutgdF12nqb" xr:uid="{FA4BDA58-B1DD-48D8-9C29-B4B1FADE61A0}"/>
     <hyperlink ref="D29" r:id="rId3" xr:uid="{3D062E1E-43EA-4195-A895-604550782F7A}"/>
     <hyperlink ref="D36" r:id="rId4" xr:uid="{CBE02A1B-6D59-44C6-85CC-560519A6BC2A}"/>
+    <hyperlink ref="D47" r:id="rId5" xr:uid="{9F9D3102-8043-4EDF-A0EB-53A7BAAE7717}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId6"/>
 </worksheet>
 </file>
--- a/Summary.xlsx
+++ b/Summary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Folders to backup!!!\Leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B30922F-B519-45C6-8EE2-48B02E9D2648}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1EF00C8-47E3-4DE1-A0E5-EDD71C240DF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="120">
   <si>
     <t>Question</t>
   </si>
@@ -715,6 +715,25 @@
   <si>
     <t>This question is of DP &amp; extremly hard
 [https://youtu.be/HAA8mgxlov8?si=Zu3uuQ2Ax4ajpxRk]</t>
+  </si>
+  <si>
+    <t>235. Lowest Common Ancestor of a Binary Search Tree</t>
+  </si>
+  <si>
+    <t>We have to use **POSTORDER TRAVERSAL**. First recursively travel the tree in postorder. 
+After travelling the traversal function will return true of false if the subtree constains the given node. 
+boolean leftNode = postorder(node.left, p, q);
+boolean rightNode = postorder(node.right, p, q);
+now
+if both left &amp; right subtree contain the given nodes make a global variable LCA = current node ONLY if its NOT NULL &amp; then return true (due to the recursive nature of algo the first time both return true &amp; the LCA = current node ie Lowest common ansestor)
+else if either 1 of them is true (both cant be ture since we are checking that condition above) &amp;&amp; (q==currNode || p==currNode) make the global variable LCA = current node ONLY if its NOT NULL &amp; then return true (Lowest common decendant can be a decendent of itself)
+else if leftnode  or rightNode = true then return true // we have found a node atleast in the subtree below
+else{
+if(currNode = p or q) return true; // IMP CONDITION check of curr node is p or q
+else{return false} // this will only execute if p &amp; q are not in subtree below node
+}
+//base condition:
+if node=null return false</t>
   </si>
 </sst>
 </file>
@@ -812,7 +831,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -841,11 +860,8 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1128,10 +1144,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E47"/>
+  <dimension ref="A1:E49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="C52" sqref="C51:C52"/>
+    <sheetView tabSelected="1" topLeftCell="A48" zoomScale="102" workbookViewId="0">
+      <selection activeCell="E48" sqref="E48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1676,15 +1692,29 @@
       <c r="A47" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="B47" s="10" t="s">
+      <c r="B47" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="C47" s="11" t="s">
+      <c r="C47" s="8" t="s">
         <v>117</v>
       </c>
       <c r="D47" s="6" t="s">
         <v>116</v>
       </c>
+    </row>
+    <row r="48" spans="1:4" ht="360" x14ac:dyDescent="0.3">
+      <c r="A48" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="49" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B49" s="10"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/Summary.xlsx
+++ b/Summary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Folders to backup!!!\Leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1EF00C8-47E3-4DE1-A0E5-EDD71C240DF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F3D9CD2-3805-40ED-8E9E-A8FA621C276F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="122">
   <si>
     <t>Question</t>
   </si>
@@ -734,6 +734,15 @@
 }
 //base condition:
 if node=null return false</t>
+  </si>
+  <si>
+    <t>102. Binary Tree Level Order Traversal</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> see how to do Level order traversal at:
+ https://www.youtube.com/watch?v=EoAsWbO7sqg
+ Neetcode's video
+ https://youtu.be/6ZnyEApgFYg?si=kbr6ZRrR5MfQw3IH</t>
   </si>
 </sst>
 </file>
@@ -831,7 +840,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -858,9 +867,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1146,8 +1152,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A48" zoomScale="102" workbookViewId="0">
-      <selection activeCell="E48" sqref="E48"/>
+    <sheetView tabSelected="1" topLeftCell="A48" zoomScale="93" workbookViewId="0">
+      <selection activeCell="D49" sqref="D49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1713,8 +1719,16 @@
         <v>119</v>
       </c>
     </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B49" s="10"/>
+    <row r="49" spans="1:3" ht="72" x14ac:dyDescent="0.3">
+      <c r="A49" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>121</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>

--- a/Summary.xlsx
+++ b/Summary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Folders to backup!!!\Leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F3D9CD2-3805-40ED-8E9E-A8FA621C276F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC70315B-E6CA-4775-AF25-1FE720DDA68A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="126">
   <si>
     <t>Question</t>
   </si>
@@ -743,6 +743,24 @@
  https://www.youtube.com/watch?v=EoAsWbO7sqg
  Neetcode's video
  https://youtu.be/6ZnyEApgFYg?si=kbr6ZRrR5MfQw3IH</t>
+  </si>
+  <si>
+    <t>This is a modification of Level order traversal</t>
+  </si>
+  <si>
+    <t>199. Binary Tree Right Side View</t>
+  </si>
+  <si>
+    <t>Use preorder traversal with a function  like: traverse (node, int previousMax); store the good node count in global/instance variable called: goodNodeCount = 0
+first check if node = null if yes then return;
+now check if node.val&gt;= previosMax if yes goodNodeCount++;
+previosMax stores the maximum integer value above the node/ in its ancestors
+now call the function recursely for left &amp; right subtree like this:
+mySolution(node.left, Math.max(previosMax, node.val));
+mySolution(node.right, Math.max(previosMax, node.val));</t>
+  </si>
+  <si>
+    <t>1448. Count Good Nodes in Binary Tree</t>
   </si>
 </sst>
 </file>
@@ -1150,10 +1168,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E49"/>
+  <dimension ref="A1:E51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A48" zoomScale="93" workbookViewId="0">
-      <selection activeCell="D49" sqref="D49"/>
+    <sheetView tabSelected="1" topLeftCell="A49" zoomScale="93" workbookViewId="0">
+      <selection activeCell="C57" sqref="C57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1730,6 +1748,28 @@
         <v>121</v>
       </c>
     </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A50" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="C50" s="4" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" ht="158.4" x14ac:dyDescent="0.3">
+      <c r="A51" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="D21" r:id="rId1" xr:uid="{35299F42-C228-43E2-B954-EFB9EDC93588}"/>

--- a/Summary.xlsx
+++ b/Summary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Folders to backup!!!\Leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC70315B-E6CA-4775-AF25-1FE720DDA68A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDAD0F77-000F-4106-A447-EE10593CAD56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="130">
   <si>
     <t>Question</t>
   </si>
@@ -761,6 +761,22 @@
   </si>
   <si>
     <t>1448. Count Good Nodes in Binary Tree</t>
+  </si>
+  <si>
+    <t>For my solution:
+do inorder traversal to validate BST &amp; store the previous node val in a instance variable
+if any node is in incorrect place then as compared to previous node (which smaller node we will find it) during inorder traversal of BST we always get previousVal &lt; current node val (ie sorted order), if this property breaks anywhere then tree is not a valid BST
+Neetcode solution:
+https://youtu.be/s6ATEkipzow?si=F3sGkf0cN7lF6m-i</t>
+  </si>
+  <si>
+    <t>98. Validate Binary Search Tree</t>
+  </si>
+  <si>
+    <t>230. Kth Smallest Element in a BST</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Just Use inorder traversal </t>
   </si>
 </sst>
 </file>
@@ -1168,10 +1184,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E51"/>
+  <dimension ref="A1:E53"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A49" zoomScale="93" workbookViewId="0">
-      <selection activeCell="C57" sqref="C57"/>
+      <selection activeCell="C53" sqref="C53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1770,6 +1786,28 @@
         <v>124</v>
       </c>
     </row>
+    <row r="52" spans="1:3" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A52" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A53" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="D21" r:id="rId1" xr:uid="{35299F42-C228-43E2-B954-EFB9EDC93588}"/>

--- a/Summary.xlsx
+++ b/Summary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Folders to backup!!!\Leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDAD0F77-000F-4106-A447-EE10593CAD56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA6D99AA-95A1-49D1-A514-E02A61EECBBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="136">
   <si>
     <t>Question</t>
   </si>
@@ -777,6 +777,30 @@
   </si>
   <si>
     <t xml:space="preserve">Just Use inorder traversal </t>
+  </si>
+  <si>
+    <t>297. Serialize and Deserialize Binary Tree</t>
+  </si>
+  <si>
+    <t>Use preotder traversal to serialize &amp; deserialize:
+https://youtu.be/u4JAi2JJhI8?si=aAo_VtgbCI-056XX
+https://youtu.be/suj1ro8TIVY?si=7TUuYvW1AZdS_b51
+BFS/level order traversal apprach:
+https://youtu.be/-YbXySKJsX8?si=bzEKVdbBFsgvMsqO</t>
+  </si>
+  <si>
+    <t>This seems like a very IMPORTANT QUESTION</t>
+  </si>
+  <si>
+    <t>124. Binary Tree Maximum Path Sum</t>
+  </si>
+  <si>
+    <t>Its better &amp; faster if u just watch the video:
+https://youtu.be/Hr5cWUld4vU?si=kE4Du8qACwD2LoE2
+WATCH THE VIDEO TILL THE END!!!</t>
+  </si>
+  <si>
+    <t>IMP Question!!!!</t>
   </si>
 </sst>
 </file>
@@ -1184,10 +1208,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E53"/>
+  <dimension ref="A1:E55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" zoomScale="93" workbookViewId="0">
-      <selection activeCell="C53" sqref="C53"/>
+    <sheetView tabSelected="1" topLeftCell="A53" zoomScale="93" workbookViewId="0">
+      <selection activeCell="B62" sqref="B62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1753,7 +1777,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="49" spans="1:3" ht="72" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:4" ht="72" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
         <v>101</v>
       </c>
@@ -1764,7 +1788,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
         <v>101</v>
       </c>
@@ -1775,7 +1799,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="51" spans="1:3" ht="158.4" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:4" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
         <v>101</v>
       </c>
@@ -1786,7 +1810,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="52" spans="1:3" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:4" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
         <v>101</v>
       </c>
@@ -1797,7 +1821,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
         <v>101</v>
       </c>
@@ -1806,6 +1830,34 @@
       </c>
       <c r="C53" s="1" t="s">
         <v>129</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A54" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B54" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="D54" s="4" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A55" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B55" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>135</v>
       </c>
     </row>
   </sheetData>

--- a/Summary.xlsx
+++ b/Summary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Folders to backup!!!\Leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA6D99AA-95A1-49D1-A514-E02A61EECBBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6899DE56-3293-4487-964C-BF632FAD6B6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="139">
   <si>
     <t>Question</t>
   </si>
@@ -801,6 +801,15 @@
   </si>
   <si>
     <t>IMP Question!!!!</t>
+  </si>
+  <si>
+    <t>Trie</t>
+  </si>
+  <si>
+    <t>208. Implement Trie (Prefix Tree)</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=dBGUmUQhjaM</t>
   </si>
 </sst>
 </file>
@@ -1208,10 +1217,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E55"/>
+  <dimension ref="A1:E56"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A53" zoomScale="93" workbookViewId="0">
-      <selection activeCell="B62" sqref="B62"/>
+      <selection activeCell="B60" sqref="B60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1860,6 +1869,17 @@
         <v>135</v>
       </c>
     </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A56" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="D21" r:id="rId1" xr:uid="{35299F42-C228-43E2-B954-EFB9EDC93588}"/>

--- a/Summary.xlsx
+++ b/Summary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Folders to backup!!!\Leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6899DE56-3293-4487-964C-BF632FAD6B6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85FBF90D-2928-4441-89E0-EE0B3E1E731A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="141">
   <si>
     <t>Question</t>
   </si>
@@ -810,6 +810,13 @@
   </si>
   <si>
     <t>https://www.youtube.com/watch?v=dBGUmUQhjaM</t>
+  </si>
+  <si>
+    <t>80. Remove Duplicates from Sorted Array II</t>
+  </si>
+  <si>
+    <t>btw the optimal solution for this problem would be by using binary search to seacrch the start &amp; end of the repeating sequences, once u get this u can shift the elements from the "end" by the distance between start &amp; end!.
+currently implemented solution takes alot of time if the array is filled with many of same elements. Currently implemented solution is bruteforce</t>
   </si>
 </sst>
 </file>
@@ -1217,10 +1224,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E56"/>
+  <dimension ref="A1:E57"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A53" zoomScale="93" workbookViewId="0">
-      <selection activeCell="B60" sqref="B60"/>
+      <selection activeCell="B62" sqref="B62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1880,6 +1887,17 @@
         <v>138</v>
       </c>
     </row>
+    <row r="57" spans="1:4" ht="72" x14ac:dyDescent="0.3">
+      <c r="A57" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="D21" r:id="rId1" xr:uid="{35299F42-C228-43E2-B954-EFB9EDC93588}"/>

--- a/Summary.xlsx
+++ b/Summary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Folders to backup!!!\Leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85FBF90D-2928-4441-89E0-EE0B3E1E731A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B6CAFCE-8C75-44DA-840A-02F4BAA2FB11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="143">
   <si>
     <t>Question</t>
   </si>
@@ -817,6 +817,18 @@
   <si>
     <t>btw the optimal solution for this problem would be by using binary search to seacrch the start &amp; end of the repeating sequences, once u get this u can shift the elements from the "end" by the distance between start &amp; end!.
 currently implemented solution takes alot of time if the array is filled with many of same elements. Currently implemented solution is bruteforce</t>
+  </si>
+  <si>
+    <t>we are searching using recursion. 
+if word.charAt(0) = '.' the we search every possible combination using for (int i = 'a'; i &lt;= 'z'; i++) {
+	TrieNode tmpNodeToExplore = node.get(i);
+   boolean isMatch = seacrchRecursive(word.substring(1), tmpNodeToExplore);
+} 
+I have implemented the same solution as this video:
+https://youtu.be/BTf05gs_8iU?si=xBvRBIc-2qXi3o4h</t>
+  </si>
+  <si>
+    <t>211. Design Add and Search Words Data Structure</t>
   </si>
 </sst>
 </file>
@@ -1224,10 +1236,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E57"/>
+  <dimension ref="A1:E58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A53" zoomScale="93" workbookViewId="0">
-      <selection activeCell="B62" sqref="B62"/>
+    <sheetView tabSelected="1" topLeftCell="A56" zoomScale="93" workbookViewId="0">
+      <selection activeCell="C62" sqref="C62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1898,6 +1910,17 @@
         <v>140</v>
       </c>
     </row>
+    <row r="58" spans="1:4" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A58" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="D21" r:id="rId1" xr:uid="{35299F42-C228-43E2-B954-EFB9EDC93588}"/>

--- a/Summary.xlsx
+++ b/Summary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Folders to backup!!!\Leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B6CAFCE-8C75-44DA-840A-02F4BAA2FB11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C667A85E-377F-4C7F-BE74-DF0B029B20BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="146">
   <si>
     <t>Question</t>
   </si>
@@ -829,6 +829,16 @@
   </si>
   <si>
     <t>211. Design Add and Search Words Data Structure</t>
+  </si>
+  <si>
+    <t>Heap / Priority Queue</t>
+  </si>
+  <si>
+    <t>703. Kth Largest Element in a Stream</t>
+  </si>
+  <si>
+    <t>This question is marked easy but is actually pretty hard/medium to do efficiently. 
+https://youtu.be/hOjcdrqMoQ8?si=Uu3hOKgMrKOC9C35</t>
   </si>
 </sst>
 </file>
@@ -1236,10 +1246,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E58"/>
+  <dimension ref="A1:E59"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A56" zoomScale="93" workbookViewId="0">
-      <selection activeCell="C62" sqref="C62"/>
+      <selection activeCell="C68" sqref="C68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1921,6 +1931,17 @@
         <v>141</v>
       </c>
     </row>
+    <row r="59" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A59" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B59" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="D21" r:id="rId1" xr:uid="{35299F42-C228-43E2-B954-EFB9EDC93588}"/>

--- a/Summary.xlsx
+++ b/Summary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Folders to backup!!!\Leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C667A85E-377F-4C7F-BE74-DF0B029B20BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E58BC4A-E439-4C7F-ACC1-3BB519535A99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="148">
   <si>
     <t>Question</t>
   </si>
@@ -837,8 +837,39 @@
     <t>703. Kth Largest Element in a Stream</t>
   </si>
   <si>
-    <t>This question is marked easy but is actually pretty hard/medium to do efficiently. 
+    <t xml:space="preserve">make a max heap using new PriorityQueue&lt;&gt;(Collections.reverseOrder());
+Add all elements to PQ. Now while(PQ.size &gt; 1) pop 2 elements y &amp; x if (x==y) continue else add y-x to PQ
+Finally if(PQ.size==0) return 0 else return PQ.poll(); </t>
+  </si>
+  <si>
+    <t>1046. Last Stone Weight</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">This question is marked easy but is actually pretty hard/medium to do </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>efficiently</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>. 
 https://youtu.be/hOjcdrqMoQ8?si=Uu3hOKgMrKOC9C35</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -1246,10 +1277,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E59"/>
+  <dimension ref="A1:E60"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A56" zoomScale="93" workbookViewId="0">
-      <selection activeCell="C68" sqref="C68"/>
+      <selection activeCell="C59" sqref="C59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1939,6 +1970,17 @@
         <v>144</v>
       </c>
       <c r="C59" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A60" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B60" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="C60" s="1" t="s">
         <v>145</v>
       </c>
     </row>

--- a/Summary.xlsx
+++ b/Summary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Folders to backup!!!\Leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E58BC4A-E439-4C7F-ACC1-3BB519535A99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7A63E6D-0277-4EE7-8167-8D523CA322B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="153">
   <si>
     <t>Question</t>
   </si>
@@ -870,6 +870,22 @@
       <t>. 
 https://youtu.be/hOjcdrqMoQ8?si=Uu3hOKgMrKOC9C35</t>
     </r>
+  </si>
+  <si>
+    <t>make a custom comparator for Priority Queue!!! put all in PQ, pop till we get k-th element
+See code for custom comparator &amp; solution!!!</t>
+  </si>
+  <si>
+    <t>973. K Closest Points to Origin</t>
+  </si>
+  <si>
+    <t>Heap / Priority Queue + Algoritms</t>
+  </si>
+  <si>
+    <t>215. Kth Largest Element in an Array</t>
+  </si>
+  <si>
+    <t>My quickselect is not working properly its giving TLE. U can also solve this using Heap/Priorty Queue but it gives O(klogn) time complexity</t>
   </si>
 </sst>
 </file>
@@ -1277,10 +1293,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E60"/>
+  <dimension ref="A1:E62"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A56" zoomScale="93" workbookViewId="0">
-      <selection activeCell="C59" sqref="C59"/>
+      <selection activeCell="C66" sqref="C66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1984,6 +2000,28 @@
         <v>145</v>
       </c>
     </row>
+    <row r="61" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A61" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A62" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="D21" r:id="rId1" xr:uid="{35299F42-C228-43E2-B954-EFB9EDC93588}"/>

--- a/Summary.xlsx
+++ b/Summary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Folders to backup!!!\Leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7A63E6D-0277-4EE7-8167-8D523CA322B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9516808A-CF5E-4BBB-BB22-7F7E0E777A06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="155">
   <si>
     <t>Question</t>
   </si>
@@ -886,6 +886,12 @@
   </si>
   <si>
     <t>My quickselect is not working properly its giving TLE. U can also solve this using Heap/Priorty Queue but it gives O(klogn) time complexity</t>
+  </si>
+  <si>
+    <t>621. Task Scheduler</t>
+  </si>
+  <si>
+    <t>https://youtu.be/s8p8ukTyA2I?si=F5wS1hAp3bPVowFA</t>
   </si>
 </sst>
 </file>
@@ -917,7 +923,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -954,6 +960,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -983,7 +995,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1010,6 +1022,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1293,10 +1308,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E62"/>
+  <dimension ref="A1:E63"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A56" zoomScale="93" workbookViewId="0">
-      <selection activeCell="C66" sqref="C66"/>
+      <selection activeCell="D63" sqref="D63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2022,6 +2037,17 @@
         <v>152</v>
       </c>
     </row>
+    <row r="63" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A63" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B63" s="10" t="s">
+        <v>153</v>
+      </c>
+      <c r="C63" s="6" t="s">
+        <v>154</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="D21" r:id="rId1" xr:uid="{35299F42-C228-43E2-B954-EFB9EDC93588}"/>
@@ -2029,8 +2055,9 @@
     <hyperlink ref="D29" r:id="rId3" xr:uid="{3D062E1E-43EA-4195-A895-604550782F7A}"/>
     <hyperlink ref="D36" r:id="rId4" xr:uid="{CBE02A1B-6D59-44C6-85CC-560519A6BC2A}"/>
     <hyperlink ref="D47" r:id="rId5" xr:uid="{9F9D3102-8043-4EDF-A0EB-53A7BAAE7717}"/>
+    <hyperlink ref="C63" r:id="rId6" xr:uid="{13CE6FB3-9563-4A8E-87FF-07F98EBDA210}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId6"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId7"/>
 </worksheet>
 </file>
--- a/Summary.xlsx
+++ b/Summary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Folders to backup!!!\Leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9516808A-CF5E-4BBB-BB22-7F7E0E777A06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CF104BE-4A49-4EAD-9C25-74B3650EA71C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="159">
   <si>
     <t>Question</t>
   </si>
@@ -892,6 +892,19 @@
   </si>
   <si>
     <t>https://youtu.be/s8p8ukTyA2I?si=F5wS1hAp3bPVowFA</t>
+  </si>
+  <si>
+    <t>Heap / Priority Queue + Queue</t>
+  </si>
+  <si>
+    <t>Heap / Priority Queue + Hashmap</t>
+  </si>
+  <si>
+    <t>355. Design Twitter</t>
+  </si>
+  <si>
+    <t>My solution is based on the following video:
+https://youtu.be/pNichitDD2E?si=s85bINyDmNKAnOZA</t>
   </si>
 </sst>
 </file>
@@ -1308,10 +1321,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E63"/>
+  <dimension ref="A1:E64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A56" zoomScale="93" workbookViewId="0">
-      <selection activeCell="D63" sqref="D63"/>
+    <sheetView tabSelected="1" topLeftCell="A58" zoomScale="93" workbookViewId="0">
+      <selection activeCell="C72" sqref="C72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2039,13 +2052,24 @@
     </row>
     <row r="63" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="B63" s="10" t="s">
         <v>153</v>
       </c>
       <c r="C63" s="6" t="s">
         <v>154</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A64" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B64" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>158</v>
       </c>
     </row>
   </sheetData>

--- a/Summary.xlsx
+++ b/Summary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Folders to backup!!!\Leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CF104BE-4A49-4EAD-9C25-74B3650EA71C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2556A74E-4C1F-415D-8F40-B06D46077016}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="164">
   <si>
     <t>Question</t>
   </si>
@@ -905,6 +905,22 @@
   <si>
     <t>My solution is based on the following video:
 https://youtu.be/pNichitDD2E?si=s85bINyDmNKAnOZA</t>
+  </si>
+  <si>
+    <t>295. Find Median from Data Stream</t>
+  </si>
+  <si>
+    <t>https://youtu.be/itmhHWaHupI?si=eIpVdNVVWFfQ6VPO</t>
+  </si>
+  <si>
+    <t>78. Subsets</t>
+  </si>
+  <si>
+    <t>THIS TOPIC IS EXTREMLY IMPORTANT!!!!!!!!
+https://youtu.be/AxNNVECce8c?si=aLc0OzYOT_BZMZZJ</t>
+  </si>
+  <si>
+    <t>★★★★★★★★</t>
   </si>
 </sst>
 </file>
@@ -1321,10 +1337,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E64"/>
+  <dimension ref="A1:E66"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A58" zoomScale="93" workbookViewId="0">
-      <selection activeCell="C72" sqref="C72"/>
+      <selection activeCell="C70" sqref="C70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2072,6 +2088,31 @@
         <v>158</v>
       </c>
     </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A65" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B65" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="C65" s="6" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A66" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B66" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="C66" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="D21" r:id="rId1" xr:uid="{35299F42-C228-43E2-B954-EFB9EDC93588}"/>
@@ -2080,8 +2121,9 @@
     <hyperlink ref="D36" r:id="rId4" xr:uid="{CBE02A1B-6D59-44C6-85CC-560519A6BC2A}"/>
     <hyperlink ref="D47" r:id="rId5" xr:uid="{9F9D3102-8043-4EDF-A0EB-53A7BAAE7717}"/>
     <hyperlink ref="C63" r:id="rId6" xr:uid="{13CE6FB3-9563-4A8E-87FF-07F98EBDA210}"/>
+    <hyperlink ref="C65" r:id="rId7" xr:uid="{FFF5D210-B850-43E2-962C-9075EAC9BCD6}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId7"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId8"/>
 </worksheet>
 </file>
--- a/Summary.xlsx
+++ b/Summary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Folders to backup!!!\Leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2556A74E-4C1F-415D-8F40-B06D46077016}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A068AAD3-1C1C-4F6B-9D70-DC09374C8B03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="167">
   <si>
     <t>Question</t>
   </si>
@@ -921,6 +921,24 @@
   </si>
   <si>
     <t>★★★★★★★★</t>
+  </si>
+  <si>
+    <t>39. Combination Sum</t>
+  </si>
+  <si>
+    <t>use a for loop to pick a num from "start" to end of the array. first add the "num" to a tmpList then recursively call mySolution(candidates, i, tmpTarget-num, ans, tmpList); in the next recusive call the loop will start from "i" ie indx in prev recursive call, this ensures we dont make duplicate lists of combination in List&lt;List&lt;Integer&gt;&gt; ans but the curr indx can be repeated any number of times.  We are also doing tmpTarget-num
+Base cases:
+	if(tmpTarget = 0){
+		add tmpList to ans
+	return;
+	}
+	else if(tmpTarget &lt; 0)&gt; {
+	//curr ans is not valid since we have exceded the sum, ie sum of all nums in tmp list &gt; target
+	return;
+	}</t>
+  </si>
+  <si>
+    <t>★★★★★★★</t>
   </si>
 </sst>
 </file>
@@ -1337,10 +1355,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E66"/>
+  <dimension ref="A1:E67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" zoomScale="93" workbookViewId="0">
-      <selection activeCell="C70" sqref="C70"/>
+    <sheetView tabSelected="1" topLeftCell="A67" zoomScale="93" workbookViewId="0">
+      <selection activeCell="E67" sqref="E67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2113,6 +2131,20 @@
         <v>163</v>
       </c>
     </row>
+    <row r="67" spans="1:4" ht="201.6" x14ac:dyDescent="0.3">
+      <c r="A67" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B67" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>166</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="D21" r:id="rId1" xr:uid="{35299F42-C228-43E2-B954-EFB9EDC93588}"/>

--- a/Summary.xlsx
+++ b/Summary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Folders to backup!!!\Leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A068AAD3-1C1C-4F6B-9D70-DC09374C8B03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13762A51-C812-4B7F-836E-498BE6BA7E2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="169">
   <si>
     <t>Question</t>
   </si>
@@ -939,6 +939,16 @@
   </si>
   <si>
     <t>★★★★★★★</t>
+  </si>
+  <si>
+    <t>46. Permutations</t>
+  </si>
+  <si>
+    <t>The method `mySolution` takes the input array `nums`, a temporary list `tmp` to construct permutations, a set `indxsAlreadyPicked` to keep track of used indices &amp; avoid repetion of elements in tmp list, and a list `ans` to store the final permutations. 
+It iterates through each element of `nums`, checking if the index has already been used. If not, it adds the element to `tmp` and recursively calls itself. After the recursive call, it backtracks by removing the last element from `tmp` and allows the index to be used again. When `tmp` reaches the same length as `nums`, it adds the permutation to `ans`. This approach systematically explores all possible permutations and constructs them efficiently.
+https://youtu.be/YK78FU5Ffjw?si=WYoDYLtL1WXsqXcw
+O(1) space approach:
+https://youtu.be/f2ic2Rsc9pU?si=igyeSAngKWihJ6xJ</t>
   </si>
 </sst>
 </file>
@@ -1355,10 +1365,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E67"/>
+  <dimension ref="A1:E68"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A67" zoomScale="93" workbookViewId="0">
-      <selection activeCell="E67" sqref="E67"/>
+      <selection activeCell="D68" sqref="D68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2145,6 +2155,17 @@
         <v>166</v>
       </c>
     </row>
+    <row r="68" spans="1:4" ht="189" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B68" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>168</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="D21" r:id="rId1" xr:uid="{35299F42-C228-43E2-B954-EFB9EDC93588}"/>

--- a/Summary.xlsx
+++ b/Summary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Folders to backup!!!\Leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13762A51-C812-4B7F-836E-498BE6BA7E2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54E57DB9-C80C-4C15-A0AC-7053C5E6ED50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="171">
   <si>
     <t>Question</t>
   </si>
@@ -949,6 +949,15 @@
 https://youtu.be/YK78FU5Ffjw?si=WYoDYLtL1WXsqXcw
 O(1) space approach:
 https://youtu.be/f2ic2Rsc9pU?si=igyeSAngKWihJ6xJ</t>
+  </si>
+  <si>
+    <t>IMP!!!!
+My solution uses HashSet&lt;List&lt;Integers&gt;&gt; to eliminate the duplicate subsets but its not efficient
+Efficient solution:
+	https://youtu.be/Vn2v6ajA7U0?si=1xaMhCgh2woTwbQ7</t>
+  </si>
+  <si>
+    <t>90. Subsets II</t>
   </si>
 </sst>
 </file>
@@ -1365,10 +1374,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E68"/>
+  <dimension ref="A1:E69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" zoomScale="93" workbookViewId="0">
-      <selection activeCell="D68" sqref="D68"/>
+    <sheetView tabSelected="1" topLeftCell="A68" zoomScale="93" workbookViewId="0">
+      <selection activeCell="B70" sqref="B70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2166,6 +2175,17 @@
         <v>168</v>
       </c>
     </row>
+    <row r="69" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A69" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B69" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="D21" r:id="rId1" xr:uid="{35299F42-C228-43E2-B954-EFB9EDC93588}"/>

--- a/Summary.xlsx
+++ b/Summary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Folders to backup!!!\Leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54E57DB9-C80C-4C15-A0AC-7053C5E6ED50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A65B6CB-930A-448E-A088-8AFEF38A34F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="171">
   <si>
     <t>Question</t>
   </si>
@@ -1376,8 +1376,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A68" zoomScale="93" workbookViewId="0">
-      <selection activeCell="B70" sqref="B70"/>
+    <sheetView tabSelected="1" topLeftCell="A69" zoomScale="93" workbookViewId="0">
+      <selection activeCell="E69" sqref="E69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2185,6 +2185,9 @@
       <c r="C69" s="1" t="s">
         <v>169</v>
       </c>
+      <c r="D69" s="1" t="s">
+        <v>166</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>

--- a/Summary.xlsx
+++ b/Summary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Folders to backup!!!\Leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A65B6CB-930A-448E-A088-8AFEF38A34F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3986BC2-2F88-42B2-9664-BF64EF87F8BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="176">
   <si>
     <t>Question</t>
   </si>
@@ -958,6 +958,21 @@
   </si>
   <si>
     <t>90. Subsets II</t>
+  </si>
+  <si>
+    <t>Backtracking</t>
+  </si>
+  <si>
+    <t>https://youtu.be/pfiQ_PS1g8E?si=BnJPq6BoJ6dEZ7uH</t>
+  </si>
+  <si>
+    <t>79. Word Search</t>
+  </si>
+  <si>
+    <t>40. Combination Sum II</t>
+  </si>
+  <si>
+    <t>https://youtu.be/rSA3t6BDDwg?si=lGvADbr0l_-vBUBB</t>
   </si>
 </sst>
 </file>
@@ -1374,10 +1389,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E69"/>
+  <dimension ref="A1:E71"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A69" zoomScale="93" workbookViewId="0">
-      <selection activeCell="E69" sqref="E69"/>
+      <selection activeCell="C76" sqref="C76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2189,6 +2204,28 @@
         <v>166</v>
       </c>
     </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A70" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B70" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="C70" s="6" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A71" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B71" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="C71" s="6" t="s">
+        <v>172</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="D21" r:id="rId1" xr:uid="{35299F42-C228-43E2-B954-EFB9EDC93588}"/>
@@ -2198,8 +2235,10 @@
     <hyperlink ref="D47" r:id="rId5" xr:uid="{9F9D3102-8043-4EDF-A0EB-53A7BAAE7717}"/>
     <hyperlink ref="C63" r:id="rId6" xr:uid="{13CE6FB3-9563-4A8E-87FF-07F98EBDA210}"/>
     <hyperlink ref="C65" r:id="rId7" xr:uid="{FFF5D210-B850-43E2-962C-9075EAC9BCD6}"/>
+    <hyperlink ref="C71" r:id="rId8" xr:uid="{F3FE9D64-AB75-432D-B52C-F6D21B3EABF5}"/>
+    <hyperlink ref="C70" r:id="rId9" xr:uid="{4F6AA38B-1B18-4736-AD2F-66111BC638AE}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId8"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId10"/>
 </worksheet>
 </file>
--- a/Summary.xlsx
+++ b/Summary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Folders to backup!!!\Leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3986BC2-2F88-42B2-9664-BF64EF87F8BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA3EFF5C-6AD1-4FD8-8B52-3B3B08E028F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="180">
   <si>
     <t>Question</t>
   </si>
@@ -973,6 +973,20 @@
   </si>
   <si>
     <t>https://youtu.be/rSA3t6BDDwg?si=lGvADbr0l_-vBUBB</t>
+  </si>
+  <si>
+    <t>This question is very IMP!!!!!!!!!!!!!!!
+https://youtu.be/3jvWodd7ht0?si=8LmXtwCwkv21n86J</t>
+  </si>
+  <si>
+    <t>131. Palindrome Partitioning</t>
+  </si>
+  <si>
+    <t>17. Letter Combinations of a Phone Number</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+https://youtu.be/0snEunUacZY</t>
   </si>
 </sst>
 </file>
@@ -1389,10 +1403,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E71"/>
+  <dimension ref="A1:E73"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A69" zoomScale="93" workbookViewId="0">
-      <selection activeCell="C76" sqref="C76"/>
+      <selection activeCell="B76" sqref="B76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2224,6 +2238,31 @@
       </c>
       <c r="C71" s="6" t="s">
         <v>172</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A72" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B72" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A73" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B73" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>179</v>
       </c>
     </row>
   </sheetData>

--- a/Summary.xlsx
+++ b/Summary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Folders to backup!!!\Leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA3EFF5C-6AD1-4FD8-8B52-3B3B08E028F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C20F51B0-B326-4798-B54E-5280D6209143}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="182">
   <si>
     <t>Question</t>
   </si>
@@ -987,6 +987,12 @@
   <si>
     <t xml:space="preserve">
 https://youtu.be/0snEunUacZY</t>
+  </si>
+  <si>
+    <t>https://youtu.be/Ph95IHmRp5M</t>
+  </si>
+  <si>
+    <t>51. N-Queens</t>
   </si>
 </sst>
 </file>
@@ -1403,10 +1409,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E73"/>
+  <dimension ref="A1:E74"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A69" zoomScale="93" workbookViewId="0">
-      <selection activeCell="B76" sqref="B76"/>
+      <selection activeCell="C84" sqref="C84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2265,6 +2271,17 @@
         <v>179</v>
       </c>
     </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A74" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B74" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="C74" s="6" t="s">
+        <v>180</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="D21" r:id="rId1" xr:uid="{35299F42-C228-43E2-B954-EFB9EDC93588}"/>
@@ -2276,8 +2293,9 @@
     <hyperlink ref="C65" r:id="rId7" xr:uid="{FFF5D210-B850-43E2-962C-9075EAC9BCD6}"/>
     <hyperlink ref="C71" r:id="rId8" xr:uid="{F3FE9D64-AB75-432D-B52C-F6D21B3EABF5}"/>
     <hyperlink ref="C70" r:id="rId9" xr:uid="{4F6AA38B-1B18-4736-AD2F-66111BC638AE}"/>
+    <hyperlink ref="C74" r:id="rId10" xr:uid="{328B7B16-FD69-4966-8E55-3672E96C45C7}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId10"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId11"/>
 </worksheet>
 </file>
--- a/Summary.xlsx
+++ b/Summary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Folders to backup!!!\Leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C20F51B0-B326-4798-B54E-5280D6209143}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{392369A7-46D5-47F6-8E14-1EE350F9A5CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="185">
   <si>
     <t>Question</t>
   </si>
@@ -993,6 +993,17 @@
   </si>
   <si>
     <t>51. N-Queens</t>
+  </si>
+  <si>
+    <t>Graphs</t>
+  </si>
+  <si>
+    <t>200. Number of Islands</t>
+  </si>
+  <si>
+    <t>Use isExplored[][] 2d array to reprenset if a point is expored or not, use 2 nested for loops to check every point in the grid. If that point is already explored or is = 0 then continue;
+else numOfIslands++; then call a function explore(grid, isExplored, i, j); which explores all the 1's connected to curr point i,j using DFS
+(See code to know how explore() works)</t>
   </si>
 </sst>
 </file>
@@ -1409,10 +1420,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E74"/>
+  <dimension ref="A1:E75"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A69" zoomScale="93" workbookViewId="0">
-      <selection activeCell="C84" sqref="C84"/>
+      <selection activeCell="B82" sqref="B82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2280,6 +2291,17 @@
       </c>
       <c r="C74" s="6" t="s">
         <v>180</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" ht="97.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A75" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="B75" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>184</v>
       </c>
     </row>
   </sheetData>

--- a/Summary.xlsx
+++ b/Summary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Folders to backup!!!\Leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{392369A7-46D5-47F6-8E14-1EE350F9A5CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88B9E548-5712-41D1-8528-C8FFEB1E7995}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="187">
   <si>
     <t>Question</t>
   </si>
@@ -1004,6 +1004,13 @@
     <t>Use isExplored[][] 2d array to reprenset if a point is expored or not, use 2 nested for loops to check every point in the grid. If that point is already explored or is = 0 then continue;
 else numOfIslands++; then call a function explore(grid, isExplored, i, j); which explores all the 1's connected to curr point i,j using DFS
 (See code to know how explore() works)</t>
+  </si>
+  <si>
+    <t>133. Clone Graph</t>
+  </si>
+  <si>
+    <t>This is similar to the deep copy of the Linked List with a random pointer question. Make a HashMap with mapping Oldnode: NewNode. Use BFS to make this mapping
+Then use BFS again to map the neighbors of the oldNode to corresponding new neighbors of new Node, Hashmap is required to obtain the corresponding new neighbors for newNode for deep copy</t>
   </si>
 </sst>
 </file>
@@ -1420,10 +1427,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E75"/>
+  <dimension ref="A1:E76"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A69" zoomScale="93" workbookViewId="0">
-      <selection activeCell="B82" sqref="B82"/>
+      <selection activeCell="B78" sqref="B78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2302,6 +2309,17 @@
       </c>
       <c r="C75" s="1" t="s">
         <v>184</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" ht="72" x14ac:dyDescent="0.3">
+      <c r="A76" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="B76" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>186</v>
       </c>
     </row>
   </sheetData>

--- a/Summary.xlsx
+++ b/Summary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Folders to backup!!!\Leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88B9E548-5712-41D1-8528-C8FFEB1E7995}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E87C4C8-6D5F-423B-8919-D34794DC7E9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="190">
   <si>
     <t>Question</t>
   </si>
@@ -1011,6 +1011,20 @@
   <si>
     <t>This is similar to the deep copy of the Linked List with a random pointer question. Make a HashMap with mapping Oldnode: NewNode. Use BFS to make this mapping
 Then use BFS again to map the neighbors of the oldNode to corresponding new neighbors of new Node, Hashmap is required to obtain the corresponding new neighbors for newNode for deep copy</t>
+  </si>
+  <si>
+    <t>My solution (which is brute force) uses 2 nested for loops to go to every point of the Array. And at that point we do DFS. In the DFS we use boolean[] isConnectedToOcean with size = 2 to store the ans whether the initial point i,j  connects to Pacific ocean &amp; Atlantic ocean.
+isConnectedToOcean[0] represents if the waters connects to Pacific ocean. 
+isConnectedToOcean[1] represents if the waters connects to Atlantic ocean. 
+if both true we store the initial point i,j in the answers list.
+Efficient Solution:
+https://youtu.be/s-VkcjHqkGI</t>
+  </si>
+  <si>
+    <t>417. Pacific Atlantic Water Flow</t>
+  </si>
+  <si>
+    <t>695. Max Area of Island</t>
   </si>
 </sst>
 </file>
@@ -1427,9 +1441,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E76"/>
+  <dimension ref="A1:E78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A69" zoomScale="93" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A70" zoomScale="93" workbookViewId="0">
       <selection activeCell="B78" sqref="B78"/>
     </sheetView>
   </sheetViews>
@@ -2320,6 +2334,31 @@
       </c>
       <c r="C76" s="1" t="s">
         <v>186</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A77" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="B77" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" ht="144" x14ac:dyDescent="0.3">
+      <c r="A78" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="B78" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>166</v>
       </c>
     </row>
   </sheetData>

--- a/Summary.xlsx
+++ b/Summary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Folders to backup!!!\Leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E87C4C8-6D5F-423B-8919-D34794DC7E9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25414BAD-EC01-46B7-BD7D-6798F3517EB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="192">
   <si>
     <t>Question</t>
   </si>
@@ -1025,6 +1025,14 @@
   </si>
   <si>
     <t>695. Max Area of Island</t>
+  </si>
+  <si>
+    <t>130. Surrounded Regions</t>
+  </si>
+  <si>
+    <t>My solution is brute force which checks if every block of O's in the board is NOT connected to border eventually,
+Here is the more efficient solution:
+https://youtu.be/9z2BunfoZ5Y</t>
   </si>
 </sst>
 </file>
@@ -1441,10 +1449,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E78"/>
+  <dimension ref="A1:E79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" zoomScale="93" workbookViewId="0">
-      <selection activeCell="B78" sqref="B78"/>
+    <sheetView tabSelected="1" topLeftCell="A75" zoomScale="93" workbookViewId="0">
+      <selection activeCell="C79" sqref="C79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2358,6 +2366,20 @@
         <v>187</v>
       </c>
       <c r="D78" s="1" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A79" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="B79" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="D79" s="1" t="s">
         <v>166</v>
       </c>
     </row>

--- a/Summary.xlsx
+++ b/Summary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Folders to backup!!!\Leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25414BAD-EC01-46B7-BD7D-6798F3517EB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE8365D7-44EC-489A-8961-1A6FC614A623}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="195">
   <si>
     <t>Question</t>
   </si>
@@ -1033,6 +1033,21 @@
     <t>My solution is brute force which checks if every block of O's in the board is NOT connected to border eventually,
 Here is the more efficient solution:
 https://youtu.be/9z2BunfoZ5Y</t>
+  </si>
+  <si>
+    <t>994. Rotting Oranges</t>
+  </si>
+  <si>
+    <t>We add every Rotten orange cell in a Queue and do BFS. 
+1. Add all rotten orange cell in a Queue. Initialize time = -1 
+2. Do BFS  while( q is not empty) 
+3. inside while do, get curr size of Q and store it in "size" &amp; do time++
+4. for 1 to size pop element (rotten orange cell) from Q, make its top, bottom, left, right as rotten (ie = 2) if they are == 1 (ie the cell have orange).  , add the newly rotten oranges in queue. (Note that "size" wont chnage since we initaialized it before this loop)
+5. after Q is empty check if any oranges are still fresh (ie == 1) by using 2 nested loops, if they are still fresh return -1;
+6. if the pt 5 has not returned anything that means all are now rotten or it could also be that the grid has no fresh oranges ie all cells are 0  or 2 check,  if time==-1 then return 0 else return time</t>
+  </si>
+  <si>
+    <t>★★★</t>
   </si>
 </sst>
 </file>
@@ -1449,10 +1464,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E79"/>
+  <dimension ref="A1:E80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A75" zoomScale="93" workbookViewId="0">
-      <selection activeCell="C79" sqref="C79"/>
+    <sheetView tabSelected="1" topLeftCell="A78" zoomScale="93" workbookViewId="0">
+      <selection activeCell="C85" sqref="C85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2381,6 +2396,20 @@
       </c>
       <c r="D79" s="1" t="s">
         <v>166</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A80" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="B80" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>194</v>
       </c>
     </row>
   </sheetData>

--- a/Summary.xlsx
+++ b/Summary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Folders to backup!!!\Leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE8365D7-44EC-489A-8961-1A6FC614A623}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{995F7A78-91CF-4C70-801F-1040375D4620}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="197">
   <si>
     <t>Question</t>
   </si>
@@ -1048,6 +1048,42 @@
   </si>
   <si>
     <t>★★★</t>
+  </si>
+  <si>
+    <t>663 · Walls and Gates (Lintcode)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">A Queue named "q" is initialized using LinkedList to perform a breadth-first search (BFS).
+All cells with value 0 (representing gates) are added to the queue.
+The BFS loop iterates until the queue is empty:
+A cell is dequeued, and its row and column positions are retrieved.
+An array moves represents the four possible moves (up, down, left, right).
+For each move, the new position after the move is calculated.
+If the new position is within bounds </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>and</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> the distance to this new cell is greater than the distance to the current cell plus one, update the distance to  current cell plus one (ie make it smaller) and enqueue the new position.
+https://youtu.be/e69C6xhiSQE</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -1464,10 +1500,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E80"/>
+  <dimension ref="A1:E81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A78" zoomScale="93" workbookViewId="0">
-      <selection activeCell="C85" sqref="C85"/>
+    <sheetView tabSelected="1" topLeftCell="A79" zoomScale="93" workbookViewId="0">
+      <selection activeCell="C83" sqref="C83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2410,6 +2446,17 @@
       </c>
       <c r="D80" s="1" t="s">
         <v>194</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" ht="158.4" x14ac:dyDescent="0.3">
+      <c r="A81" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="B81" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>196</v>
       </c>
     </row>
   </sheetData>

--- a/Summary.xlsx
+++ b/Summary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Folders to backup!!!\Leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{995F7A78-91CF-4C70-801F-1040375D4620}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E01071D6-8ECC-4008-8622-1FE3E0A9FB64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="199">
   <si>
     <t>Question</t>
   </si>
@@ -1084,6 +1084,16 @@
       <t xml:space="preserve"> the distance to this new cell is greater than the distance to the current cell plus one, update the distance to  current cell plus one (ie make it smaller) and enqueue the new position.
 https://youtu.be/e69C6xhiSQE</t>
     </r>
+  </si>
+  <si>
+    <t>207. Course Schedule</t>
+  </si>
+  <si>
+    <t>Basically in this problem we have to find a cycle
+Cycle detection using Kahn's Algo (hard):
+https://youtu.be/iTBaI90lpDQ?si=kKNzCuV8Fv7SUnpU
+Detect cycle in a directed graph using DFS:
+https://youtu.be/9twcmtQj4DU?si=PNjklTVl7b74VBiw</t>
   </si>
 </sst>
 </file>
@@ -1226,6 +1236,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFF3300"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1500,10 +1515,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E81"/>
+  <dimension ref="A1:E82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" zoomScale="93" workbookViewId="0">
-      <selection activeCell="C83" sqref="C83"/>
+    <sheetView tabSelected="1" topLeftCell="A81" zoomScale="93" workbookViewId="0">
+      <selection activeCell="C85" sqref="C85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2448,7 +2463,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="81" spans="1:3" ht="158.4" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:4" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A81" s="1" t="s">
         <v>182</v>
       </c>
@@ -2457,6 +2472,20 @@
       </c>
       <c r="C81" s="1" t="s">
         <v>196</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A82" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="B82" s="10" t="s">
+        <v>197</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="D82" s="1" t="s">
+        <v>166</v>
       </c>
     </row>
   </sheetData>

--- a/Summary.xlsx
+++ b/Summary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Folders to backup!!!\Leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E01071D6-8ECC-4008-8622-1FE3E0A9FB64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09D278C8-3F54-4287-BDEA-6467F8530213}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="201">
   <si>
     <t>Question</t>
   </si>
@@ -1094,6 +1094,12 @@
 https://youtu.be/iTBaI90lpDQ?si=kKNzCuV8Fv7SUnpU
 Detect cycle in a directed graph using DFS:
 https://youtu.be/9twcmtQj4DU?si=PNjklTVl7b74VBiw</t>
+  </si>
+  <si>
+    <t>210. Course Schedule II</t>
+  </si>
+  <si>
+    <t>This is similar Course Schedule I, except we have to find the REVERSE Topo sort order!!! (See Strivers toposort videos using BFS &amp; DFS)</t>
   </si>
 </sst>
 </file>
@@ -1515,10 +1521,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E82"/>
+  <dimension ref="A1:E83"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A81" zoomScale="93" workbookViewId="0">
-      <selection activeCell="C85" sqref="C85"/>
+      <selection activeCell="C90" sqref="C89:C90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2485,6 +2491,20 @@
         <v>198</v>
       </c>
       <c r="D82" s="1" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A83" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="B83" s="10" t="s">
+        <v>199</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="D83" s="1" t="s">
         <v>166</v>
       </c>
     </row>

--- a/Summary.xlsx
+++ b/Summary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Folders to backup!!!\Leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09D278C8-3F54-4287-BDEA-6467F8530213}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A711FDED-3416-4CA3-8C6C-E4570FF25C43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="203">
   <si>
     <t>Question</t>
   </si>
@@ -1100,6 +1100,14 @@
   </si>
   <si>
     <t>This is similar Course Schedule I, except we have to find the REVERSE Topo sort order!!! (See Strivers toposort videos using BFS &amp; DFS)</t>
+  </si>
+  <si>
+    <t>Disjoint Set!!!!!!!!!!!!!!!!!!!!!!!!!!!
+VERY VERY IMPORTANT TOPIC!!! SEE Take U Forward/ Strivers video on youtube!!!!
+https://youtu.be/aBxjDBC4M1U?si=u6PW28zTM6Jqcy-U</t>
+  </si>
+  <si>
+    <t>684. Redundant Connection</t>
   </si>
 </sst>
 </file>
@@ -1521,10 +1529,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E83"/>
+  <dimension ref="A1:E84"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A81" zoomScale="93" workbookViewId="0">
-      <selection activeCell="C90" sqref="C89:C90"/>
+      <selection activeCell="C87" sqref="C87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2505,6 +2513,20 @@
         <v>200</v>
       </c>
       <c r="D83" s="1" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A84" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="B84" s="10" t="s">
+        <v>202</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="D84" s="1" t="s">
         <v>166</v>
       </c>
     </row>

--- a/Summary.xlsx
+++ b/Summary.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Folders to backup!!!\Leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A711FDED-3416-4CA3-8C6C-E4570FF25C43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44EF3289-DAE7-4958-9BC7-6E109A310572}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="208">
   <si>
     <t>Question</t>
   </si>
@@ -1108,6 +1108,23 @@
   </si>
   <si>
     <t>684. Redundant Connection</t>
+  </si>
+  <si>
+    <t>1D DP</t>
+  </si>
+  <si>
+    <t>See neetcode solution:
+https://youtu.be/73r3KWiEvyk</t>
+  </si>
+  <si>
+    <t>198. House Robber</t>
+  </si>
+  <si>
+    <t>213. House Robber II</t>
+  </si>
+  <si>
+    <t>VERY IMP QUESTION!!!!!
+https://youtu.be/rWAJCfYYOvM</t>
   </si>
 </sst>
 </file>
@@ -1529,10 +1546,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E84"/>
+  <dimension ref="A1:E86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A81" zoomScale="93" workbookViewId="0">
-      <selection activeCell="C87" sqref="C87"/>
+    <sheetView tabSelected="1" topLeftCell="A82" zoomScale="93" workbookViewId="0">
+      <selection activeCell="C99" sqref="C99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2527,6 +2544,34 @@
         <v>201</v>
       </c>
       <c r="D84" s="1" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A85" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="B85" s="10" t="s">
+        <v>205</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="D85" s="1" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A86" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="B86" s="10" t="s">
+        <v>206</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="D86" s="1" t="s">
         <v>166</v>
       </c>
     </row>

--- a/Summary.xlsx
+++ b/Summary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Folders to backup!!!\Leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44EF3289-DAE7-4958-9BC7-6E109A310572}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24967230-9F9C-4C38-B650-615A631DF4B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="215">
   <si>
     <t>Question</t>
   </si>
@@ -1125,6 +1125,54 @@
   <si>
     <t>VERY IMP QUESTION!!!!!
 https://youtu.be/rWAJCfYYOvM</t>
+  </si>
+  <si>
+    <t>Very hard question!!!
+https://youtu.be/XYQecbcd6_c
+You basically have to perform palandromic checks in O(1) time (sort of)
+Hard part - u have to check for palandromes of odd lengths (which is intuitive) but checking palandromes of even length is hard</t>
+  </si>
+  <si>
+    <t>★★★★★★★★★★★★★★★★★★★★★</t>
+  </si>
+  <si>
+    <t>5. Longest Palindromic Substring</t>
+  </si>
+  <si>
+    <t>647. Palindromic Substrings</t>
+  </si>
+  <si>
+    <t>Similar to longest palandromic string question, u just have to do count++ every time you u detect 2 = chars</t>
+  </si>
+  <si>
+    <t>91. Decode Ways</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">The apprach is too big to write here so check out "notes" section on leetcode </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(this also contains the tabulation approach)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>:
+https://leetcode.com/problems/decode-ways/</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -1156,7 +1204,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1199,6 +1247,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -1228,7 +1282,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1258,6 +1312,9 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1546,10 +1603,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E86"/>
+  <dimension ref="A1:E89"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A82" zoomScale="93" workbookViewId="0">
-      <selection activeCell="C99" sqref="C99"/>
+      <selection activeCell="E94" sqref="E94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2572,6 +2629,45 @@
         <v>207</v>
       </c>
       <c r="D86" s="1" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A87" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="B87" s="11" t="s">
+        <v>210</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="D87" s="1" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A88" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="B88" s="11" t="s">
+        <v>211</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A89" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="B89" s="10" t="s">
+        <v>213</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="D89" s="1" t="s">
         <v>166</v>
       </c>
     </row>

--- a/Summary.xlsx
+++ b/Summary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Folders to backup!!!\Leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24967230-9F9C-4C38-B650-615A631DF4B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BF1312C-F038-46BB-95E5-3626290E2F89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="219">
   <si>
     <t>Question</t>
   </si>
@@ -1173,6 +1173,19 @@
       <t>:
 https://leetcode.com/problems/decode-ways/</t>
     </r>
+  </si>
+  <si>
+    <t>322. Coin Change</t>
+  </si>
+  <si>
+    <t>https://youtu.be/H9bfqozjoqs
+Memoization/recursive apprach is MUCH SLOWER than tabulation</t>
+  </si>
+  <si>
+    <t>★★★★</t>
+  </si>
+  <si>
+    <t>s</t>
   </si>
 </sst>
 </file>
@@ -1603,10 +1616,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E89"/>
+  <dimension ref="A1:E90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" zoomScale="93" workbookViewId="0">
-      <selection activeCell="E94" sqref="E94"/>
+    <sheetView tabSelected="1" topLeftCell="A83" zoomScale="93" workbookViewId="0">
+      <selection activeCell="B93" sqref="B93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2551,7 +2564,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="81" spans="1:4" ht="158.4" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:5" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A81" s="1" t="s">
         <v>182</v>
       </c>
@@ -2562,7 +2575,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="82" spans="1:4" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:5" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A82" s="1" t="s">
         <v>182</v>
       </c>
@@ -2576,7 +2589,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="83" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A83" s="1" t="s">
         <v>182</v>
       </c>
@@ -2590,7 +2603,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="84" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A84" s="1" t="s">
         <v>182</v>
       </c>
@@ -2604,7 +2617,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="85" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A85" s="1" t="s">
         <v>203</v>
       </c>
@@ -2618,7 +2631,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="86" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A86" s="1" t="s">
         <v>203</v>
       </c>
@@ -2632,7 +2645,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="87" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A87" s="1" t="s">
         <v>203</v>
       </c>
@@ -2646,7 +2659,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A88" s="1" t="s">
         <v>203</v>
       </c>
@@ -2657,7 +2670,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="89" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A89" s="1" t="s">
         <v>203</v>
       </c>
@@ -2669,6 +2682,23 @@
       </c>
       <c r="D89" s="1" t="s">
         <v>166</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A90" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="B90" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="C90" s="6" t="s">
+        <v>216</v>
+      </c>
+      <c r="D90" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="E90" s="1" t="s">
+        <v>218</v>
       </c>
     </row>
   </sheetData>
@@ -2683,8 +2713,9 @@
     <hyperlink ref="C71" r:id="rId8" xr:uid="{F3FE9D64-AB75-432D-B52C-F6D21B3EABF5}"/>
     <hyperlink ref="C70" r:id="rId9" xr:uid="{4F6AA38B-1B18-4736-AD2F-66111BC638AE}"/>
     <hyperlink ref="C74" r:id="rId10" xr:uid="{328B7B16-FD69-4966-8E55-3672E96C45C7}"/>
+    <hyperlink ref="C90" r:id="rId11" xr:uid="{3EA913FE-1F38-4379-89CF-90C56DC1F6B7}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId11"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId12"/>
 </worksheet>
 </file>
--- a/Summary.xlsx
+++ b/Summary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Folders to backup!!!\Leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BF1312C-F038-46BB-95E5-3626290E2F89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DDCBAB1-8D1B-4F23-8939-D3F1132FA918}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="219">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="223">
   <si>
     <t>Question</t>
   </si>
@@ -1186,6 +1186,20 @@
   </si>
   <si>
     <t>s</t>
+  </si>
+  <si>
+    <t>139. Word Break</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/word-break/
+This contains code &amp; Notes in "note" section</t>
+  </si>
+  <si>
+    <t>300. Longest Increasing Subsequence</t>
+  </si>
+  <si>
+    <t>https://youtu.be/cjWnW0hdF1Y
+https://leetcode.com/problems/longest-increasing-subsequence/</t>
   </si>
 </sst>
 </file>
@@ -1616,10 +1630,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E90"/>
+  <dimension ref="A1:E92"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A83" zoomScale="93" workbookViewId="0">
-      <selection activeCell="B93" sqref="B93"/>
+      <selection activeCell="C94" sqref="C94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2701,6 +2715,28 @@
         <v>218</v>
       </c>
     </row>
+    <row r="91" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A91" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="B91" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="C91" s="6" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A92" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="B92" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>222</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="D21" r:id="rId1" xr:uid="{35299F42-C228-43E2-B954-EFB9EDC93588}"/>
@@ -2714,8 +2750,9 @@
     <hyperlink ref="C70" r:id="rId9" xr:uid="{4F6AA38B-1B18-4736-AD2F-66111BC638AE}"/>
     <hyperlink ref="C74" r:id="rId10" xr:uid="{328B7B16-FD69-4966-8E55-3672E96C45C7}"/>
     <hyperlink ref="C90" r:id="rId11" xr:uid="{3EA913FE-1F38-4379-89CF-90C56DC1F6B7}"/>
+    <hyperlink ref="C91" r:id="rId12" xr:uid="{FD05A83C-AF3B-4F2F-BCB9-215270CCA260}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId12"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId13"/>
 </worksheet>
 </file>
--- a/Summary.xlsx
+++ b/Summary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Folders to backup!!!\Leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DDCBAB1-8D1B-4F23-8939-D3F1132FA918}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5162A03D-27DF-47AD-AF1F-F7CB051050DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="223">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="225">
   <si>
     <t>Question</t>
   </si>
@@ -1200,6 +1200,13 @@
   <si>
     <t>https://youtu.be/cjWnW0hdF1Y
 https://leetcode.com/problems/longest-increasing-subsequence/</t>
+  </si>
+  <si>
+    <t>416. Partition Equal Subset Sum</t>
+  </si>
+  <si>
+    <t>my approach is top down memoization approach
+https://youtu.be/fWX9xDmIzRI?si=Y1zrSb0xaVRaU2v5</t>
   </si>
 </sst>
 </file>
@@ -1630,10 +1637,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E92"/>
+  <dimension ref="A1:E93"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A83" zoomScale="93" workbookViewId="0">
-      <selection activeCell="C94" sqref="C94"/>
+      <selection activeCell="C96" sqref="C96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2735,6 +2742,20 @@
       </c>
       <c r="C92" s="1" t="s">
         <v>222</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A93" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="B93" s="10" t="s">
+        <v>223</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="D93" s="1" t="s">
+        <v>209</v>
       </c>
     </row>
   </sheetData>

--- a/Summary.xlsx
+++ b/Summary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Folders to backup!!!\Leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5162A03D-27DF-47AD-AF1F-F7CB051050DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6C5844B-B981-4E8F-A018-101431AB87E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="227">
   <si>
     <t>Question</t>
   </si>
@@ -1207,6 +1207,13 @@
   <si>
     <t>my approach is top down memoization approach
 https://youtu.be/fWX9xDmIzRI?si=Y1zrSb0xaVRaU2v5</t>
+  </si>
+  <si>
+    <t>152. Maximum Product Subarray</t>
+  </si>
+  <si>
+    <t>IMP!!!!!!!!!!!!!! 
+https://youtu.be/hnswaLJvr6g?si=oKKT9dTsvOJVY_-c</t>
   </si>
 </sst>
 </file>
@@ -1637,10 +1644,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E93"/>
+  <dimension ref="A1:E94"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A83" zoomScale="93" workbookViewId="0">
-      <selection activeCell="C96" sqref="C96"/>
+    <sheetView tabSelected="1" topLeftCell="A89" zoomScale="93" workbookViewId="0">
+      <selection activeCell="C99" sqref="C99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2755,6 +2762,20 @@
         <v>224</v>
       </c>
       <c r="D93" s="1" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A94" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="B94" s="11" t="s">
+        <v>225</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="D94" s="1" t="s">
         <v>209</v>
       </c>
     </row>

--- a/Summary.xlsx
+++ b/Summary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Folders to backup!!!\Leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6C5844B-B981-4E8F-A018-101431AB87E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25019A7D-14CF-469A-BC03-96F1C8BC06B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="237">
   <si>
     <t>Question</t>
   </si>
@@ -1214,6 +1214,38 @@
   <si>
     <t>IMP!!!!!!!!!!!!!! 
 https://youtu.be/hnswaLJvr6g?si=oKKT9dTsvOJVY_-c</t>
+  </si>
+  <si>
+    <t>2D DP</t>
+  </si>
+  <si>
+    <t>62. Unique Paths</t>
+  </si>
+  <si>
+    <t>1143. Longest Common Subsequence</t>
+  </si>
+  <si>
+    <t>309. Best Time to Buy and Sell Stock with Cooldown</t>
+  </si>
+  <si>
+    <t>Strivers solution is MUCHHHHH MORE EFFICIENT!!!!!!!!!
+https://youtu.be/nGJmxkUJQGs?si=SeD3vhKzSOHgfL6K
+https://youtu.be/IGIe46xw3YY?si=YqDB1gdE1kvhRrzN</t>
+  </si>
+  <si>
+    <t>518. Coin Change II</t>
+  </si>
+  <si>
+    <t>494. Target Sum</t>
+  </si>
+  <si>
+    <t>97. Interleaving String</t>
+  </si>
+  <si>
+    <t>72. Edit Distance</t>
+  </si>
+  <si>
+    <t>329. Longest Increasing Path in a Matrix</t>
   </si>
 </sst>
 </file>
@@ -1644,10 +1676,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E94"/>
+  <dimension ref="A1:E103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A89" zoomScale="93" workbookViewId="0">
-      <selection activeCell="C99" sqref="C99"/>
+    <sheetView tabSelected="1" topLeftCell="A92" zoomScale="93" workbookViewId="0">
+      <selection activeCell="B106" sqref="B106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2777,6 +2809,84 @@
       </c>
       <c r="D94" s="1" t="s">
         <v>209</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A95" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="B95" s="3" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A96" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="B96" s="7" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A97" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="B97" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A98" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="B98" s="11" t="s">
+        <v>230</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A99" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="B99" s="7" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A100" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="B100" s="3" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A101" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="B101" s="7" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A102" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="B102" s="10" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A103" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="B103" s="7" t="s">
+        <v>236</v>
       </c>
     </row>
   </sheetData>

--- a/Summary.xlsx
+++ b/Summary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Folders to backup!!!\Leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25019A7D-14CF-469A-BC03-96F1C8BC06B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4A1CDD2-60DD-45C5-B748-A7B91CC9A229}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="237">
   <si>
     <t>Question</t>
   </si>
@@ -702,9 +702,6 @@
  return false; 
 if any of the subtree (left or right) of node is same then return false. If both "if" do not execute then the given subtree does not exist in subtree of "node" so return false
 </t>
-  </si>
-  <si>
-    <t>DP</t>
   </si>
   <si>
     <t>10. Regular Expression Matching</t>
@@ -1246,6 +1243,9 @@
   </si>
   <si>
     <t>329. Longest Increasing Path in a Matrix</t>
+  </si>
+  <si>
+    <t>115. Distinct Subsequences</t>
   </si>
 </sst>
 </file>
@@ -1676,10 +1676,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E103"/>
+  <dimension ref="A1:E104"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A92" zoomScale="93" workbookViewId="0">
-      <selection activeCell="B106" sqref="B106"/>
+    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="93" workbookViewId="0">
+      <selection activeCell="A47" sqref="A47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2222,16 +2222,16 @@
     </row>
     <row r="47" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="B47" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="B47" s="5" t="s">
+      <c r="C47" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="D47" s="6" t="s">
         <v>115</v>
-      </c>
-      <c r="C47" s="8" t="s">
-        <v>117</v>
-      </c>
-      <c r="D47" s="6" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="360" x14ac:dyDescent="0.3">
@@ -2239,10 +2239,10 @@
         <v>101</v>
       </c>
       <c r="B48" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="C48" s="1" t="s">
         <v>118</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="49" spans="1:4" ht="72" x14ac:dyDescent="0.3">
@@ -2250,10 +2250,10 @@
         <v>101</v>
       </c>
       <c r="B49" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="C49" s="1" t="s">
         <v>120</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
@@ -2261,10 +2261,10 @@
         <v>101</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="51" spans="1:4" ht="158.4" x14ac:dyDescent="0.3">
@@ -2272,10 +2272,10 @@
         <v>101</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="52" spans="1:4" ht="115.2" x14ac:dyDescent="0.3">
@@ -2283,10 +2283,10 @@
         <v>101</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.3">
@@ -2294,10 +2294,10 @@
         <v>101</v>
       </c>
       <c r="B53" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="C53" s="1" t="s">
         <v>128</v>
-      </c>
-      <c r="C53" s="1" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="54" spans="1:4" ht="129.6" x14ac:dyDescent="0.3">
@@ -2305,13 +2305,13 @@
         <v>101</v>
       </c>
       <c r="B54" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="C54" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="C54" s="1" t="s">
+      <c r="D54" s="4" t="s">
         <v>131</v>
-      </c>
-      <c r="D54" s="4" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="55" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
@@ -2319,24 +2319,24 @@
         <v>101</v>
       </c>
       <c r="B55" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="C55" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="C55" s="1" t="s">
+      <c r="D55" s="1" t="s">
         <v>134</v>
-      </c>
-      <c r="D55" s="1" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B56" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="B56" s="3" t="s">
+      <c r="C56" s="1" t="s">
         <v>137</v>
-      </c>
-      <c r="C56" s="1" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="57" spans="1:4" ht="72" x14ac:dyDescent="0.3">
@@ -2344,98 +2344,98 @@
         <v>26</v>
       </c>
       <c r="B57" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="C57" s="1" t="s">
         <v>139</v>
-      </c>
-      <c r="C57" s="1" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="58" spans="1:4" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="59" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B59" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="B59" s="7" t="s">
-        <v>144</v>
-      </c>
       <c r="C59" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="60" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B60" s="9" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="61" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="62" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B62" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="B62" s="3" t="s">
+      <c r="C62" s="1" t="s">
         <v>151</v>
-      </c>
-      <c r="C62" s="1" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="63" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B63" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="C63" s="6" t="s">
         <v>153</v>
-      </c>
-      <c r="C63" s="6" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="64" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="B64" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="B64" s="3" t="s">
+      <c r="C64" s="1" t="s">
         <v>157</v>
-      </c>
-      <c r="C64" s="1" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B65" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="C65" s="6" t="s">
         <v>159</v>
-      </c>
-      <c r="C65" s="6" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="66" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
@@ -2443,13 +2443,13 @@
         <v>44</v>
       </c>
       <c r="B66" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="C66" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="C66" s="4" t="s">
+      <c r="D66" s="1" t="s">
         <v>162</v>
-      </c>
-      <c r="D66" s="1" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="67" spans="1:4" ht="201.6" x14ac:dyDescent="0.3">
@@ -2457,13 +2457,13 @@
         <v>44</v>
       </c>
       <c r="B67" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="C67" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="C67" s="1" t="s">
+      <c r="D67" s="1" t="s">
         <v>165</v>
-      </c>
-      <c r="D67" s="1" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="68" spans="1:4" ht="189" customHeight="1" x14ac:dyDescent="0.3">
@@ -2471,10 +2471,10 @@
         <v>44</v>
       </c>
       <c r="B68" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="C68" s="1" t="s">
         <v>167</v>
-      </c>
-      <c r="C68" s="1" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="69" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
@@ -2482,410 +2482,418 @@
         <v>44</v>
       </c>
       <c r="B69" s="7" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A70" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B70" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="C70" s="6" t="s">
         <v>174</v>
-      </c>
-      <c r="C70" s="6" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A71" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="B71" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="C71" s="6" t="s">
         <v>171</v>
-      </c>
-      <c r="B71" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="C71" s="6" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="72" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A72" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="73" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A73" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B73" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="C73" s="1" t="s">
         <v>178</v>
-      </c>
-      <c r="C73" s="1" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A74" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B74" s="5" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C74" s="6" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="75" spans="1:4" ht="97.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="B75" s="3" t="s">
         <v>182</v>
       </c>
-      <c r="B75" s="3" t="s">
+      <c r="C75" s="1" t="s">
         <v>183</v>
-      </c>
-      <c r="C75" s="1" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="76" spans="1:4" ht="72" x14ac:dyDescent="0.3">
       <c r="A76" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B76" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="C76" s="1" t="s">
         <v>185</v>
-      </c>
-      <c r="C76" s="1" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A77" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="78" spans="1:4" ht="144" x14ac:dyDescent="0.3">
       <c r="A78" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B78" s="7" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="79" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A79" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B79" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="C79" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="C79" s="1" t="s">
-        <v>191</v>
-      </c>
       <c r="D79" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="80" spans="1:4" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A80" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B80" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="C80" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="C80" s="1" t="s">
+      <c r="D80" s="1" t="s">
         <v>193</v>
-      </c>
-      <c r="D80" s="1" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="81" spans="1:5" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A81" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B81" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="C81" s="1" t="s">
         <v>195</v>
-      </c>
-      <c r="C81" s="1" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="82" spans="1:5" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A82" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B82" s="10" t="s">
+        <v>196</v>
+      </c>
+      <c r="C82" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="C82" s="1" t="s">
-        <v>198</v>
-      </c>
       <c r="D82" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="83" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A83" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B83" s="10" t="s">
+        <v>198</v>
+      </c>
+      <c r="C83" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="C83" s="1" t="s">
-        <v>200</v>
-      </c>
       <c r="D83" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="84" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A84" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B84" s="10" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="85" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A85" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="B85" s="10" t="s">
+        <v>204</v>
+      </c>
+      <c r="C85" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="B85" s="10" t="s">
-        <v>205</v>
-      </c>
-      <c r="C85" s="1" t="s">
-        <v>204</v>
-      </c>
       <c r="D85" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="86" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A86" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B86" s="10" t="s">
+        <v>205</v>
+      </c>
+      <c r="C86" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="C86" s="1" t="s">
-        <v>207</v>
-      </c>
       <c r="D86" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="87" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A87" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B87" s="11" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C87" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="D87" s="1" t="s">
         <v>208</v>
-      </c>
-      <c r="D87" s="1" t="s">
-        <v>209</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A88" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B88" s="11" t="s">
+        <v>210</v>
+      </c>
+      <c r="C88" s="1" t="s">
         <v>211</v>
-      </c>
-      <c r="C88" s="1" t="s">
-        <v>212</v>
       </c>
     </row>
     <row r="89" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A89" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B89" s="10" t="s">
+        <v>212</v>
+      </c>
+      <c r="C89" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="C89" s="1" t="s">
-        <v>214</v>
-      </c>
       <c r="D89" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="90" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A90" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B90" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="C90" s="6" t="s">
         <v>215</v>
       </c>
-      <c r="C90" s="6" t="s">
+      <c r="D90" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="D90" s="1" t="s">
+      <c r="E90" s="1" t="s">
         <v>217</v>
-      </c>
-      <c r="E90" s="1" t="s">
-        <v>218</v>
       </c>
     </row>
     <row r="91" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A91" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B91" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="C91" s="6" t="s">
         <v>219</v>
-      </c>
-      <c r="C91" s="6" t="s">
-        <v>220</v>
       </c>
     </row>
     <row r="92" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A92" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B92" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="C92" s="1" t="s">
         <v>221</v>
-      </c>
-      <c r="C92" s="1" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="93" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A93" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B93" s="10" t="s">
+        <v>222</v>
+      </c>
+      <c r="C93" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="C93" s="1" t="s">
-        <v>224</v>
-      </c>
       <c r="D93" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="94" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A94" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B94" s="11" t="s">
+        <v>224</v>
+      </c>
+      <c r="C94" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="C94" s="1" t="s">
-        <v>226</v>
-      </c>
       <c r="D94" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A95" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="B95" s="3" t="s">
         <v>227</v>
-      </c>
-      <c r="B95" s="3" t="s">
-        <v>228</v>
       </c>
     </row>
     <row r="96" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A96" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B96" s="7" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="97" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A97" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B97" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="C97" s="1" t="s">
         <v>223</v>
-      </c>
-      <c r="C97" s="1" t="s">
-        <v>224</v>
       </c>
     </row>
     <row r="98" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A98" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B98" s="11" t="s">
+        <v>229</v>
+      </c>
+      <c r="C98" s="1" t="s">
         <v>230</v>
-      </c>
-      <c r="C98" s="1" t="s">
-        <v>231</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A99" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B99" s="7" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A100" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A101" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B101" s="7" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A102" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B102" s="10" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="103" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A103" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="B103" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="B103" s="5" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A104" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="B104" s="5" t="s">
         <v>236</v>
       </c>
     </row>

--- a/Summary.xlsx
+++ b/Summary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Folders to backup!!!\Leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4A1CDD2-60DD-45C5-B748-A7B91CC9A229}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{017C8180-9854-469B-968B-4EBB59EAA361}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="240">
   <si>
     <t>Question</t>
   </si>
@@ -1246,6 +1246,36 @@
   </si>
   <si>
     <t>115. Distinct Subsequences</t>
+  </si>
+  <si>
+    <t>Greedy</t>
+  </si>
+  <si>
+    <t>55. Jump Game</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>IMP see this:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+https://youtu.be/Yan0cv2cLy8</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -1676,10 +1706,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E104"/>
+  <dimension ref="A1:E105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="93" workbookViewId="0">
-      <selection activeCell="A47" sqref="A47"/>
+    <sheetView tabSelected="1" topLeftCell="A96" zoomScale="93" workbookViewId="0">
+      <selection activeCell="C108" sqref="C108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2895,6 +2925,17 @@
       </c>
       <c r="B104" s="5" t="s">
         <v>236</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A105" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="B105" s="10" t="s">
+        <v>238</v>
+      </c>
+      <c r="C105" s="1" t="s">
+        <v>239</v>
       </c>
     </row>
   </sheetData>

--- a/Summary.xlsx
+++ b/Summary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Folders to backup!!!\Leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{017C8180-9854-469B-968B-4EBB59EAA361}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7CAF3C8-53C6-4DE1-938C-4BBC8AF5D06A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="240">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="242">
   <si>
     <t>Question</t>
   </si>
@@ -1276,6 +1276,13 @@
       <t xml:space="preserve">
 https://youtu.be/Yan0cv2cLy8</t>
     </r>
+  </si>
+  <si>
+    <t>45. Jump Game II</t>
+  </si>
+  <si>
+    <t>I have solved this with DP but efficient approach is greedy
+https://youtu.be/dJ7sWiOoK7g</t>
   </si>
 </sst>
 </file>
@@ -1706,10 +1713,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E105"/>
+  <dimension ref="A1:E106"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A96" zoomScale="93" workbookViewId="0">
-      <selection activeCell="C108" sqref="C108"/>
+    <sheetView tabSelected="1" topLeftCell="A94" zoomScale="93" workbookViewId="0">
+      <selection activeCell="D106" sqref="D106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2857,7 +2864,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="97" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A97" s="1" t="s">
         <v>226</v>
       </c>
@@ -2868,7 +2875,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="98" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A98" s="1" t="s">
         <v>226</v>
       </c>
@@ -2879,7 +2886,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A99" s="1" t="s">
         <v>226</v>
       </c>
@@ -2887,7 +2894,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A100" s="1" t="s">
         <v>226</v>
       </c>
@@ -2895,7 +2902,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A101" s="1" t="s">
         <v>226</v>
       </c>
@@ -2903,7 +2910,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A102" s="1" t="s">
         <v>226</v>
       </c>
@@ -2911,7 +2918,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="103" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A103" s="1" t="s">
         <v>226</v>
       </c>
@@ -2919,7 +2926,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A104" s="1" t="s">
         <v>226</v>
       </c>
@@ -2927,7 +2934,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="105" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A105" s="1" t="s">
         <v>237</v>
       </c>
@@ -2936,6 +2943,23 @@
       </c>
       <c r="C105" s="1" t="s">
         <v>239</v>
+      </c>
+      <c r="D105" s="1" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A106" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="B106" s="10" t="s">
+        <v>240</v>
+      </c>
+      <c r="C106" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="D106" s="1" t="s">
+        <v>208</v>
       </c>
     </row>
   </sheetData>

--- a/Summary.xlsx
+++ b/Summary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Folders to backup!!!\Leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7CAF3C8-53C6-4DE1-938C-4BBC8AF5D06A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D33BA9B5-B6DA-42CF-A09A-40EDFBB670C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="242">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="244">
   <si>
     <t>Question</t>
   </si>
@@ -1283,6 +1283,12 @@
   <si>
     <t>I have solved this with DP but efficient approach is greedy
 https://youtu.be/dJ7sWiOoK7g</t>
+  </si>
+  <si>
+    <t>134. Gas Station</t>
+  </si>
+  <si>
+    <t>https://youtu.be/lJwbPZGo05A</t>
   </si>
 </sst>
 </file>
@@ -1713,10 +1719,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E106"/>
+  <dimension ref="A1:E107"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A94" zoomScale="93" workbookViewId="0">
-      <selection activeCell="D106" sqref="D106"/>
+      <selection activeCell="E113" sqref="E112:E113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2962,6 +2968,20 @@
         <v>208</v>
       </c>
     </row>
+    <row r="107" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A107" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="B107" s="10" t="s">
+        <v>242</v>
+      </c>
+      <c r="C107" s="6" t="s">
+        <v>243</v>
+      </c>
+      <c r="D107" s="1" t="s">
+        <v>208</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="D21" r:id="rId1" xr:uid="{35299F42-C228-43E2-B954-EFB9EDC93588}"/>
@@ -2976,8 +2996,9 @@
     <hyperlink ref="C74" r:id="rId10" xr:uid="{328B7B16-FD69-4966-8E55-3672E96C45C7}"/>
     <hyperlink ref="C90" r:id="rId11" xr:uid="{3EA913FE-1F38-4379-89CF-90C56DC1F6B7}"/>
     <hyperlink ref="C91" r:id="rId12" xr:uid="{FD05A83C-AF3B-4F2F-BCB9-215270CCA260}"/>
+    <hyperlink ref="C107" r:id="rId13" xr:uid="{D1B700A8-F705-4DCD-A6A5-531621BB040C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId13"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId14"/>
 </worksheet>
 </file>
--- a/Summary.xlsx
+++ b/Summary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Folders to backup!!!\Leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D33BA9B5-B6DA-42CF-A09A-40EDFBB670C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5866C360-AB92-4690-8BDE-09E829389D72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="244">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="246">
   <si>
     <t>Question</t>
   </si>
@@ -1289,6 +1289,13 @@
   </si>
   <si>
     <t>https://youtu.be/lJwbPZGo05A</t>
+  </si>
+  <si>
+    <t>846. Hand of Straights</t>
+  </si>
+  <si>
+    <t>Using Treemap (neetcode solution) instead of Hashmap makes this code muchhhhhh faster!!!!!!
+https://youtu.be/amnrMCVd2YI</t>
   </si>
 </sst>
 </file>
@@ -1719,10 +1726,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E107"/>
+  <dimension ref="A1:E108"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A94" zoomScale="93" workbookViewId="0">
-      <selection activeCell="E113" sqref="E112:E113"/>
+      <selection activeCell="C106" sqref="C106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2979,6 +2986,20 @@
         <v>243</v>
       </c>
       <c r="D107" s="1" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A108" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="B108" s="10" t="s">
+        <v>244</v>
+      </c>
+      <c r="C108" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="D108" s="1" t="s">
         <v>208</v>
       </c>
     </row>

--- a/Summary.xlsx
+++ b/Summary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Folders to backup!!!\Leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5866C360-AB92-4690-8BDE-09E829389D72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F941A9C-35EF-4995-A5D9-D36DA2773376}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="246">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="248">
   <si>
     <t>Question</t>
   </si>
@@ -1296,6 +1296,13 @@
   <si>
     <t>Using Treemap (neetcode solution) instead of Hashmap makes this code muchhhhhh faster!!!!!!
 https://youtu.be/amnrMCVd2YI</t>
+  </si>
+  <si>
+    <t>1899. Merge Triplets to Form Target Triplet</t>
+  </si>
+  <si>
+    <t>IMP!!! - This question uses a very clever trick/observation
+https://youtu.be/kShkQLQZ9K4</t>
   </si>
 </sst>
 </file>
@@ -1726,10 +1733,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E108"/>
+  <dimension ref="A1:E109"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A94" zoomScale="93" workbookViewId="0">
-      <selection activeCell="C106" sqref="C106"/>
+      <selection activeCell="D109" sqref="D109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3000,6 +3007,20 @@
         <v>245</v>
       </c>
       <c r="D108" s="1" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A109" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="B109" s="10" t="s">
+        <v>246</v>
+      </c>
+      <c r="C109" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="D109" s="1" t="s">
         <v>208</v>
       </c>
     </row>

--- a/Summary.xlsx
+++ b/Summary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Folders to backup!!!\Leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F941A9C-35EF-4995-A5D9-D36DA2773376}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C47F4E0E-7F90-49E3-AC7E-DD3DDF3E6409}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="248">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="250">
   <si>
     <t>Question</t>
   </si>
@@ -1303,6 +1303,13 @@
   <si>
     <t>IMP!!! - This question uses a very clever trick/observation
 https://youtu.be/kShkQLQZ9K4</t>
+  </si>
+  <si>
+    <t>763. Partition Labels</t>
+  </si>
+  <si>
+    <t>https://youtu.be/B7m8UmZE-vw
+My algo is similar to this except instead o "size" i keep track if start indx ie "i" variable in code</t>
   </si>
 </sst>
 </file>
@@ -1733,10 +1740,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E109"/>
+  <dimension ref="A1:E110"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A94" zoomScale="93" workbookViewId="0">
-      <selection activeCell="D109" sqref="D109"/>
+    <sheetView tabSelected="1" topLeftCell="A96" zoomScale="93" workbookViewId="0">
+      <selection activeCell="B113" sqref="B113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3024,6 +3031,17 @@
         <v>208</v>
       </c>
     </row>
+    <row r="110" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A110" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="B110" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="C110" s="6" t="s">
+        <v>249</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="D21" r:id="rId1" xr:uid="{35299F42-C228-43E2-B954-EFB9EDC93588}"/>
@@ -3039,8 +3057,9 @@
     <hyperlink ref="C90" r:id="rId11" xr:uid="{3EA913FE-1F38-4379-89CF-90C56DC1F6B7}"/>
     <hyperlink ref="C91" r:id="rId12" xr:uid="{FD05A83C-AF3B-4F2F-BCB9-215270CCA260}"/>
     <hyperlink ref="C107" r:id="rId13" xr:uid="{D1B700A8-F705-4DCD-A6A5-531621BB040C}"/>
+    <hyperlink ref="C110" r:id="rId14" xr:uid="{5A078954-02C6-4C28-8330-A5B321EBA503}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId14"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId15"/>
 </worksheet>
 </file>
--- a/Summary.xlsx
+++ b/Summary.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Folders to backup!!!\Leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C47F4E0E-7F90-49E3-AC7E-DD3DDF3E6409}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0D26CF8-67D8-41DD-A687-E82781A28328}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="250">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="253">
   <si>
     <t>Question</t>
   </si>
@@ -1310,6 +1310,16 @@
   <si>
     <t>https://youtu.be/B7m8UmZE-vw
 My algo is similar to this except instead o "size" i keep track if start indx ie "i" variable in code</t>
+  </si>
+  <si>
+    <t>1535. Find the Winner of an Array Game</t>
+  </si>
+  <si>
+    <t>If `k&gt;=arr.len` then just return the max element in the array
+else just simulate the problem question</t>
+  </si>
+  <si>
+    <t>★★★★★</t>
   </si>
 </sst>
 </file>
@@ -1740,10 +1750,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E110"/>
+  <dimension ref="A1:E111"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A96" zoomScale="93" workbookViewId="0">
-      <selection activeCell="B113" sqref="B113"/>
+      <selection activeCell="E111" sqref="E111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3040,6 +3050,20 @@
       </c>
       <c r="C110" s="6" t="s">
         <v>249</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A111" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B111" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="C111" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="D111" s="1" t="s">
+        <v>252</v>
       </c>
     </row>
   </sheetData>

--- a/Summary.xlsx
+++ b/Summary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Folders to backup!!!\Leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0D26CF8-67D8-41DD-A687-E82781A28328}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E99735A0-74D9-428D-AE37-A8DFF96FA1E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="253">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="256">
   <si>
     <t>Question</t>
   </si>
@@ -1320,6 +1320,16 @@
   </si>
   <si>
     <t>★★★★★</t>
+  </si>
+  <si>
+    <t>1845. Seat Reservation Manager</t>
+  </si>
+  <si>
+    <t>Use Min heap/Priority Queue. Both `reserve() ` &amp; `unreserve(int seatNumber)` take O(logn) time
+Space  = O(n)</t>
+  </si>
+  <si>
+    <t>★</t>
   </si>
 </sst>
 </file>
@@ -1429,7 +1439,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1462,6 +1472,9 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1750,10 +1763,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E111"/>
+  <dimension ref="A1:E113"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A96" zoomScale="93" workbookViewId="0">
-      <selection activeCell="E111" sqref="E111"/>
+    <sheetView tabSelected="1" topLeftCell="A99" zoomScale="93" workbookViewId="0">
+      <selection activeCell="C117" sqref="C117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3065,6 +3078,23 @@
       <c r="D111" s="1" t="s">
         <v>252</v>
       </c>
+    </row>
+    <row r="112" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A112" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B112" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="C112" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="D112" s="1" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="113" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B113" s="12"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/Summary.xlsx
+++ b/Summary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Folders to backup!!!\Leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E99735A0-74D9-428D-AE37-A8DFF96FA1E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEBCAD76-A362-4702-81FE-B7FE7B1A7BCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="256">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="259">
   <si>
     <t>Question</t>
   </si>
@@ -1330,6 +1330,17 @@
   </si>
   <si>
     <t>★</t>
+  </si>
+  <si>
+    <t>Math , String</t>
+  </si>
+  <si>
+    <t>1759. Count Number of Homogenous Substrings</t>
+  </si>
+  <si>
+    <t>One and only thing you need to know to make this problem Easy is that homogenous string "aaaaaaa" of length N contains N * (N + 1) / 2 homogenous substrings (sum of the arithmetic progression).
+Then you just sum them up not forgetting about modulo.
+Also the ans is very big so use `long` for intermidiate math operations</t>
   </si>
 </sst>
 </file>
@@ -1439,7 +1450,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1472,9 +1483,6 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1765,8 +1773,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E113"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A99" zoomScale="93" workbookViewId="0">
-      <selection activeCell="C117" sqref="C117"/>
+    <sheetView tabSelected="1" topLeftCell="A105" zoomScale="93" workbookViewId="0">
+      <selection activeCell="B113" sqref="B113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3093,8 +3101,19 @@
         <v>255</v>
       </c>
     </row>
-    <row r="113" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B113" s="12"/>
+    <row r="113" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A113" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="B113" s="10" t="s">
+        <v>257</v>
+      </c>
+      <c r="C113" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="D113" s="1" t="s">
+        <v>208</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>

--- a/Summary.xlsx
+++ b/Summary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Folders to backup!!!\Leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEBCAD76-A362-4702-81FE-B7FE7B1A7BCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FC282F8-308C-48C7-AD50-C0AD2068FC43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="259">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="263">
   <si>
     <t>Question</t>
   </si>
@@ -1341,6 +1341,20 @@
     <t>One and only thing you need to know to make this problem Easy is that homogenous string "aaaaaaa" of length N contains N * (N + 1) / 2 homogenous substrings (sum of the arithmetic progression).
 Then you just sum them up not forgetting about modulo.
 Also the ans is very big so use `long` for intermidiate math operations</t>
+  </si>
+  <si>
+    <t>Hashing , DFS</t>
+  </si>
+  <si>
+    <t>1743. Restore the Array From Adjacent Pairs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Use hashmap to store 2 (or 1) edges of every element (key) in `adjacentMap`.
+The elements at the start or end of the `ans` array will **only have 1 adjacent element**
+Get/start with one of those elements with only 1 adjacent element and start reconstructing the array, also use a hashset to keep track if a element is aready inserted in `ans` previosly </t>
+  </si>
+  <si>
+    <t>★★★★★★★★★</t>
   </si>
 </sst>
 </file>
@@ -1771,10 +1785,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E113"/>
+  <dimension ref="A1:E114"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A105" zoomScale="93" workbookViewId="0">
-      <selection activeCell="B113" sqref="B113"/>
+      <selection activeCell="C113" sqref="C113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3113,6 +3127,20 @@
       </c>
       <c r="D113" s="1" t="s">
         <v>208</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A114" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="B114" s="10" t="s">
+        <v>260</v>
+      </c>
+      <c r="C114" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="D114" s="1" t="s">
+        <v>262</v>
       </c>
     </row>
   </sheetData>

--- a/Summary.xlsx
+++ b/Summary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Folders to backup!!!\Leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FC282F8-308C-48C7-AD50-C0AD2068FC43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E69CFACA-5F40-42D0-90B8-3AD239F99EF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="263">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="265">
   <si>
     <t>Question</t>
   </si>
@@ -1355,6 +1355,13 @@
   </si>
   <si>
     <t>★★★★★★★★★</t>
+  </si>
+  <si>
+    <t>IMP!!!!: https://youtu.be/V6H1qAeB-l4?si=A3j_9AnfgDDiqCsc
+Use AdjacencyMatrix to store edge to edge weights &amp; then use Dijkstra's Algoritm to find the shortest path between node1 -&gt; node2</t>
+  </si>
+  <si>
+    <t>2642. Design Graph With Shortest Path Calculator</t>
   </si>
 </sst>
 </file>
@@ -1464,40 +1471,46 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1785,10 +1798,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E114"/>
+  <dimension ref="A1:E115"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A105" zoomScale="93" workbookViewId="0">
-      <selection activeCell="C113" sqref="C113"/>
+    <sheetView tabSelected="1" topLeftCell="A111" zoomScale="93" workbookViewId="0">
+      <selection activeCell="B119" sqref="B119:B120"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1802,1344 +1815,1556 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
     </row>
     <row r="2" spans="1:5" ht="72" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="E2" s="4"/>
+      <c r="E2" s="5"/>
     </row>
     <row r="3" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="4" t="s">
         <v>6</v>
       </c>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="4" t="s">
         <v>8</v>
       </c>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
     </row>
     <row r="5" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="4" t="s">
         <v>11</v>
       </c>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="4" t="s">
         <v>13</v>
       </c>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
     </row>
     <row r="7" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="4" t="s">
         <v>16</v>
       </c>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
     </row>
     <row r="8" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" s="4" t="s">
         <v>18</v>
       </c>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
     </row>
     <row r="9" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
+      <c r="A9" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" s="4" t="s">
         <v>20</v>
       </c>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
     </row>
     <row r="10" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
+      <c r="A10" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" s="4" t="s">
         <v>23</v>
       </c>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
     </row>
     <row r="11" spans="1:5" ht="72" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
+      <c r="A11" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C11" s="4" t="s">
         <v>25</v>
       </c>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
     </row>
     <row r="12" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
+      <c r="A12" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C12" s="4" t="s">
         <v>29</v>
       </c>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
     </row>
     <row r="13" spans="1:5" ht="72" x14ac:dyDescent="0.3">
-      <c r="A13" s="1" t="s">
+      <c r="A13" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C13" s="4" t="s">
         <v>31</v>
       </c>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
     </row>
     <row r="14" spans="1:5" ht="72" x14ac:dyDescent="0.3">
-      <c r="A14" s="1" t="s">
+      <c r="A14" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C14" s="4" t="s">
         <v>33</v>
       </c>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
     </row>
     <row r="15" spans="1:5" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A15" s="1" t="s">
+      <c r="A15" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="B15" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C15" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
     </row>
     <row r="16" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
+      <c r="A16" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B16" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C16" s="4" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A17" s="1" t="s">
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+    </row>
+    <row r="17" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A17" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B17" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C17" s="4" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A18" s="1" t="s">
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+    </row>
+    <row r="18" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A18" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B18" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="C18" s="4" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+    </row>
+    <row r="19" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A19" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="B19" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="C19" s="4" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" ht="69" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="1" t="s">
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+    </row>
+    <row r="20" spans="1:5" ht="69" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="B20" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="C20" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="D20" s="1" t="s">
+      <c r="D20" s="4" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" ht="72" x14ac:dyDescent="0.3">
-      <c r="A21" s="1" t="s">
+      <c r="E20" s="4"/>
+    </row>
+    <row r="21" spans="1:5" ht="72" x14ac:dyDescent="0.3">
+      <c r="A21" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="B21" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="C21" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="D21" s="6" t="s">
+      <c r="D21" s="9" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A22" s="1" t="s">
+      <c r="E21" s="4"/>
+    </row>
+    <row r="22" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A22" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="B22" s="5" t="s">
+      <c r="B22" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="C22" s="4" t="s">
+      <c r="C22" s="5" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A23" s="1" t="s">
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+    </row>
+    <row r="23" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A23" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="B23" s="3" t="s">
+      <c r="B23" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="C23" s="4" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" ht="201.6" x14ac:dyDescent="0.3">
-      <c r="A24" s="1" t="s">
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+    </row>
+    <row r="24" spans="1:5" ht="201.6" x14ac:dyDescent="0.3">
+      <c r="A24" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="B24" s="3" t="s">
+      <c r="B24" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="C24" s="4" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A25" s="1" t="s">
+      <c r="D24" s="4"/>
+      <c r="E24" s="4"/>
+    </row>
+    <row r="25" spans="1:5" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A25" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="B25" s="5" t="s">
+      <c r="B25" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="C25" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="D25" s="4" t="s">
+      <c r="D25" s="5" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" ht="201.6" x14ac:dyDescent="0.3">
-      <c r="A26" s="1" t="s">
+      <c r="E25" s="4"/>
+    </row>
+    <row r="26" spans="1:5" ht="201.6" x14ac:dyDescent="0.3">
+      <c r="A26" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="B26" s="3" t="s">
+      <c r="B26" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="C26" s="1" t="s">
+      <c r="C26" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="D26" s="6" t="s">
+      <c r="D26" s="9" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A27" s="1" t="s">
+      <c r="E26" s="4"/>
+    </row>
+    <row r="27" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A27" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="B27" s="3" t="s">
+      <c r="B27" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="C27" s="1" t="s">
+      <c r="C27" s="4" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" ht="172.8" x14ac:dyDescent="0.3">
-      <c r="A28" s="1" t="s">
+      <c r="D27" s="4"/>
+      <c r="E27" s="4"/>
+    </row>
+    <row r="28" spans="1:5" ht="172.8" x14ac:dyDescent="0.3">
+      <c r="A28" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="B28" s="3" t="s">
+      <c r="B28" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="C28" s="1" t="s">
+      <c r="C28" s="4" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A29" s="1" t="s">
+      <c r="D28" s="4"/>
+      <c r="E28" s="4"/>
+    </row>
+    <row r="29" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A29" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="B29" s="5" t="s">
+      <c r="B29" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="C29" s="4" t="s">
+      <c r="C29" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="D29" s="6" t="s">
+      <c r="D29" s="9" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" ht="201.6" x14ac:dyDescent="0.3">
-      <c r="A30" s="1" t="s">
+      <c r="E29" s="4"/>
+    </row>
+    <row r="30" spans="1:5" ht="201.6" x14ac:dyDescent="0.3">
+      <c r="A30" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="B30" s="3" t="s">
+      <c r="B30" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="C30" s="1" t="s">
+      <c r="C30" s="4" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A31" s="1" t="s">
+      <c r="D30" s="4"/>
+      <c r="E30" s="4"/>
+    </row>
+    <row r="31" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A31" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="B31" s="3" t="s">
+      <c r="B31" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="C31" s="1" t="s">
+      <c r="C31" s="4" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" ht="158.4" x14ac:dyDescent="0.3">
-      <c r="A32" s="1" t="s">
+      <c r="D31" s="4"/>
+      <c r="E31" s="4"/>
+    </row>
+    <row r="32" spans="1:5" ht="158.4" x14ac:dyDescent="0.3">
+      <c r="A32" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="B32" s="3" t="s">
+      <c r="B32" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="C32" s="1" t="s">
+      <c r="C32" s="4" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A33" s="1" t="s">
+      <c r="D32" s="4"/>
+      <c r="E32" s="4"/>
+    </row>
+    <row r="33" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A33" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="B33" s="3" t="s">
+      <c r="B33" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="C33" s="1" t="s">
+      <c r="C33" s="4" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A34" s="1" t="s">
+      <c r="D33" s="4"/>
+      <c r="E33" s="4"/>
+    </row>
+    <row r="34" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A34" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="B34" s="2" t="s">
+      <c r="B34" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="C34" s="1" t="s">
+      <c r="C34" s="4" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A35" s="1" t="s">
+      <c r="D34" s="4"/>
+      <c r="E34" s="4"/>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A35" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="B35" s="7" t="s">
+      <c r="B35" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="C35" s="1" t="s">
+      <c r="C35" s="4" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A36" s="1" t="s">
+      <c r="D35" s="4"/>
+      <c r="E35" s="4"/>
+    </row>
+    <row r="36" spans="1:5" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A36" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="B36" s="7" t="s">
+      <c r="B36" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="C36" s="8" t="s">
+      <c r="C36" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="D36" s="6" t="s">
+      <c r="D36" s="9" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="37" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A37" s="1" t="s">
+      <c r="E36" s="4"/>
+    </row>
+    <row r="37" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A37" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B37" s="3" t="s">
+      <c r="B37" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="C37" s="1" t="s">
+      <c r="C37" s="4" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="38" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A38" s="1" t="s">
+      <c r="D37" s="4"/>
+      <c r="E37" s="4"/>
+    </row>
+    <row r="38" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A38" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="B38" s="3" t="s">
+      <c r="B38" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="C38" s="1" t="s">
+      <c r="C38" s="4" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="39" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A39" s="1" t="s">
+      <c r="D38" s="4"/>
+      <c r="E38" s="4"/>
+    </row>
+    <row r="39" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A39" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="B39" s="5" t="s">
+      <c r="B39" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="C39" s="1" t="s">
+      <c r="C39" s="4" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="40" spans="1:4" ht="216" x14ac:dyDescent="0.3">
-      <c r="A40" s="1" t="s">
+      <c r="D39" s="4"/>
+      <c r="E39" s="4"/>
+    </row>
+    <row r="40" spans="1:5" ht="216" x14ac:dyDescent="0.3">
+      <c r="A40" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="B40" s="5" t="s">
+      <c r="B40" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="C40" s="1" t="s">
+      <c r="C40" s="4" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="41" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A41" s="1" t="s">
+      <c r="D40" s="4"/>
+      <c r="E40" s="4"/>
+    </row>
+    <row r="41" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A41" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="B41" s="9" t="s">
+      <c r="B41" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="C41" s="1" t="s">
+      <c r="C41" s="4" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="42" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A42" s="1" t="s">
+      <c r="D41" s="4"/>
+      <c r="E41" s="4"/>
+    </row>
+    <row r="42" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A42" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="B42" s="9" t="s">
+      <c r="B42" s="11" t="s">
         <v>105</v>
       </c>
-      <c r="C42" s="1" t="s">
+      <c r="C42" s="4" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="43" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A43" s="1" t="s">
+      <c r="D42" s="4"/>
+      <c r="E42" s="4"/>
+    </row>
+    <row r="43" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A43" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="B43" s="9" t="s">
+      <c r="B43" s="11" t="s">
         <v>107</v>
       </c>
-      <c r="C43" s="1" t="s">
+      <c r="C43" s="4" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="44" spans="1:4" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A44" s="1" t="s">
+      <c r="D43" s="4"/>
+      <c r="E43" s="4"/>
+    </row>
+    <row r="44" spans="1:5" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A44" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="B44" s="9" t="s">
+      <c r="B44" s="11" t="s">
         <v>109</v>
       </c>
-      <c r="C44" s="1" t="s">
+      <c r="C44" s="4" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="45" spans="1:4" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A45" s="1" t="s">
+      <c r="D44" s="4"/>
+      <c r="E44" s="4"/>
+    </row>
+    <row r="45" spans="1:5" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A45" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="B45" s="9" t="s">
+      <c r="B45" s="11" t="s">
         <v>111</v>
       </c>
-      <c r="C45" s="1" t="s">
+      <c r="C45" s="4" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="46" spans="1:4" ht="273.60000000000002" x14ac:dyDescent="0.3">
-      <c r="A46" s="1" t="s">
+      <c r="D45" s="4"/>
+      <c r="E45" s="4"/>
+    </row>
+    <row r="46" spans="1:5" ht="273.60000000000002" x14ac:dyDescent="0.3">
+      <c r="A46" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="B46" s="9" t="s">
+      <c r="B46" s="11" t="s">
         <v>112</v>
       </c>
-      <c r="C46" s="1" t="s">
+      <c r="C46" s="4" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="47" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A47" s="1" t="s">
+      <c r="D46" s="4"/>
+      <c r="E46" s="4"/>
+    </row>
+    <row r="47" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A47" s="4" t="s">
         <v>226</v>
       </c>
-      <c r="B47" s="5" t="s">
+      <c r="B47" s="8" t="s">
         <v>114</v>
       </c>
-      <c r="C47" s="8" t="s">
+      <c r="C47" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="D47" s="6" t="s">
+      <c r="D47" s="9" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="48" spans="1:4" ht="360" x14ac:dyDescent="0.3">
-      <c r="A48" s="1" t="s">
+      <c r="E47" s="4"/>
+    </row>
+    <row r="48" spans="1:5" ht="360" x14ac:dyDescent="0.3">
+      <c r="A48" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="B48" s="3" t="s">
+      <c r="B48" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="C48" s="1" t="s">
+      <c r="C48" s="4" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="49" spans="1:4" ht="72" x14ac:dyDescent="0.3">
-      <c r="A49" s="1" t="s">
+      <c r="D48" s="4"/>
+      <c r="E48" s="4"/>
+    </row>
+    <row r="49" spans="1:5" ht="72" x14ac:dyDescent="0.3">
+      <c r="A49" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="B49" s="3" t="s">
+      <c r="B49" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="C49" s="1" t="s">
+      <c r="C49" s="4" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A50" s="1" t="s">
+      <c r="D49" s="4"/>
+      <c r="E49" s="4"/>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A50" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="B50" s="3" t="s">
+      <c r="B50" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="C50" s="4" t="s">
+      <c r="C50" s="5" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="51" spans="1:4" ht="158.4" x14ac:dyDescent="0.3">
-      <c r="A51" s="1" t="s">
+      <c r="D50" s="4"/>
+      <c r="E50" s="4"/>
+    </row>
+    <row r="51" spans="1:5" ht="158.4" x14ac:dyDescent="0.3">
+      <c r="A51" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="B51" s="3" t="s">
+      <c r="B51" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="C51" s="1" t="s">
+      <c r="C51" s="4" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="52" spans="1:4" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A52" s="1" t="s">
+      <c r="D51" s="4"/>
+      <c r="E51" s="4"/>
+    </row>
+    <row r="52" spans="1:5" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A52" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="B52" s="3" t="s">
+      <c r="B52" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="C52" s="1" t="s">
+      <c r="C52" s="4" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A53" s="1" t="s">
+      <c r="D52" s="4"/>
+      <c r="E52" s="4"/>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A53" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="B53" s="3" t="s">
+      <c r="B53" s="6" t="s">
         <v>127</v>
       </c>
-      <c r="C53" s="1" t="s">
+      <c r="C53" s="4" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="54" spans="1:4" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A54" s="1" t="s">
+      <c r="D53" s="4"/>
+      <c r="E53" s="4"/>
+    </row>
+    <row r="54" spans="1:5" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A54" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="B54" s="5" t="s">
+      <c r="B54" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="C54" s="1" t="s">
+      <c r="C54" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="D54" s="4" t="s">
+      <c r="D54" s="5" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="55" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A55" s="1" t="s">
+      <c r="E54" s="4"/>
+    </row>
+    <row r="55" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A55" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="B55" s="5" t="s">
+      <c r="B55" s="8" t="s">
         <v>132</v>
       </c>
-      <c r="C55" s="1" t="s">
+      <c r="C55" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="D55" s="1" t="s">
+      <c r="D55" s="4" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A56" s="1" t="s">
+      <c r="E55" s="4"/>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A56" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="B56" s="3" t="s">
+      <c r="B56" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="C56" s="1" t="s">
+      <c r="C56" s="4" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="57" spans="1:4" ht="72" x14ac:dyDescent="0.3">
-      <c r="A57" s="1" t="s">
+      <c r="D56" s="4"/>
+      <c r="E56" s="4"/>
+    </row>
+    <row r="57" spans="1:5" ht="72" x14ac:dyDescent="0.3">
+      <c r="A57" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B57" s="3" t="s">
+      <c r="B57" s="6" t="s">
         <v>138</v>
       </c>
-      <c r="C57" s="1" t="s">
+      <c r="C57" s="4" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="58" spans="1:4" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A58" s="1" t="s">
+      <c r="D57" s="4"/>
+      <c r="E57" s="4"/>
+    </row>
+    <row r="58" spans="1:5" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A58" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="B58" s="3" t="s">
+      <c r="B58" s="6" t="s">
         <v>141</v>
       </c>
-      <c r="C58" s="1" t="s">
+      <c r="C58" s="4" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="59" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A59" s="1" t="s">
+      <c r="D58" s="4"/>
+      <c r="E58" s="4"/>
+    </row>
+    <row r="59" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A59" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="B59" s="7" t="s">
+      <c r="B59" s="10" t="s">
         <v>143</v>
       </c>
-      <c r="C59" s="1" t="s">
+      <c r="C59" s="4" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="60" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A60" s="1" t="s">
+      <c r="D59" s="4"/>
+      <c r="E59" s="4"/>
+    </row>
+    <row r="60" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A60" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="B60" s="9" t="s">
+      <c r="B60" s="11" t="s">
         <v>145</v>
       </c>
-      <c r="C60" s="1" t="s">
+      <c r="C60" s="4" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="61" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A61" s="1" t="s">
+      <c r="D60" s="4"/>
+      <c r="E60" s="4"/>
+    </row>
+    <row r="61" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A61" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="B61" s="3" t="s">
+      <c r="B61" s="6" t="s">
         <v>148</v>
       </c>
-      <c r="C61" s="1" t="s">
+      <c r="C61" s="4" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="62" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A62" s="1" t="s">
+      <c r="D61" s="4"/>
+      <c r="E61" s="4"/>
+    </row>
+    <row r="62" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A62" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="B62" s="3" t="s">
+      <c r="B62" s="6" t="s">
         <v>150</v>
       </c>
-      <c r="C62" s="1" t="s">
+      <c r="C62" s="4" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="63" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A63" s="1" t="s">
+      <c r="D62" s="4"/>
+      <c r="E62" s="4"/>
+    </row>
+    <row r="63" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A63" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="B63" s="10" t="s">
+      <c r="B63" s="12" t="s">
         <v>152</v>
       </c>
-      <c r="C63" s="6" t="s">
+      <c r="C63" s="9" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="64" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A64" s="1" t="s">
+      <c r="D63" s="4"/>
+      <c r="E63" s="4"/>
+    </row>
+    <row r="64" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A64" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="B64" s="3" t="s">
+      <c r="B64" s="6" t="s">
         <v>156</v>
       </c>
-      <c r="C64" s="1" t="s">
+      <c r="C64" s="4" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A65" s="1" t="s">
+      <c r="D64" s="4"/>
+      <c r="E64" s="4"/>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A65" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="B65" s="5" t="s">
+      <c r="B65" s="8" t="s">
         <v>158</v>
       </c>
-      <c r="C65" s="6" t="s">
+      <c r="C65" s="9" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="66" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A66" s="1" t="s">
+      <c r="D65" s="4"/>
+      <c r="E65" s="4"/>
+    </row>
+    <row r="66" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A66" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="B66" s="3" t="s">
+      <c r="B66" s="6" t="s">
         <v>160</v>
       </c>
-      <c r="C66" s="4" t="s">
+      <c r="C66" s="5" t="s">
         <v>161</v>
       </c>
-      <c r="D66" s="1" t="s">
+      <c r="D66" s="4" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="67" spans="1:4" ht="201.6" x14ac:dyDescent="0.3">
-      <c r="A67" s="1" t="s">
+      <c r="E66" s="4"/>
+    </row>
+    <row r="67" spans="1:5" ht="201.6" x14ac:dyDescent="0.3">
+      <c r="A67" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="B67" s="3" t="s">
+      <c r="B67" s="6" t="s">
         <v>163</v>
       </c>
-      <c r="C67" s="1" t="s">
+      <c r="C67" s="4" t="s">
         <v>164</v>
       </c>
-      <c r="D67" s="1" t="s">
+      <c r="D67" s="4" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="68" spans="1:4" ht="189" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="1" t="s">
+      <c r="E67" s="4"/>
+    </row>
+    <row r="68" spans="1:5" ht="189" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="B68" s="3" t="s">
+      <c r="B68" s="6" t="s">
         <v>166</v>
       </c>
-      <c r="C68" s="1" t="s">
+      <c r="C68" s="4" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="69" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A69" s="1" t="s">
+      <c r="D68" s="4"/>
+      <c r="E68" s="4"/>
+    </row>
+    <row r="69" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A69" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="B69" s="7" t="s">
+      <c r="B69" s="10" t="s">
         <v>169</v>
       </c>
-      <c r="C69" s="1" t="s">
+      <c r="C69" s="4" t="s">
         <v>168</v>
       </c>
-      <c r="D69" s="1" t="s">
+      <c r="D69" s="4" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A70" s="1" t="s">
+      <c r="E69" s="4"/>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A70" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="B70" s="3" t="s">
+      <c r="B70" s="6" t="s">
         <v>173</v>
       </c>
-      <c r="C70" s="6" t="s">
+      <c r="C70" s="9" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A71" s="1" t="s">
+      <c r="D70" s="4"/>
+      <c r="E70" s="4"/>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A71" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="B71" s="3" t="s">
+      <c r="B71" s="6" t="s">
         <v>172</v>
       </c>
-      <c r="C71" s="6" t="s">
+      <c r="C71" s="9" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="72" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A72" s="1" t="s">
+      <c r="D71" s="4"/>
+      <c r="E71" s="4"/>
+    </row>
+    <row r="72" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A72" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="B72" s="3" t="s">
+      <c r="B72" s="6" t="s">
         <v>176</v>
       </c>
-      <c r="C72" s="1" t="s">
+      <c r="C72" s="4" t="s">
         <v>175</v>
       </c>
-      <c r="D72" s="1" t="s">
+      <c r="D72" s="4" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="73" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A73" s="1" t="s">
+      <c r="E72" s="4"/>
+    </row>
+    <row r="73" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A73" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="B73" s="3" t="s">
+      <c r="B73" s="6" t="s">
         <v>177</v>
       </c>
-      <c r="C73" s="1" t="s">
+      <c r="C73" s="4" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A74" s="1" t="s">
+      <c r="D73" s="4"/>
+      <c r="E73" s="4"/>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A74" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="B74" s="5" t="s">
+      <c r="B74" s="8" t="s">
         <v>180</v>
       </c>
-      <c r="C74" s="6" t="s">
+      <c r="C74" s="9" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="75" spans="1:4" ht="97.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="1" t="s">
+      <c r="D74" s="4"/>
+      <c r="E74" s="4"/>
+    </row>
+    <row r="75" spans="1:5" ht="97.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A75" s="4" t="s">
         <v>181</v>
       </c>
-      <c r="B75" s="3" t="s">
+      <c r="B75" s="6" t="s">
         <v>182</v>
       </c>
-      <c r="C75" s="1" t="s">
+      <c r="C75" s="4" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="76" spans="1:4" ht="72" x14ac:dyDescent="0.3">
-      <c r="A76" s="1" t="s">
+      <c r="D75" s="4"/>
+      <c r="E75" s="4"/>
+    </row>
+    <row r="76" spans="1:5" ht="72" x14ac:dyDescent="0.3">
+      <c r="A76" s="4" t="s">
         <v>181</v>
       </c>
-      <c r="B76" s="3" t="s">
+      <c r="B76" s="6" t="s">
         <v>184</v>
       </c>
-      <c r="C76" s="1" t="s">
+      <c r="C76" s="4" t="s">
         <v>185</v>
       </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A77" s="1" t="s">
+      <c r="D76" s="4"/>
+      <c r="E76" s="4"/>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A77" s="4" t="s">
         <v>181</v>
       </c>
-      <c r="B77" s="3" t="s">
+      <c r="B77" s="6" t="s">
         <v>188</v>
       </c>
-      <c r="C77" s="1" t="s">
+      <c r="C77" s="4" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="78" spans="1:4" ht="144" x14ac:dyDescent="0.3">
-      <c r="A78" s="1" t="s">
+      <c r="D77" s="4"/>
+      <c r="E77" s="4"/>
+    </row>
+    <row r="78" spans="1:5" ht="144" x14ac:dyDescent="0.3">
+      <c r="A78" s="4" t="s">
         <v>181</v>
       </c>
-      <c r="B78" s="7" t="s">
+      <c r="B78" s="10" t="s">
         <v>187</v>
       </c>
-      <c r="C78" s="1" t="s">
+      <c r="C78" s="4" t="s">
         <v>186</v>
       </c>
-      <c r="D78" s="1" t="s">
+      <c r="D78" s="4" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="79" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A79" s="1" t="s">
+      <c r="E78" s="4"/>
+    </row>
+    <row r="79" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A79" s="4" t="s">
         <v>181</v>
       </c>
-      <c r="B79" s="7" t="s">
+      <c r="B79" s="10" t="s">
         <v>189</v>
       </c>
-      <c r="C79" s="1" t="s">
+      <c r="C79" s="4" t="s">
         <v>190</v>
       </c>
-      <c r="D79" s="1" t="s">
+      <c r="D79" s="4" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="80" spans="1:4" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A80" s="1" t="s">
+      <c r="E79" s="4"/>
+    </row>
+    <row r="80" spans="1:5" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A80" s="4" t="s">
         <v>181</v>
       </c>
-      <c r="B80" s="7" t="s">
+      <c r="B80" s="10" t="s">
         <v>191</v>
       </c>
-      <c r="C80" s="1" t="s">
+      <c r="C80" s="4" t="s">
         <v>192</v>
       </c>
-      <c r="D80" s="1" t="s">
+      <c r="D80" s="4" t="s">
         <v>193</v>
       </c>
+      <c r="E80" s="4"/>
     </row>
     <row r="81" spans="1:5" ht="158.4" x14ac:dyDescent="0.3">
-      <c r="A81" s="1" t="s">
+      <c r="A81" s="4" t="s">
         <v>181</v>
       </c>
-      <c r="B81" s="3" t="s">
+      <c r="B81" s="6" t="s">
         <v>194</v>
       </c>
-      <c r="C81" s="1" t="s">
+      <c r="C81" s="4" t="s">
         <v>195</v>
       </c>
+      <c r="D81" s="4"/>
+      <c r="E81" s="4"/>
     </row>
     <row r="82" spans="1:5" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A82" s="1" t="s">
+      <c r="A82" s="4" t="s">
         <v>181</v>
       </c>
-      <c r="B82" s="10" t="s">
+      <c r="B82" s="12" t="s">
         <v>196</v>
       </c>
-      <c r="C82" s="1" t="s">
+      <c r="C82" s="4" t="s">
         <v>197</v>
       </c>
-      <c r="D82" s="1" t="s">
+      <c r="D82" s="4" t="s">
         <v>165</v>
       </c>
+      <c r="E82" s="4"/>
     </row>
     <row r="83" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A83" s="1" t="s">
+      <c r="A83" s="4" t="s">
         <v>181</v>
       </c>
-      <c r="B83" s="10" t="s">
+      <c r="B83" s="12" t="s">
         <v>198</v>
       </c>
-      <c r="C83" s="1" t="s">
+      <c r="C83" s="4" t="s">
         <v>199</v>
       </c>
-      <c r="D83" s="1" t="s">
+      <c r="D83" s="4" t="s">
         <v>165</v>
       </c>
+      <c r="E83" s="4"/>
     </row>
     <row r="84" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A84" s="1" t="s">
+      <c r="A84" s="4" t="s">
         <v>181</v>
       </c>
-      <c r="B84" s="10" t="s">
+      <c r="B84" s="12" t="s">
         <v>201</v>
       </c>
-      <c r="C84" s="1" t="s">
+      <c r="C84" s="4" t="s">
         <v>200</v>
       </c>
-      <c r="D84" s="1" t="s">
+      <c r="D84" s="4" t="s">
         <v>165</v>
       </c>
+      <c r="E84" s="4"/>
     </row>
     <row r="85" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A85" s="1" t="s">
+      <c r="A85" s="4" t="s">
         <v>202</v>
       </c>
-      <c r="B85" s="10" t="s">
+      <c r="B85" s="12" t="s">
         <v>204</v>
       </c>
-      <c r="C85" s="1" t="s">
+      <c r="C85" s="4" t="s">
         <v>203</v>
       </c>
-      <c r="D85" s="1" t="s">
+      <c r="D85" s="4" t="s">
         <v>165</v>
       </c>
+      <c r="E85" s="4"/>
     </row>
     <row r="86" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A86" s="1" t="s">
+      <c r="A86" s="4" t="s">
         <v>202</v>
       </c>
-      <c r="B86" s="10" t="s">
+      <c r="B86" s="12" t="s">
         <v>205</v>
       </c>
-      <c r="C86" s="1" t="s">
+      <c r="C86" s="4" t="s">
         <v>206</v>
       </c>
-      <c r="D86" s="1" t="s">
+      <c r="D86" s="4" t="s">
         <v>208</v>
       </c>
+      <c r="E86" s="4"/>
     </row>
     <row r="87" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A87" s="1" t="s">
+      <c r="A87" s="4" t="s">
         <v>202</v>
       </c>
-      <c r="B87" s="11" t="s">
+      <c r="B87" s="13" t="s">
         <v>209</v>
       </c>
-      <c r="C87" s="1" t="s">
+      <c r="C87" s="4" t="s">
         <v>207</v>
       </c>
-      <c r="D87" s="1" t="s">
+      <c r="D87" s="4" t="s">
         <v>208</v>
       </c>
+      <c r="E87" s="4"/>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A88" s="1" t="s">
+      <c r="A88" s="4" t="s">
         <v>202</v>
       </c>
-      <c r="B88" s="11" t="s">
+      <c r="B88" s="13" t="s">
         <v>210</v>
       </c>
-      <c r="C88" s="1" t="s">
+      <c r="C88" s="4" t="s">
         <v>211</v>
       </c>
+      <c r="D88" s="4"/>
+      <c r="E88" s="4"/>
     </row>
     <row r="89" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A89" s="1" t="s">
+      <c r="A89" s="4" t="s">
         <v>202</v>
       </c>
-      <c r="B89" s="10" t="s">
+      <c r="B89" s="12" t="s">
         <v>212</v>
       </c>
-      <c r="C89" s="1" t="s">
+      <c r="C89" s="4" t="s">
         <v>213</v>
       </c>
-      <c r="D89" s="1" t="s">
+      <c r="D89" s="4" t="s">
         <v>165</v>
       </c>
+      <c r="E89" s="4"/>
     </row>
     <row r="90" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A90" s="1" t="s">
+      <c r="A90" s="4" t="s">
         <v>202</v>
       </c>
-      <c r="B90" s="7" t="s">
+      <c r="B90" s="10" t="s">
         <v>214</v>
       </c>
-      <c r="C90" s="6" t="s">
+      <c r="C90" s="9" t="s">
         <v>215</v>
       </c>
-      <c r="D90" s="1" t="s">
+      <c r="D90" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="E90" s="1" t="s">
+      <c r="E90" s="4" t="s">
         <v>217</v>
       </c>
     </row>
     <row r="91" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A91" s="1" t="s">
+      <c r="A91" s="4" t="s">
         <v>202</v>
       </c>
-      <c r="B91" s="3" t="s">
+      <c r="B91" s="6" t="s">
         <v>218</v>
       </c>
-      <c r="C91" s="6" t="s">
+      <c r="C91" s="9" t="s">
         <v>219</v>
       </c>
+      <c r="D91" s="4"/>
+      <c r="E91" s="4"/>
     </row>
     <row r="92" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A92" s="1" t="s">
+      <c r="A92" s="4" t="s">
         <v>202</v>
       </c>
-      <c r="B92" s="7" t="s">
+      <c r="B92" s="10" t="s">
         <v>220</v>
       </c>
-      <c r="C92" s="1" t="s">
+      <c r="C92" s="4" t="s">
         <v>221</v>
       </c>
+      <c r="D92" s="4"/>
+      <c r="E92" s="4"/>
     </row>
     <row r="93" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A93" s="1" t="s">
+      <c r="A93" s="4" t="s">
         <v>202</v>
       </c>
-      <c r="B93" s="10" t="s">
+      <c r="B93" s="12" t="s">
         <v>222</v>
       </c>
-      <c r="C93" s="1" t="s">
+      <c r="C93" s="4" t="s">
         <v>223</v>
       </c>
-      <c r="D93" s="1" t="s">
+      <c r="D93" s="4" t="s">
         <v>208</v>
       </c>
+      <c r="E93" s="4"/>
     </row>
     <row r="94" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A94" s="1" t="s">
+      <c r="A94" s="4" t="s">
         <v>202</v>
       </c>
-      <c r="B94" s="11" t="s">
+      <c r="B94" s="13" t="s">
         <v>224</v>
       </c>
-      <c r="C94" s="1" t="s">
+      <c r="C94" s="4" t="s">
         <v>225</v>
       </c>
-      <c r="D94" s="1" t="s">
+      <c r="D94" s="4" t="s">
         <v>208</v>
       </c>
+      <c r="E94" s="4"/>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A95" s="1" t="s">
+      <c r="A95" s="4" t="s">
         <v>226</v>
       </c>
-      <c r="B95" s="3" t="s">
+      <c r="B95" s="6" t="s">
         <v>227</v>
       </c>
+      <c r="C95" s="4"/>
+      <c r="D95" s="4"/>
+      <c r="E95" s="4"/>
     </row>
     <row r="96" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A96" s="1" t="s">
+      <c r="A96" s="4" t="s">
         <v>226</v>
       </c>
-      <c r="B96" s="7" t="s">
+      <c r="B96" s="10" t="s">
         <v>228</v>
       </c>
-    </row>
-    <row r="97" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A97" s="1" t="s">
+      <c r="C96" s="4"/>
+      <c r="D96" s="4"/>
+      <c r="E96" s="4"/>
+    </row>
+    <row r="97" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A97" s="4" t="s">
         <v>226</v>
       </c>
-      <c r="B97" s="7" t="s">
+      <c r="B97" s="10" t="s">
         <v>222</v>
       </c>
-      <c r="C97" s="1" t="s">
+      <c r="C97" s="4" t="s">
         <v>223</v>
       </c>
-    </row>
-    <row r="98" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A98" s="1" t="s">
+      <c r="D97" s="4"/>
+      <c r="E97" s="4"/>
+    </row>
+    <row r="98" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A98" s="4" t="s">
         <v>226</v>
       </c>
-      <c r="B98" s="11" t="s">
+      <c r="B98" s="13" t="s">
         <v>229</v>
       </c>
-      <c r="C98" s="1" t="s">
+      <c r="C98" s="4" t="s">
         <v>230</v>
       </c>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A99" s="1" t="s">
+      <c r="D98" s="4"/>
+      <c r="E98" s="4"/>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A99" s="4" t="s">
         <v>226</v>
       </c>
-      <c r="B99" s="7" t="s">
+      <c r="B99" s="10" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A100" s="1" t="s">
+      <c r="C99" s="4"/>
+      <c r="D99" s="4"/>
+      <c r="E99" s="4"/>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A100" s="4" t="s">
         <v>226</v>
       </c>
-      <c r="B100" s="3" t="s">
+      <c r="B100" s="6" t="s">
         <v>232</v>
       </c>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A101" s="1" t="s">
+      <c r="C100" s="4"/>
+      <c r="D100" s="4"/>
+      <c r="E100" s="4"/>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A101" s="4" t="s">
         <v>226</v>
       </c>
-      <c r="B101" s="7" t="s">
+      <c r="B101" s="10" t="s">
         <v>233</v>
       </c>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A102" s="1" t="s">
+      <c r="C101" s="4"/>
+      <c r="D101" s="4"/>
+      <c r="E101" s="4"/>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A102" s="4" t="s">
         <v>226</v>
       </c>
-      <c r="B102" s="10" t="s">
+      <c r="B102" s="12" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="103" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A103" s="1" t="s">
+      <c r="C102" s="4"/>
+      <c r="D102" s="4"/>
+      <c r="E102" s="4"/>
+    </row>
+    <row r="103" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A103" s="4" t="s">
         <v>226</v>
       </c>
-      <c r="B103" s="5" t="s">
+      <c r="B103" s="8" t="s">
         <v>235</v>
       </c>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A104" s="1" t="s">
+      <c r="C103" s="4"/>
+      <c r="D103" s="4"/>
+      <c r="E103" s="4"/>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A104" s="4" t="s">
         <v>226</v>
       </c>
-      <c r="B104" s="5" t="s">
+      <c r="B104" s="8" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="105" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A105" s="1" t="s">
+      <c r="C104" s="4"/>
+      <c r="D104" s="4"/>
+      <c r="E104" s="4"/>
+    </row>
+    <row r="105" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A105" s="4" t="s">
         <v>237</v>
       </c>
-      <c r="B105" s="10" t="s">
+      <c r="B105" s="12" t="s">
         <v>238</v>
       </c>
-      <c r="C105" s="1" t="s">
+      <c r="C105" s="4" t="s">
         <v>239</v>
       </c>
-      <c r="D105" s="1" t="s">
+      <c r="D105" s="4" t="s">
         <v>208</v>
       </c>
-    </row>
-    <row r="106" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A106" s="1" t="s">
+      <c r="E105" s="4"/>
+    </row>
+    <row r="106" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A106" s="4" t="s">
         <v>237</v>
       </c>
-      <c r="B106" s="10" t="s">
+      <c r="B106" s="12" t="s">
         <v>240</v>
       </c>
-      <c r="C106" s="1" t="s">
+      <c r="C106" s="4" t="s">
         <v>241</v>
       </c>
-      <c r="D106" s="1" t="s">
+      <c r="D106" s="4" t="s">
         <v>208</v>
       </c>
-    </row>
-    <row r="107" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A107" s="1" t="s">
+      <c r="E106" s="4"/>
+    </row>
+    <row r="107" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A107" s="4" t="s">
         <v>237</v>
       </c>
-      <c r="B107" s="10" t="s">
+      <c r="B107" s="12" t="s">
         <v>242</v>
       </c>
-      <c r="C107" s="6" t="s">
+      <c r="C107" s="9" t="s">
         <v>243</v>
       </c>
-      <c r="D107" s="1" t="s">
+      <c r="D107" s="4" t="s">
         <v>208</v>
       </c>
-    </row>
-    <row r="108" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A108" s="1" t="s">
+      <c r="E107" s="4"/>
+    </row>
+    <row r="108" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A108" s="4" t="s">
         <v>237</v>
       </c>
-      <c r="B108" s="10" t="s">
+      <c r="B108" s="12" t="s">
         <v>244</v>
       </c>
-      <c r="C108" s="1" t="s">
+      <c r="C108" s="4" t="s">
         <v>245</v>
       </c>
-      <c r="D108" s="1" t="s">
+      <c r="D108" s="4" t="s">
         <v>208</v>
       </c>
-    </row>
-    <row r="109" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A109" s="1" t="s">
+      <c r="E108" s="4"/>
+    </row>
+    <row r="109" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A109" s="4" t="s">
         <v>237</v>
       </c>
-      <c r="B109" s="10" t="s">
+      <c r="B109" s="12" t="s">
         <v>246</v>
       </c>
-      <c r="C109" s="1" t="s">
+      <c r="C109" s="4" t="s">
         <v>247</v>
       </c>
-      <c r="D109" s="1" t="s">
+      <c r="D109" s="4" t="s">
         <v>208</v>
       </c>
-    </row>
-    <row r="110" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A110" s="1" t="s">
+      <c r="E109" s="4"/>
+    </row>
+    <row r="110" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A110" s="4" t="s">
         <v>237</v>
       </c>
-      <c r="B110" s="7" t="s">
+      <c r="B110" s="10" t="s">
         <v>248</v>
       </c>
-      <c r="C110" s="6" t="s">
+      <c r="C110" s="9" t="s">
         <v>249</v>
       </c>
-    </row>
-    <row r="111" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A111" s="1" t="s">
+      <c r="D110" s="4"/>
+      <c r="E110" s="4"/>
+    </row>
+    <row r="111" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A111" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B111" s="7" t="s">
+      <c r="B111" s="10" t="s">
         <v>250</v>
       </c>
-      <c r="C111" s="1" t="s">
+      <c r="C111" s="4" t="s">
         <v>251</v>
       </c>
-      <c r="D111" s="1" t="s">
+      <c r="D111" s="4" t="s">
         <v>252</v>
       </c>
-    </row>
-    <row r="112" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A112" s="1" t="s">
+      <c r="E111" s="4"/>
+    </row>
+    <row r="112" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A112" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="B112" s="3" t="s">
+      <c r="B112" s="6" t="s">
         <v>253</v>
       </c>
-      <c r="C112" s="1" t="s">
+      <c r="C112" s="4" t="s">
         <v>254</v>
       </c>
-      <c r="D112" s="1" t="s">
+      <c r="D112" s="4" t="s">
         <v>255</v>
       </c>
-    </row>
-    <row r="113" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A113" s="1" t="s">
+      <c r="E112" s="4"/>
+    </row>
+    <row r="113" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A113" s="4" t="s">
         <v>256</v>
       </c>
-      <c r="B113" s="10" t="s">
+      <c r="B113" s="12" t="s">
         <v>257</v>
       </c>
-      <c r="C113" s="1" t="s">
+      <c r="C113" s="4" t="s">
         <v>258</v>
       </c>
-      <c r="D113" s="1" t="s">
+      <c r="D113" s="4" t="s">
         <v>208</v>
       </c>
-    </row>
-    <row r="114" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A114" s="1" t="s">
+      <c r="E113" s="4"/>
+    </row>
+    <row r="114" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A114" s="4" t="s">
         <v>259</v>
       </c>
-      <c r="B114" s="10" t="s">
+      <c r="B114" s="12" t="s">
         <v>260</v>
       </c>
-      <c r="C114" s="1" t="s">
+      <c r="C114" s="4" t="s">
         <v>261</v>
       </c>
-      <c r="D114" s="1" t="s">
+      <c r="D114" s="4" t="s">
+        <v>262</v>
+      </c>
+      <c r="E114" s="4"/>
+    </row>
+    <row r="115" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A115" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="B115" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="C115" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="D115" s="1" t="s">
         <v>262</v>
       </c>
     </row>

--- a/Summary.xlsx
+++ b/Summary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Folders to backup!!!\Leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E69CFACA-5F40-42D0-90B8-3AD239F99EF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40D8E45B-3C24-496D-8E93-CE079DF862A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="265">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="269">
   <si>
     <t>Question</t>
   </si>
@@ -1362,6 +1362,29 @@
   </si>
   <si>
     <t>2642. Design Graph With Shortest Path Calculator</t>
+  </si>
+  <si>
+    <t>Graphs , BFS</t>
+  </si>
+  <si>
+    <t>815. Bus Routes</t>
+  </si>
+  <si>
+    <t>Algorithm:
+Return 0 if the source and target are the same.
+Initialize an empty map from an integer to a list of integers adjList to store the edges. The key is the bus stop and the value is the list of integers denoting the indices of routes that have this stop.
+Initialize an empty queue q and an unordered set vis to keep track of visited routes.
+Insert the initial routes into the queue q and mark them visited in vis.
+Iterate over the queue while it's not empty and do the following:
+Pop the route from the queue.
+Iterate over the stops in the route.
+If the stop is equal to target, return busCount.
+Otherwise, iterate over the routes for this stop in the map adjList.
+Add the unvisited routes to the queue and mark them visited.
+Return -1 after completing the BFS.</t>
+  </si>
+  <si>
+    <t>★★★★★★★★★★★★★★★★★★★★★★★★★★★★★★★★★★★★★★★★★★</t>
   </si>
 </sst>
 </file>
@@ -1798,10 +1821,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E115"/>
+  <dimension ref="A1:E116"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A111" zoomScale="93" workbookViewId="0">
-      <selection activeCell="B119" sqref="B119:B120"/>
+    <sheetView tabSelected="1" topLeftCell="A114" zoomScale="93" workbookViewId="0">
+      <selection activeCell="B116" sqref="B116"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3366,6 +3389,20 @@
       </c>
       <c r="D115" s="1" t="s">
         <v>262</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" ht="273.60000000000002" x14ac:dyDescent="0.3">
+      <c r="A116" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="B116" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="C116" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="D116" s="1" t="s">
+        <v>268</v>
       </c>
     </row>
   </sheetData>

--- a/Summary.xlsx
+++ b/Summary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Folders to backup!!!\Leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40D8E45B-3C24-496D-8E93-CE079DF862A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BB40940-5D3A-4FD7-8691-9A402756FA5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="269">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="272">
   <si>
     <t>Question</t>
   </si>
@@ -1385,6 +1385,28 @@
   </si>
   <si>
     <t>★★★★★★★★★★★★★★★★★★★★★★★★★★★★★★★★★★★★★★★★★★</t>
+  </si>
+  <si>
+    <t>Hashing , String</t>
+  </si>
+  <si>
+    <t>1930. Unique Length-3 Palindromic Subsequences</t>
+  </si>
+  <si>
+    <t>Intuition
+There is only one possible form a palindrome with length 3 can take. The first and last character must be the same, and the character in the middle can be anything (including the same character as the first/last character).
+The important thing to notice here is that the first and last characters must be the same. To solve this problem, we can focus on each letter of the alphabet letter and treat it as the first and last character. Then, we find how many characters we can put in between them to form a palindrome.
+Algorithm
+Create letters, a hash set of all letters in s.
+Initialize ans = 0.
+Iterate over each letter in letters:
+Calculate i as the first index in which letter appears in s and j as the final index in which letter appears in s:
+Initialize i = -1 and j = 0. Iterate over each index k in s. If s[k] = letter, set i = k if i = -1, and set j = k.
+Initialize a hash set between.
+Iterate k over the indices between i and j:
+Add s[k] to between.
+Add the length of between to ans.
+Return ans.</t>
   </si>
 </sst>
 </file>
@@ -1494,7 +1516,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1534,6 +1556,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1821,10 +1846,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E116"/>
+  <dimension ref="A1:E117"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A114" zoomScale="93" workbookViewId="0">
-      <selection activeCell="B116" sqref="B116"/>
+    <sheetView tabSelected="1" topLeftCell="A117" zoomScale="93" workbookViewId="0">
+      <selection activeCell="B117" sqref="B117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3403,6 +3428,20 @@
       </c>
       <c r="D116" s="1" t="s">
         <v>268</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" ht="360" x14ac:dyDescent="0.3">
+      <c r="A117" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="B117" s="14" t="s">
+        <v>270</v>
+      </c>
+      <c r="C117" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="D117" s="1" t="s">
+        <v>262</v>
       </c>
     </row>
   </sheetData>

--- a/Summary.xlsx
+++ b/Summary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Folders to backup!!!\Leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BB40940-5D3A-4FD7-8691-9A402756FA5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7183C276-F26B-411B-A527-9293FBE26C1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="272">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="275">
   <si>
     <t>Question</t>
   </si>
@@ -1407,6 +1407,15 @@
 Add s[k] to between.
 Add the length of between to ans.
 Return ans.</t>
+  </si>
+  <si>
+    <t>Arrays , Greedy</t>
+  </si>
+  <si>
+    <t>1846. Maximum Element After Decreasing and Rearranging</t>
+  </si>
+  <si>
+    <t>(Just see the code)</t>
   </si>
 </sst>
 </file>
@@ -1516,7 +1525,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1558,6 +1567,9 @@
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1846,10 +1858,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E117"/>
+  <dimension ref="A1:E118"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A117" zoomScale="93" workbookViewId="0">
-      <selection activeCell="B117" sqref="B117"/>
+      <selection activeCell="C118" sqref="C118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3442,6 +3454,17 @@
       </c>
       <c r="D117" s="1" t="s">
         <v>262</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A118" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="B118" s="15" t="s">
+        <v>273</v>
+      </c>
+      <c r="C118" s="1" t="s">
+        <v>274</v>
       </c>
     </row>
   </sheetData>

--- a/Summary.xlsx
+++ b/Summary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Folders to backup!!!\Leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7183C276-F26B-411B-A527-9293FBE26C1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF419331-98C6-4691-9EAD-C8F51846E6B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="275">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="278">
   <si>
     <t>Question</t>
   </si>
@@ -1416,6 +1416,38 @@
   </si>
   <si>
     <t>(Just see the code)</t>
+  </si>
+  <si>
+    <t>Hashing , Backtracking , String</t>
+  </si>
+  <si>
+    <t>1980. Find Unique Binary String</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">The code uses recursion to explore all possible binary strings and checks if each one is NOT present in the input array, if the string of length `n` is NOT present then the unique binary string found is stored in the `ans` variable. And returned. For checking if the Binary String is present in the given array of not we make a </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Hashset</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> and add all the elements of array in the hashset</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -1858,10 +1890,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E118"/>
+  <dimension ref="A1:E119"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A117" zoomScale="93" workbookViewId="0">
-      <selection activeCell="C118" sqref="C118"/>
+      <selection activeCell="D119" sqref="D119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3465,6 +3497,20 @@
       </c>
       <c r="C118" s="1" t="s">
         <v>274</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A119" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="B119" s="14" t="s">
+        <v>276</v>
+      </c>
+      <c r="C119" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="D119" s="1" t="s">
+        <v>216</v>
       </c>
     </row>
   </sheetData>

--- a/Summary.xlsx
+++ b/Summary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Folders to backup!!!\Leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF419331-98C6-4691-9EAD-C8F51846E6B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D9B292D-F88F-47B7-B501-6F9FF4066ACE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="278">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="280">
   <si>
     <t>Question</t>
   </si>
@@ -1448,6 +1448,12 @@
       </rPr>
       <t xml:space="preserve"> and add all the elements of array in the hashset</t>
     </r>
+  </si>
+  <si>
+    <t>Greedy apprach : To find the min pair sum, sort the given array and pair every element on the right to corresponding element on left this ensures that all the max elements are paired with min elements ie minimizing the sum of any x,y pairs</t>
+  </si>
+  <si>
+    <t>1877. Minimize Maximum Pair Sum in Array</t>
   </si>
 </sst>
 </file>
@@ -1890,10 +1896,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E119"/>
+  <dimension ref="A1:E120"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A117" zoomScale="93" workbookViewId="0">
-      <selection activeCell="D119" sqref="D119"/>
+    <sheetView tabSelected="1" topLeftCell="A118" zoomScale="93" workbookViewId="0">
+      <selection activeCell="B129" sqref="B129"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3511,6 +3517,17 @@
       </c>
       <c r="D119" s="1" t="s">
         <v>216</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A120" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="B120" s="15" t="s">
+        <v>279</v>
+      </c>
+      <c r="C120" s="1" t="s">
+        <v>278</v>
       </c>
     </row>
   </sheetData>

--- a/Summary.xlsx
+++ b/Summary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Folders to backup!!!\Leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D9B292D-F88F-47B7-B501-6F9FF4066ACE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D32BBD1B-A4F3-4CBE-8B90-4A5ED8F0579F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="280">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397" uniqueCount="283">
   <si>
     <t>Question</t>
   </si>
@@ -1454,6 +1454,15 @@
   </si>
   <si>
     <t>1877. Minimize Maximum Pair Sum in Array</t>
+  </si>
+  <si>
+    <t>1838. Frequency of the Most Frequent Element</t>
+  </si>
+  <si>
+    <t>https://youtu.be/vgBrQ0NM5vE?si=1oqRn6zS_NbaL7tM</t>
+  </si>
+  <si>
+    <t>★★★★★★★★★★★★★★★★</t>
   </si>
 </sst>
 </file>
@@ -1563,7 +1572,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1608,6 +1617,12 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1896,10 +1911,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E120"/>
+  <dimension ref="A1:E121"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A118" zoomScale="93" workbookViewId="0">
-      <selection activeCell="B129" sqref="B129"/>
+      <selection activeCell="C130" sqref="C130"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3528,6 +3543,20 @@
       </c>
       <c r="C120" s="1" t="s">
         <v>278</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A121" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B121" s="17" t="s">
+        <v>280</v>
+      </c>
+      <c r="C121" s="16" t="s">
+        <v>281</v>
+      </c>
+      <c r="D121" s="1" t="s">
+        <v>282</v>
       </c>
     </row>
   </sheetData>
@@ -3546,8 +3575,9 @@
     <hyperlink ref="C91" r:id="rId12" xr:uid="{FD05A83C-AF3B-4F2F-BCB9-215270CCA260}"/>
     <hyperlink ref="C107" r:id="rId13" xr:uid="{D1B700A8-F705-4DCD-A6A5-531621BB040C}"/>
     <hyperlink ref="C110" r:id="rId14" xr:uid="{5A078954-02C6-4C28-8330-A5B321EBA503}"/>
+    <hyperlink ref="C121" r:id="rId15" xr:uid="{CC2C3F2D-9F97-46B9-A68F-15D7925F64E1}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId15"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId16"/>
 </worksheet>
 </file>
--- a/Summary.xlsx
+++ b/Summary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Folders to backup!!!\Leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D32BBD1B-A4F3-4CBE-8B90-4A5ED8F0579F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5FF7BD5-160D-46A6-BC0C-72758051329E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397" uniqueCount="283">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="401" uniqueCount="287">
   <si>
     <t>Question</t>
   </si>
@@ -1463,6 +1463,37 @@
   </si>
   <si>
     <t>★★★★★★★★★★★★★★★★</t>
+  </si>
+  <si>
+    <t>Arrays , Sorting</t>
+  </si>
+  <si>
+    <t>1887. Reduction Operations to Make the Array Elements Equal</t>
+  </si>
+  <si>
+    <t>/*
+         * in this solution we count all the numbers like,, (FIRST SORT THE ARR) lets say we have input arr = [1,1,2,2,3]
+         * so start from the end and chage all 3's to 2 (curr opsCount = 0)
+         * [1,1,2,2,2] opsCount = num of 3 = 1
+         * now change all the 2's to one so
+         * [1,1,1,1,1] , all elements are equal so end the opertion
+         * 
+         * So in short u just have to count from 1st occurence of every element from the back till the end
+         * ie 
+         * 
+         * sort(nums)
+         * for i from end to start:
+         *      if i == 0:
+         *            break //we dont want to count from 0 to end caz all elements are getting changed to nums[0] at the end of the program
+         * 
+         *      if nums[i] == first occurence of element:
+         *          opsCount += (arr.len - i) //we have to count ALL the element that we have changed at the end of the array too!
+         *        
+         * 
+        */</t>
+  </si>
+  <si>
+    <t>★★★★★★</t>
   </si>
 </sst>
 </file>
@@ -1911,10 +1942,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E121"/>
+  <dimension ref="A1:E122"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A118" zoomScale="93" workbookViewId="0">
-      <selection activeCell="C130" sqref="C130"/>
+      <selection activeCell="B122" sqref="B122"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3557,6 +3588,20 @@
       </c>
       <c r="D121" s="1" t="s">
         <v>282</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" ht="302.39999999999998" x14ac:dyDescent="0.3">
+      <c r="A122" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="B122" s="14" t="s">
+        <v>284</v>
+      </c>
+      <c r="C122" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="D122" s="1" t="s">
+        <v>286</v>
       </c>
     </row>
   </sheetData>

--- a/Summary.xlsx
+++ b/Summary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Folders to backup!!!\Leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5FF7BD5-160D-46A6-BC0C-72758051329E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD306B64-F0C8-41E2-9A02-13E6BA09B766}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="401" uniqueCount="287">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="291">
   <si>
     <t>Question</t>
   </si>
@@ -1494,6 +1494,29 @@
   </si>
   <si>
     <t>★★★★★★</t>
+  </si>
+  <si>
+    <t>Arrays , Hashing , Math</t>
+  </si>
+  <si>
+    <t>1814. Count Nice Pairs in an Array</t>
+  </si>
+  <si>
+    <t>Hint 1
+The condition can be rearranged to (nums[i] - rev(nums[i])) == (nums[j] - rev(nums[j])).
+Hint 2
+Transform each nums[i] into (nums[i] - rev(nums[i])). Then, count the number of (i, j) pairs that have equal values.
+Hint 3
+Keep a map storing the frequencies of values that you have seen so far. For each i, check if nums[i] is in the map. If it is, then add that count to the overall count. Then, increment the frequency of nums[i].
+ /*
+             * Ok so the reason y we are doing count += tmpCount; is caz: consider the rearangged arr = [-18, 9, -18, -18, 9]
+             * now consider the 1st '-18' rearranged[0] = -18 it isnt in hashmap so tmpCount=0, before it there are no '-18' so it form 0 pairs so far so count += 0(tmpCount)   
+             * now consider rearangged[2] = -18, before it there is 1 '-18' (tmpCount/freq of '-18' in hm=1 since we encountered '-18' one time before) so we can form 1 pair so count += 1(tmpCount)   
+             * now considered rearangged[3] = -18, in hashmap we already have -18:2, ie there are two '-18' before it forms 2 pairs so count += 2(tmpCount)  
+            */</t>
+  </si>
+  <si>
+    <t>★★★★★★★★★★★★★★★★★★★★★★★★★★★★★★</t>
   </si>
 </sst>
 </file>
@@ -1942,10 +1965,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E122"/>
+  <dimension ref="A1:E123"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A118" zoomScale="93" workbookViewId="0">
-      <selection activeCell="B122" sqref="B122"/>
+    <sheetView tabSelected="1" topLeftCell="A123" zoomScale="93" workbookViewId="0">
+      <selection activeCell="D123" sqref="D123"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3602,6 +3625,20 @@
       </c>
       <c r="D122" s="1" t="s">
         <v>286</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" ht="259.2" x14ac:dyDescent="0.3">
+      <c r="A123" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="B123" s="17" t="s">
+        <v>288</v>
+      </c>
+      <c r="C123" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="D123" s="1" t="s">
+        <v>290</v>
       </c>
     </row>
   </sheetData>

--- a/Summary.xlsx
+++ b/Summary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Folders to backup!!!\Leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD306B64-F0C8-41E2-9A02-13E6BA09B766}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7EB87AE-A4D6-46DD-8B0F-292FAB9557A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="291">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="293">
   <si>
     <t>Question</t>
   </si>
@@ -1517,6 +1517,12 @@
   </si>
   <si>
     <t>★★★★★★★★★★★★★★★★★★★★★★★★★★★★★★</t>
+  </si>
+  <si>
+    <t>1630. Arithmetic Subarrays</t>
+  </si>
+  <si>
+    <t>If and only if a set of numbers can make an arithmetic sequence, then its sorted version makes an arithmetic sequence. So to check a set of numbers, sort it, and check if that sequence is arithmetic.</t>
   </si>
 </sst>
 </file>
@@ -1965,10 +1971,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E123"/>
+  <dimension ref="A1:E124"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A123" zoomScale="93" workbookViewId="0">
-      <selection activeCell="D123" sqref="D123"/>
+      <selection activeCell="C132" sqref="C132"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3639,6 +3645,17 @@
       </c>
       <c r="D123" s="1" t="s">
         <v>290</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A124" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="B124" s="15" t="s">
+        <v>291</v>
+      </c>
+      <c r="C124" s="1" t="s">
+        <v>292</v>
       </c>
     </row>
   </sheetData>

--- a/Summary.xlsx
+++ b/Summary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Folders to backup!!!\Leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7EB87AE-A4D6-46DD-8B0F-292FAB9557A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A1C904F-2935-41C7-8D87-FF7E2F6A93A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="293">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="296">
   <si>
     <t>Question</t>
   </si>
@@ -1523,6 +1523,21 @@
   </si>
   <si>
     <t>If and only if a set of numbers can make an arithmetic sequence, then its sorted version makes an arithmetic sequence. So to check a set of numbers, sort it, and check if that sequence is arithmetic.</t>
+  </si>
+  <si>
+    <t>Since Bob is forced to take the last pile of coins, no matter what it is. We should give him the minimum pile IN THE ARRAY!! (not the ones we have selected)
+ie lets say the arr after sorting is: [ 7,6,5,4,3,2]
+so since alice will eventually pick all the maximum num in subarr we can make pick piles like
+1st iter - 7,6,2
+2nd iter - 5,4,3
+this will allow us to maximize the coins we get (10 in above case)
+if we pick consecutive elements then the piles will be (7,6,5) , (4,3,2). The coins we get from this  = 6 + 3 = 9. Note that we are giving up "5" for "3" by just picking consecutive piles. Since Bob will take any pile remaining at the end just give him the lowest piles in arr</t>
+  </si>
+  <si>
+    <t>Greedy , Sorting</t>
+  </si>
+  <si>
+    <t>1561. Maximum Number of Coins You Can Get</t>
   </si>
 </sst>
 </file>
@@ -1971,10 +1986,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E124"/>
+  <dimension ref="A1:E125"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A123" zoomScale="93" workbookViewId="0">
-      <selection activeCell="C132" sqref="C132"/>
+    <sheetView tabSelected="1" topLeftCell="A125" zoomScale="93" workbookViewId="0">
+      <selection activeCell="D125" sqref="D125"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3656,6 +3671,20 @@
       </c>
       <c r="C124" s="1" t="s">
         <v>292</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" ht="172.8" x14ac:dyDescent="0.3">
+      <c r="A125" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="B125" s="15" t="s">
+        <v>295</v>
+      </c>
+      <c r="C125" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="D125" s="1" t="s">
+        <v>193</v>
       </c>
     </row>
   </sheetData>

--- a/Summary.xlsx
+++ b/Summary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Folders to backup!!!\Leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A1C904F-2935-41C7-8D87-FF7E2F6A93A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B9B9328-45DE-4B60-9C62-689C1BCF44AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="296">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="300">
   <si>
     <t>Question</t>
   </si>
@@ -1538,6 +1538,23 @@
   </si>
   <si>
     <t>1561. Maximum Number of Coins You Can Get</t>
+  </si>
+  <si>
+    <t>Prefix Sum , Math</t>
+  </si>
+  <si>
+    <t>1685. Sum of Absolute Differences in a Sorted Array</t>
+  </si>
+  <si>
+    <t>Hint 1
+Absolute difference is the same as max(a, b) - min(a, b). How can you use this fact with the fact that the array is sorted?
+Hint 2
+For nums[i], the answer is (nums[i] - nums[0]) + (nums[i] - nums[1]) + ... + (nums[i] - nums[i-1]) + (nums[i+1] - nums[i]) + (nums[i+2] - nums[i]) + ... + (nums[n-1] - nums[i]).
+Hint 3
+It can be simplified to (nums[i] * i - (nums[0] + nums[1] + ... + nums[i-1])) + ((nums[i+1] + nums[i+2] + ... + nums[n-1]) - nums[i] * (n-i-1)). One can build prefix and suffix sums to compute this quickly.</t>
+  </si>
+  <si>
+    <t>★★★★★★★★★★★★★★★★★★★★★★★★★★★★★★★★★★★★★★★</t>
   </si>
 </sst>
 </file>
@@ -1986,10 +2003,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E125"/>
+  <dimension ref="A1:E126"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A125" zoomScale="93" workbookViewId="0">
-      <selection activeCell="D125" sqref="D125"/>
+      <selection activeCell="B126" sqref="B126"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3685,6 +3702,20 @@
       </c>
       <c r="D125" s="1" t="s">
         <v>193</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A126" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="B126" s="17" t="s">
+        <v>297</v>
+      </c>
+      <c r="C126" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="D126" s="1" t="s">
+        <v>299</v>
       </c>
     </row>
   </sheetData>

--- a/Summary.xlsx
+++ b/Summary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Folders to backup!!!\Leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B9B9328-45DE-4B60-9C62-689C1BCF44AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{828E0444-55BD-43D4-8CE1-0543B055332E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="300">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="302">
   <si>
     <t>Question</t>
   </si>
@@ -1555,6 +1555,15 @@
   </si>
   <si>
     <t>★★★★★★★★★★★★★★★★★★★★★★★★★★★★★★★★★★★★★★★</t>
+  </si>
+  <si>
+    <t>1727. Largest Submatrix With Rearrangements</t>
+  </si>
+  <si>
+    <t>Hint 1
+For each column, find the number of consecutive ones ending at each position.
+Hint 2
+For each row, sort the cumulative ones in non-increasing order and "fit" the largest submatrix.</t>
   </si>
 </sst>
 </file>
@@ -2003,10 +2012,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E126"/>
+  <dimension ref="A1:E127"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A125" zoomScale="93" workbookViewId="0">
-      <selection activeCell="B126" sqref="B126"/>
+      <selection activeCell="C129" sqref="C129"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3715,6 +3724,20 @@
         <v>298</v>
       </c>
       <c r="D126" s="1" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A127" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="B127" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="C127" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="D127" s="1" t="s">
         <v>299</v>
       </c>
     </row>

--- a/Summary.xlsx
+++ b/Summary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Folders to backup!!!\Leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{828E0444-55BD-43D4-8CE1-0543B055332E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{648BCAC9-C870-4C34-A644-AB2811A7D784}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="302">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="305">
   <si>
     <t>Question</t>
   </si>
@@ -1564,6 +1564,18 @@
 For each column, find the number of consecutive ones ending at each position.
 Hint 2
 For each row, sort the cumulative ones in non-increasing order and "fit" the largest submatrix.</t>
+  </si>
+  <si>
+    <t>935. Knight Dialer</t>
+  </si>
+  <si>
+    <t>Make a hashmap like:
+Start number -&gt; [ list of numbers we con reach from start numbers ]
+Now do DFS/recursion for every number on the dial pad keeping the knight on that start position and keep the knight moving till n (len of number we want) == 0, when n==0 return 1
+Also use memoization using arr of size [10][n+1] {10 caz we have numbers 0-9}</t>
+  </si>
+  <si>
+    <t>★★★★★★★★★★★★★★★★★★★</t>
   </si>
 </sst>
 </file>
@@ -2012,10 +2024,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E127"/>
+  <dimension ref="A1:E128"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A125" zoomScale="93" workbookViewId="0">
-      <selection activeCell="C129" sqref="C129"/>
+    <sheetView tabSelected="1" topLeftCell="A126" zoomScale="93" workbookViewId="0">
+      <selection activeCell="B137" sqref="B137"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3739,6 +3751,20 @@
       </c>
       <c r="D127" s="1" t="s">
         <v>299</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A128" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="B128" s="17" t="s">
+        <v>302</v>
+      </c>
+      <c r="C128" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="D128" s="1" t="s">
+        <v>304</v>
       </c>
     </row>
   </sheetData>

--- a/Summary.xlsx
+++ b/Summary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Folders to backup!!!\Leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{648BCAC9-C870-4C34-A644-AB2811A7D784}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B7E8864-0E98-40EE-AF56-769CD8793FD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="305">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="308">
   <si>
     <t>Question</t>
   </si>
@@ -1576,6 +1576,15 @@
   </si>
   <si>
     <t>★★★★★★★★★★★★★★★★★★★</t>
+  </si>
+  <si>
+    <t>2147. Number of Ways to Divide a Long Corridor</t>
+  </si>
+  <si>
+    <t>https://youtu.be/YOTjCd4Eyhc?si=ihHAR-LFjIVmgtGk</t>
+  </si>
+  <si>
+    <t>★★★★★★★★★★★★★★★★★★★★★★★★★★★★★★★★★★★★★★★★★★★★★★★★★★★</t>
   </si>
 </sst>
 </file>
@@ -1607,7 +1616,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1656,6 +1665,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC00000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -1685,7 +1700,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1736,6 +1751,9 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2024,10 +2042,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E128"/>
+  <dimension ref="A1:E129"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A126" zoomScale="93" workbookViewId="0">
-      <selection activeCell="B137" sqref="B137"/>
+      <selection activeCell="C131" sqref="C131"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3765,6 +3783,20 @@
       </c>
       <c r="D128" s="1" t="s">
         <v>304</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A129" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="B129" s="18" t="s">
+        <v>305</v>
+      </c>
+      <c r="C129" s="16" t="s">
+        <v>306</v>
+      </c>
+      <c r="D129" s="1" t="s">
+        <v>307</v>
       </c>
     </row>
   </sheetData>
@@ -3784,8 +3816,9 @@
     <hyperlink ref="C107" r:id="rId13" xr:uid="{D1B700A8-F705-4DCD-A6A5-531621BB040C}"/>
     <hyperlink ref="C110" r:id="rId14" xr:uid="{5A078954-02C6-4C28-8330-A5B321EBA503}"/>
     <hyperlink ref="C121" r:id="rId15" xr:uid="{CC2C3F2D-9F97-46B9-A68F-15D7925F64E1}"/>
+    <hyperlink ref="C129" r:id="rId16" xr:uid="{BDBDE079-8D70-47D2-88B1-D13C2C369485}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId16"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId17"/>
 </worksheet>
 </file>
--- a/Summary.xlsx
+++ b/Summary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Folders to backup!!!\Leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B7E8864-0E98-40EE-AF56-769CD8793FD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EE7D213-7DC4-4B3C-9FC7-3716C1A22CC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="308">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="311">
   <si>
     <t>Question</t>
   </si>
@@ -1585,6 +1585,17 @@
   </si>
   <si>
     <t>★★★★★★★★★★★★★★★★★★★★★★★★★★★★★★★★★★★★★★★★★★★★★★★★★★★</t>
+  </si>
+  <si>
+    <t>Math , Coordinates</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+1266. Minimum Time Visiting All Points</t>
+  </si>
+  <si>
+    <t>This problem requires the knowlege of chebyshev distance to do it efficiently
+Also when we go diagonally we need to increment `time` by sqrt(2) but since `time` variable is `int` therefore sqrt(2) = 1.414 = 1 (when typecasted to integer). Hence we can use chebyshev distance here!!!!!!</t>
   </si>
 </sst>
 </file>
@@ -1616,7 +1627,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1671,6 +1682,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -1700,7 +1717,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1754,6 +1771,9 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2042,10 +2062,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E129"/>
+  <dimension ref="A1:E130"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A126" zoomScale="93" workbookViewId="0">
-      <selection activeCell="C131" sqref="C131"/>
+      <selection activeCell="C133" sqref="C133"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3797,6 +3817,20 @@
       </c>
       <c r="D129" s="1" t="s">
         <v>307</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A130" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="B130" s="19" t="s">
+        <v>309</v>
+      </c>
+      <c r="C130" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="D130" s="1" t="s">
+        <v>304</v>
       </c>
     </row>
   </sheetData>

--- a/Summary.xlsx
+++ b/Summary.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Folders to backup!!!\Leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EE7D213-7DC4-4B3C-9FC7-3716C1A22CC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A116850-7DE4-4E88-8BD0-5AE0BB128F44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="311">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="314">
   <si>
     <t>Question</t>
   </si>
@@ -1596,6 +1596,15 @@
   <si>
     <t>This problem requires the knowlege of chebyshev distance to do it efficiently
 Also when we go diagonally we need to increment `time` by sqrt(2) but since `time` variable is `int` therefore sqrt(2) = 1.414 = 1 (when typecasted to integer). Hence we can use chebyshev distance here!!!!!!</t>
+  </si>
+  <si>
+    <t>Binary search</t>
+  </si>
+  <si>
+    <t>1287. Element Appearing More Than 25% In Sorted Array</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/element-appearing-more-than-25-in-sorted-array/?envType=daily-question&amp;envId=2023-12-11</t>
   </si>
 </sst>
 </file>
@@ -2062,7 +2071,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E130"/>
+  <dimension ref="A1:E131"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A126" zoomScale="93" workbookViewId="0">
       <selection activeCell="C133" sqref="C133"/>
@@ -3833,6 +3842,20 @@
         <v>304</v>
       </c>
     </row>
+    <row r="131" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A131" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="B131" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="C131" s="16" t="s">
+        <v>313</v>
+      </c>
+      <c r="D131" s="1" t="s">
+        <v>262</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="D21" r:id="rId1" xr:uid="{35299F42-C228-43E2-B954-EFB9EDC93588}"/>
@@ -3851,8 +3874,9 @@
     <hyperlink ref="C110" r:id="rId14" xr:uid="{5A078954-02C6-4C28-8330-A5B321EBA503}"/>
     <hyperlink ref="C121" r:id="rId15" xr:uid="{CC2C3F2D-9F97-46B9-A68F-15D7925F64E1}"/>
     <hyperlink ref="C129" r:id="rId16" xr:uid="{BDBDE079-8D70-47D2-88B1-D13C2C369485}"/>
+    <hyperlink ref="C131" r:id="rId17" xr:uid="{4FFFBB6A-C6A4-4D29-9CE7-EA36F442FF5E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId17"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId18"/>
 </worksheet>
 </file>
--- a/Summary.xlsx
+++ b/Summary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Folders to backup!!!\Leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A116850-7DE4-4E88-8BD0-5AE0BB128F44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C7F5A47-47BB-4056-8EF2-03ED07EC2F47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="314">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="439" uniqueCount="316">
   <si>
     <t>Question</t>
   </si>
@@ -1605,6 +1605,12 @@
   </si>
   <si>
     <t>https://leetcode.com/problems/element-appearing-more-than-25-in-sorted-array/?envType=daily-question&amp;envId=2023-12-11</t>
+  </si>
+  <si>
+    <t>2870. Minimum Number of Operations to Make Array Empty</t>
+  </si>
+  <si>
+    <t>Hashing / Array</t>
   </si>
 </sst>
 </file>
@@ -2071,10 +2077,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E131"/>
+  <dimension ref="A1:E132"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A126" zoomScale="93" workbookViewId="0">
-      <selection activeCell="C133" sqref="C133"/>
+    <sheetView tabSelected="1" topLeftCell="A129" zoomScale="93" workbookViewId="0">
+      <selection activeCell="B132" sqref="B132"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3854,6 +3860,17 @@
       </c>
       <c r="D131" s="1" t="s">
         <v>262</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A132" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="B132" s="17" t="s">
+        <v>314</v>
+      </c>
+      <c r="D132" s="1" t="s">
+        <v>304</v>
       </c>
     </row>
   </sheetData>

--- a/Summary.xlsx
+++ b/Summary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Folders to backup!!!\Leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C7F5A47-47BB-4056-8EF2-03ED07EC2F47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C40E6C9A-B9E8-4BB4-9C1B-B10D5B529710}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="439" uniqueCount="316">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="443" uniqueCount="319">
   <si>
     <t>Question</t>
   </si>
@@ -1611,6 +1611,16 @@
   </si>
   <si>
     <t>Hashing / Array</t>
+  </si>
+  <si>
+    <t>Binary Search &amp; DP</t>
+  </si>
+  <si>
+    <t>1235. Maximum Profit in Job Scheduling</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/maximum-profit-in-job-scheduling/?envType=daily-question&amp;envId=2024-01-06
+https://youtu.be/LL0tVxlAeV4?si=GFcCdUUl4pB6wd7L</t>
   </si>
 </sst>
 </file>
@@ -2077,10 +2087,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E132"/>
+  <dimension ref="A1:E133"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A129" zoomScale="93" workbookViewId="0">
-      <selection activeCell="B132" sqref="B132"/>
+      <selection activeCell="C139" sqref="C139"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3871,6 +3881,20 @@
       </c>
       <c r="D132" s="1" t="s">
         <v>304</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A133" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="B133" s="18" t="s">
+        <v>317</v>
+      </c>
+      <c r="C133" s="16" t="s">
+        <v>318</v>
+      </c>
+      <c r="D133" s="1" t="s">
+        <v>307</v>
       </c>
     </row>
   </sheetData>
@@ -3892,8 +3916,9 @@
     <hyperlink ref="C121" r:id="rId15" xr:uid="{CC2C3F2D-9F97-46B9-A68F-15D7925F64E1}"/>
     <hyperlink ref="C129" r:id="rId16" xr:uid="{BDBDE079-8D70-47D2-88B1-D13C2C369485}"/>
     <hyperlink ref="C131" r:id="rId17" xr:uid="{4FFFBB6A-C6A4-4D29-9CE7-EA36F442FF5E}"/>
+    <hyperlink ref="C133" r:id="rId18" display="https://leetcode.com/problems/maximum-profit-in-job-scheduling/?envType=daily-question&amp;envId=2024-01-06" xr:uid="{01FC8571-F02A-403C-83B7-402A57895F91}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId18"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId19"/>
 </worksheet>
 </file>